--- a/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
+++ b/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>1.003911302182094e-06</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>2.800369958600767e-06</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>4.222833341054923e-06</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>4.443427064624834e-06</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>4.632868725076932e-06</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>4.906521708325058e-06</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>4.488212246439369e-06</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>4.968249852521265e-06</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>3.696697635889545e-06</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>4.699351316718316e-06</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>3.688536907179176e-06</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>3.324080995577811e-06</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>6.648397401359277e-06</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>5.30203474492719e-06</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>5.429984847962041e-06</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>4.722723868724922e-06</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>4.845532868701418e-06</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>6.241724600402411e-06</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>5.136102612011141e-06</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>5.984743736077724e-06</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>1.139468928643491e-05</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>1.277872835955177e-05</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>1.700400580479619e-05</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>1.866350771365947e-05</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>1.642078524591032e-05</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>2.0031748659319e-05</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>1.833188143386869e-05</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>1.910598828106061e-05</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>1.877170094342035e-05</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>1.877403849037332e-05</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>1.779976037110028e-05</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>1.652233499204064e-05</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>1.975503332049129e-05</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>1.73290483579689e-05</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>1.683193934146222e-05</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>1.098583513297806e-05</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>1.123611569879694e-05</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>9.271737689297937e-06</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>1.134572071504679e-05</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>1.710263308225266e-05</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>1.750590889163406e-05</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>1.636208902411694e-05</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>1.478899019514639e-05</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>1.561740343122481e-05</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.516175084933548e-05</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>1.019531776715427e-05</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>1.356629258026172e-05</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>2.044429235985378e-05</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>2.963706162891428e-05</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>4.075871733760341e-05</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>8.598387592427764e-05</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001458136699369737</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004004202966473285</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006483919947153341</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007147581219881063</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005766112586068361</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002992652947220026</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002292299922823062</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002906100887307447</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001283819086729053</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>9.289642636719077e-05</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>5.374788160494251e-05</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.823920079154378e-05</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>2.167252186750793e-05</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>2.188680757823856e-05</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>2.620035401489747e-05</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>3.344122277121999e-05</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>3.234275566213716e-05</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>6.911220240277263e-05</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001053149775730746</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002559412446372343</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.00064708924827766</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006387892865982628</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.000348337397163955</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0001821895223073151</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>9.162288040498924e-05</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>9.488424176313315e-05</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>6.68405947524277e-05</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>5.943658622827903e-05</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>3.822632645391872e-05</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>4.347846010805113e-05</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>9.333485546735955e-05</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>6.305579840389958e-05</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>2.822038819035869e-05</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>2.437189392206575e-05</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>2.232557054880997e-05</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>2.864407127555294e-05</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>5.179120576622905e-05</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001200743724731021</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001350022072627554</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001576588006929124</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001635376255191664</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001458598430857729</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001279287985448936</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>9.621538420290095e-05</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>8.791764924378772e-05</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.270425588248438e-05</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>8.347065135287189e-05</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>8.116038279066642e-05</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>8.186415338145527e-05</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>9.572514903772861e-05</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001283202703444668</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002104222491540148</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003220486683357956</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004254010167138297</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005666451978522166</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007058018680730735</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007632444899812367</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>0.0009493180187277939</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>0.00116664734932758</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>0.001179365448335933</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>0.001323736719372463</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>0.001353048945555235</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>0.001343632386193721</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>0.00132125263787467</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>0.001324503908421497</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>0.00125782267225719</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>0.001225281906263601</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>0.001008339295102033</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009354744297227361</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>0.0007866759866496458</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006120569535297865</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005593383933698716</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004809554225394651</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>0.0004580511732173382</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004592097130561311</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004545111473396111</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004413905903409231</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004446780639924145</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0004497149283296686</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005026778059218666</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005481529164959392</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005765052581455648</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005815453425130225</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005704039690835095</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005421480398599475</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004652909072460537</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>0.0002914519151903295</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002458982137642296</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>0.000196526042366269</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001518874629243444</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>0.0001429236585382152</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001406361268284369</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.0001435784801030762</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001366878406123011</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001359435454987607</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001366123718327163</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001361220669321244</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001341115842147438</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001316948281702436</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001318898045597999</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001183849360322415</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001204346355127321</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001211699482547004</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001208193038828718</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001066696036486944</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>9.271403551196339e-05</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>8.816842111172245e-05</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>8.599710710864717e-05</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001065970059101856</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001849546508203854</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002273727176250479</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.000241850347195317</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002472864292717167</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002519289788509245</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002537184996205051</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002454570459951823</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.0002252661632429881</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001415680531670075</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>9.233420437968237e-05</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>8.419718988585551e-05</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>9.745026840402588e-05</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001369266488330788</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001529703243506324</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002325417422859975</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.0003099691982310474</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003230032053109591</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003111060546336464</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0002811354379809007</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002784075371153608</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002496076177388872</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002127388886521917</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001949570547108702</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001918415410961279</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.0001902101695717868</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.0001882995976859306</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001767845168106176</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.0001988761842748653</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002296897737491856</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002609951062288512</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0002962219134575351</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003439231828168512</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003890598420051698</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003709883750739037</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003749157563009049</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003374848580031055</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003315565408277864</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.0002945697218428833</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0002825518522778923</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002753785995543116</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.0003511987163355977</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003072041915850527</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003256632248796593</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002955128106657019</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002774616925699016</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002636577314520728</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002482000117187046</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.000229638772543721</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.000232783065995398</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001199122663674994</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>4.969835278029997e-05</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.083400906506781e-05</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>4.352151316491228e-05</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>2.707097121328581e-05</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.202146782133933e-05</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>1.886652949228223e-05</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>1.949256770175509e-05</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.737386301300021e-05</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>5.134748437428754e-05</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>5.749407947633022e-05</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>5.053571319550639e-05</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>4.51255200109887e-05</v>

--- a/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
+++ b/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>1.003911302182094e-06</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>2.800369958600767e-06</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>4.222833341054923e-06</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>4.443427064624834e-06</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>4.632868725076932e-06</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>4.906521708325058e-06</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>4.488212246439369e-06</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>4.968249852521265e-06</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>3.696697635889545e-06</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>4.699351316718316e-06</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>3.688536907179176e-06</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>3.324080995577811e-06</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>6.648397401359277e-06</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>5.30203474492719e-06</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>5.429984847962041e-06</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>4.722723868724922e-06</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>4.845532868701418e-06</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>6.241724600402411e-06</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>5.136102612011141e-06</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>5.984743736077724e-06</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>1.139468928643491e-05</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>1.277872835955177e-05</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>1.700400580479619e-05</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>1.866350771365947e-05</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>1.642078524591032e-05</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>2.0031748659319e-05</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>1.833188143386869e-05</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>1.910598828106061e-05</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>1.877170094342035e-05</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>1.877403849037332e-05</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>1.779976037110028e-05</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>1.652233499204064e-05</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>1.975503332049129e-05</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>1.73290483579689e-05</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>1.683193934146222e-05</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>1.098583513297806e-05</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>1.123611569879694e-05</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>9.271737689297937e-06</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>1.134572071504679e-05</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>1.710263308225266e-05</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>1.750590889163406e-05</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>1.636208902411694e-05</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>1.478899019514639e-05</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>1.561740343122481e-05</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.516175084933548e-05</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>1.019531776715427e-05</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>1.356629258026172e-05</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>2.044429235985378e-05</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>2.963706162891428e-05</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>4.075871733760341e-05</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>8.598387592427764e-05</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001458136699369737</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004004202966473285</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006483919947153341</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007147581219881063</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005766112586068361</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002992652947220026</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002292299922823062</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002906100887307447</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001283819086729053</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>9.289642636719077e-05</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>5.374788160494251e-05</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.823920079154378e-05</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>2.167252186750793e-05</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>2.188680757823856e-05</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>2.620035401489747e-05</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>3.344122277121999e-05</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>3.234275566213716e-05</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>6.911220240277263e-05</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001053149775730746</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002559412446372343</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.00064708924827766</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006387892865982628</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.000348337397163955</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0001821895223073151</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>9.162288040498924e-05</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>9.488424176313315e-05</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>6.68405947524277e-05</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>5.943658622827903e-05</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>3.822632645391872e-05</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>4.347846010805113e-05</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>9.333485546735955e-05</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>6.305579840389958e-05</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>2.822038819035869e-05</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>2.437189392206575e-05</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>2.232557054880997e-05</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>2.864407127555294e-05</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>5.179120576622905e-05</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001200743724731021</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001350022072627554</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001576588006929124</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001635376255191664</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001458598430857729</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001279287985448936</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>9.621538420290095e-05</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>8.791764924378772e-05</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.270425588248438e-05</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>8.347065135287189e-05</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>8.116038279066642e-05</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>8.186415338145527e-05</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>9.572514903772861e-05</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001283202703444668</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002104222491540148</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003220486683357956</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004254010167138297</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005666451978522166</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007058018680730735</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007632444899812367</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>0.0009493180187277939</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>0.00116664734932758</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>0.001179365448335933</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>0.001323736719372463</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>0.001353048945555235</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>0.001343632386193721</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>0.00132125263787467</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>0.001324503908421497</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>0.00125782267225719</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>0.001225281906263601</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>0.001008339295102033</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009354744297227361</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>0.0007866759866496458</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006120569535297865</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005593383933698716</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004809554225394651</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>0.0004580511732173382</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004592097130561311</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004545111473396111</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004413905903409231</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004446780639924145</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0004497149283296686</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005026778059218666</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005481529164959392</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005765052581455648</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005815453425130225</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005704039690835095</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005421480398599475</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004652909072460537</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>0.0002914519151903295</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002458982137642296</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>0.000196526042366269</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001518874629243444</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>0.0001429236585382152</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001406361268284369</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.0001435784801030762</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001366878406123011</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001359435454987607</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001366123718327163</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001361220669321244</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001341115842147438</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001316948281702436</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001318898045597999</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001183849360322415</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001204346355127321</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001211699482547004</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001208193038828718</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001066696036486944</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>9.271403551196339e-05</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>8.816842111172245e-05</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>8.599710710864717e-05</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001065970059101856</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001849546508203854</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002273727176250479</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.000241850347195317</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002472864292717167</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002519289788509245</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002537184996205051</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002454570459951823</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.0002252661632429881</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001415680531670075</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>9.233420437968237e-05</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>8.419718988585551e-05</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>9.745026840402588e-05</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001369266488330788</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001529703243506324</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002325417422859975</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.0003099691982310474</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003230032053109591</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003111060546336464</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0002811354379809007</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002784075371153608</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002496076177388872</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002127388886521917</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001949570547108702</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001918415410961279</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.0001902101695717868</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.0001882995976859306</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001767845168106176</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.0001988761842748653</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002296897737491856</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002609951062288512</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0002962219134575351</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003439231828168512</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003890598420051698</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003709883750739037</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003749157563009049</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003374848580031055</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003315565408277864</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.0002945697218428833</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0002825518522778923</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002753785995543116</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.0003511987163355977</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003072041915850527</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003256632248796593</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002955128106657019</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002774616925699016</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002636577314520728</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002482000117187046</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.000229638772543721</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.000232783065995398</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001199122663674994</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>4.969835278029997e-05</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.083400906506781e-05</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>4.352151316491228e-05</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>2.707097121328581e-05</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.202146782133933e-05</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>1.886652949228223e-05</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>1.949256770175509e-05</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.737386301300021e-05</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>5.134748437428754e-05</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>5.749407947633022e-05</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>5.053571319550639e-05</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>4.51255200109887e-05</v>

--- a/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
+++ b/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
@@ -415,7106 +415,7106 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>1.003911302182094e-06</v>
+        <v>1571336867726.672</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.183561636333743e-07</v>
+        <v>1570732720429.345</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16004059805745e-06</v>
+        <v>-1518794873187.345</v>
       </c>
       <c r="E2" t="n">
-        <v>4.783558708851387e-08</v>
+        <v>67768835253.17342</v>
       </c>
       <c r="F2" t="n">
-        <v>1.683197856916601e-07</v>
+        <v>74722377918.54118</v>
       </c>
       <c r="G2" t="n">
-        <v>1.665485124651987e-07</v>
+        <v>137484962212.0024</v>
       </c>
       <c r="H2" t="n">
-        <v>349.0285552759614</v>
+        <v>199.4048462435601</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842658304925875e-74</v>
+        <v>5.044611511503802e-42</v>
       </c>
       <c r="J2" t="n">
-        <v>87.25713881899036</v>
+        <v>49.85121156089002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.800369958600767e-06</v>
+        <v>2729634175168.234</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.450365103143086e-07</v>
+        <v>1100253023070.454</v>
       </c>
       <c r="D3" t="n">
-        <v>1.833057012539199e-06</v>
+        <v>-996649708794.4053</v>
       </c>
       <c r="E3" t="n">
-        <v>1.137537186122309e-07</v>
+        <v>110709949507.4147</v>
       </c>
       <c r="F3" t="n">
-        <v>2.413327894151286e-07</v>
+        <v>172606274870.463</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60487196833895e-07</v>
+        <v>227423817815.7884</v>
       </c>
       <c r="H3" t="n">
-        <v>86.12527858528109</v>
+        <v>95.39906208945951</v>
       </c>
       <c r="I3" t="n">
-        <v>8.753946463347571e-18</v>
+        <v>9.373065610829656e-20</v>
       </c>
       <c r="J3" t="n">
-        <v>21.53131964632027</v>
+        <v>23.84976552236488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>4.222833341054923e-06</v>
+        <v>3837384292264.12</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.544889712303234e-07</v>
+        <v>272452842402.3467</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.976888849019848e-06</v>
+        <v>-3093137042168.369</v>
       </c>
       <c r="E4" t="n">
-        <v>1.556927616845236e-07</v>
+        <v>138046824879.4162</v>
       </c>
       <c r="F4" t="n">
-        <v>2.501780381455601e-07</v>
+        <v>250225622712.656</v>
       </c>
       <c r="G4" t="n">
-        <v>3.045840880341791e-07</v>
+        <v>283984140646.1985</v>
       </c>
       <c r="H4" t="n">
-        <v>75.47436437247156</v>
+        <v>57.32179782513687</v>
       </c>
       <c r="I4" t="n">
-        <v>1.581532205518632e-15</v>
+        <v>1.059044147698456e-11</v>
       </c>
       <c r="J4" t="n">
-        <v>18.86859109311789</v>
+        <v>14.33044945628422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>4.443427064624834e-06</v>
+        <v>3857425364289.776</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.395601246737652e-06</v>
+        <v>-1001662311213.996</v>
       </c>
       <c r="D5" t="n">
-        <v>3.058591923206077e-06</v>
+        <v>1567625463175.167</v>
       </c>
       <c r="E5" t="n">
-        <v>1.656672130136983e-07</v>
+        <v>150626778255.5824</v>
       </c>
       <c r="F5" t="n">
-        <v>3.250001427432392e-07</v>
+        <v>284877766120.3699</v>
       </c>
       <c r="G5" t="n">
-        <v>3.155503219363129e-07</v>
+        <v>284112224821.9244</v>
       </c>
       <c r="H5" t="n">
-        <v>33.8275504471857</v>
+        <v>103.0479691488181</v>
       </c>
       <c r="I5" t="n">
-        <v>8.084029185482681e-07</v>
+        <v>2.206863535480923e-21</v>
       </c>
       <c r="J5" t="n">
-        <v>8.456887611796425</v>
+        <v>25.76199228720454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>4.632868725076932e-06</v>
+        <v>4759639974213.167</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.670325707818536e-07</v>
+        <v>1698242037191.783</v>
       </c>
       <c r="D6" t="n">
-        <v>1.135812703675106e-06</v>
+        <v>-2409637111785.418</v>
       </c>
       <c r="E6" t="n">
-        <v>1.846404722100773e-07</v>
+        <v>182211884005.2705</v>
       </c>
       <c r="F6" t="n">
-        <v>3.762461441915588e-07</v>
+        <v>292233442117.0666</v>
       </c>
       <c r="G6" t="n">
-        <v>4.071959430918961e-07</v>
+        <v>365675034172.2353</v>
       </c>
       <c r="H6" t="n">
-        <v>88.58632204794664</v>
+        <v>46.55465688746717</v>
       </c>
       <c r="I6" t="n">
-        <v>2.628797980917224e-18</v>
+        <v>1.887928737801719e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>22.14658051198666</v>
+        <v>11.63866422186679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>4.906521708325058e-06</v>
+        <v>4549485341081.854</v>
       </c>
       <c r="C7" t="n">
-        <v>2.520087872220976e-07</v>
+        <v>263271041058.21</v>
       </c>
       <c r="D7" t="n">
-        <v>1.906615339858022e-07</v>
+        <v>148683266686.082</v>
       </c>
       <c r="E7" t="n">
-        <v>1.962682584083572e-07</v>
+        <v>177679268121.5551</v>
       </c>
       <c r="F7" t="n">
-        <v>3.298301304824804e-07</v>
+        <v>346623181203.3572</v>
       </c>
       <c r="G7" t="n">
-        <v>3.999414178540664e-07</v>
+        <v>381454528811.0958</v>
       </c>
       <c r="H7" t="n">
-        <v>41.64495524556049</v>
+        <v>41.66554529365978</v>
       </c>
       <c r="I7" t="n">
-        <v>1.976136435760023e-08</v>
+        <v>1.956819146436908e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>10.41123881139012</v>
+        <v>10.41638632341494</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>4.488212246439369e-06</v>
+        <v>4428942647099.455</v>
       </c>
       <c r="C8" t="n">
-        <v>5.609567480067538e-07</v>
+        <v>1560995788056.674</v>
       </c>
       <c r="D8" t="n">
-        <v>5.282756590114921e-07</v>
+        <v>-1304330809275.908</v>
       </c>
       <c r="E8" t="n">
-        <v>1.689196002998154e-07</v>
+        <v>158749148197.2766</v>
       </c>
       <c r="F8" t="n">
-        <v>2.959346544004957e-07</v>
+        <v>272106009362.9417</v>
       </c>
       <c r="G8" t="n">
-        <v>3.885315275449176e-07</v>
+        <v>362254693952.1957</v>
       </c>
       <c r="H8" t="n">
-        <v>68.16291736254638</v>
+        <v>45.18009900387352</v>
       </c>
       <c r="I8" t="n">
-        <v>5.542276676882325e-14</v>
+        <v>3.647497539547206e-09</v>
       </c>
       <c r="J8" t="n">
-        <v>17.0407293406366</v>
+        <v>11.29502475096838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>4.968249852521265e-06</v>
+        <v>4857422306949.252</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.349291488271755e-07</v>
+        <v>1044499149206.477</v>
       </c>
       <c r="D9" t="n">
-        <v>2.047101150482896e-07</v>
+        <v>-1706601379427.374</v>
       </c>
       <c r="E9" t="n">
-        <v>1.667214974611379e-07</v>
+        <v>159685469640.0798</v>
       </c>
       <c r="F9" t="n">
-        <v>3.13491912646481e-07</v>
+        <v>271055796858.4978</v>
       </c>
       <c r="G9" t="n">
-        <v>3.657554820656292e-07</v>
+        <v>335037897530.7414</v>
       </c>
       <c r="H9" t="n">
-        <v>43.96831336329718</v>
+        <v>17.11008354468541</v>
       </c>
       <c r="I9" t="n">
-        <v>6.513743269333404e-09</v>
+        <v>0.001840031067704799</v>
       </c>
       <c r="J9" t="n">
-        <v>10.9920783408243</v>
+        <v>4.277520886171351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>3.696697635889545e-06</v>
+        <v>3449379107866.597</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.108374240876616e-06</v>
+        <v>974434834638.4282</v>
       </c>
       <c r="D10" t="n">
-        <v>3.05557659308525e-06</v>
+        <v>-413413338866.9756</v>
       </c>
       <c r="E10" t="n">
-        <v>1.560259249041811e-07</v>
+        <v>151056958000.0096</v>
       </c>
       <c r="F10" t="n">
-        <v>3.101249850221713e-07</v>
+        <v>238731354471.8416</v>
       </c>
       <c r="G10" t="n">
-        <v>3.752015571603257e-07</v>
+        <v>338846453406.2156</v>
       </c>
       <c r="H10" t="n">
-        <v>76.19342891311639</v>
+        <v>127.5236487933375</v>
       </c>
       <c r="I10" t="n">
-        <v>1.114159570832802e-15</v>
+        <v>1.317985350733136e-26</v>
       </c>
       <c r="J10" t="n">
-        <v>19.0483572282791</v>
+        <v>31.88091219833438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>4.699351316718316e-06</v>
+        <v>4398517165253.42</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.867705347182657e-07</v>
+        <v>279273451331.0938</v>
       </c>
       <c r="D11" t="n">
-        <v>1.346752790089713e-06</v>
+        <v>11799260761.19141</v>
       </c>
       <c r="E11" t="n">
-        <v>1.836336479358745e-07</v>
+        <v>170919153546.3674</v>
       </c>
       <c r="F11" t="n">
-        <v>3.442601823469019e-07</v>
+        <v>316350110409.9539</v>
       </c>
       <c r="G11" t="n">
-        <v>3.863580984047838e-07</v>
+        <v>357166716928.0517</v>
       </c>
       <c r="H11" t="n">
-        <v>40.51578939305083</v>
+        <v>51.39621295427424</v>
       </c>
       <c r="I11" t="n">
-        <v>3.385543277088448e-08</v>
+        <v>1.844737696073371e-10</v>
       </c>
       <c r="J11" t="n">
-        <v>10.12894734826271</v>
+        <v>12.84905323856856</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>3.688536907179176e-06</v>
+        <v>4934599189224.398</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.72476335533636e-07</v>
+        <v>2973465865870.16</v>
       </c>
       <c r="D12" t="n">
-        <v>2.234001963651731e-06</v>
+        <v>-4433299741303.904</v>
       </c>
       <c r="E12" t="n">
-        <v>1.512340765088285e-07</v>
+        <v>177577466040.9821</v>
       </c>
       <c r="F12" t="n">
-        <v>3.461776627473435e-07</v>
+        <v>231518985635.3708</v>
       </c>
       <c r="G12" t="n">
-        <v>3.909697784863075e-07</v>
+        <v>368197643643.5368</v>
       </c>
       <c r="H12" t="n">
-        <v>257.5393198606143</v>
+        <v>98.74570383928892</v>
       </c>
       <c r="I12" t="n">
-        <v>1.546038918558029e-54</v>
+        <v>1.819028046039279e-20</v>
       </c>
       <c r="J12" t="n">
-        <v>64.38482996515359</v>
+        <v>24.68642595982223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>3.324080995577811e-06</v>
+        <v>3193131069100.701</v>
       </c>
       <c r="C13" t="n">
-        <v>7.198654631161031e-08</v>
+        <v>981852827825.759</v>
       </c>
       <c r="D13" t="n">
-        <v>1.036069571795128e-06</v>
+        <v>-404873050472.9248</v>
       </c>
       <c r="E13" t="n">
-        <v>1.315087023854919e-07</v>
+        <v>123663121570.6031</v>
       </c>
       <c r="F13" t="n">
-        <v>2.492792303129648e-07</v>
+        <v>218579624337.1419</v>
       </c>
       <c r="G13" t="n">
-        <v>2.878289707179593e-07</v>
+        <v>264967968163.2529</v>
       </c>
       <c r="H13" t="n">
-        <v>37.56461854614724</v>
+        <v>36.3724676710699</v>
       </c>
       <c r="I13" t="n">
-        <v>1.377919075955196e-07</v>
+        <v>2.425541624029841e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>9.391154636536811</v>
+        <v>9.093116917767475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>6.648397401359277e-06</v>
+        <v>6114194108858.29</v>
       </c>
       <c r="C14" t="n">
-        <v>6.733728583319401e-07</v>
+        <v>499007074972.5859</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.820295491792663e-07</v>
+        <v>-85545563555.39062</v>
       </c>
       <c r="E14" t="n">
-        <v>1.978209316824941e-07</v>
+        <v>176818528105.8825</v>
       </c>
       <c r="F14" t="n">
-        <v>3.311299632966902e-07</v>
+        <v>339682142027.6879</v>
       </c>
       <c r="G14" t="n">
-        <v>4.293332366021164e-07</v>
+        <v>403634402412.548</v>
       </c>
       <c r="H14" t="n">
-        <v>6.122842206789489</v>
+        <v>7.709000718380913</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1901602453771378</v>
+        <v>0.1028386344186412</v>
       </c>
       <c r="J14" t="n">
-        <v>1.530710551697372</v>
+        <v>1.927250179595228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>5.30203474492719e-06</v>
+        <v>4828155910018.219</v>
       </c>
       <c r="C15" t="n">
-        <v>9.756969825270342e-07</v>
+        <v>441574569013.8359</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.304535943908029e-07</v>
+        <v>469017298879.8965</v>
       </c>
       <c r="E15" t="n">
-        <v>1.728871096755255e-07</v>
+        <v>151255294715.0665</v>
       </c>
       <c r="F15" t="n">
-        <v>2.797315076552198e-07</v>
+        <v>303483298676.6724</v>
       </c>
       <c r="G15" t="n">
-        <v>3.686851569806323e-07</v>
+        <v>349437364367.2071</v>
       </c>
       <c r="H15" t="n">
-        <v>2.119144559763629</v>
+        <v>5.510580662269354</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7138560484644846</v>
+        <v>0.2388009951057222</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5297861399409073</v>
+        <v>1.377645165567339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>5.429984847962041e-06</v>
+        <v>5213577320230.807</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.165542584593475e-07</v>
+        <v>-1686760502702.23</v>
       </c>
       <c r="D16" t="n">
-        <v>4.991030678378759e-07</v>
+        <v>1477410084098.607</v>
       </c>
       <c r="E16" t="n">
-        <v>1.955165881123172e-07</v>
+        <v>180897750884.0327</v>
       </c>
       <c r="F16" t="n">
-        <v>3.159795310076439e-07</v>
+        <v>356839471482.7081</v>
       </c>
       <c r="G16" t="n">
-        <v>3.947962628030766e-07</v>
+        <v>387775585077.926</v>
       </c>
       <c r="H16" t="n">
-        <v>27.14294351741344</v>
+        <v>10.14970576770762</v>
       </c>
       <c r="I16" t="n">
-        <v>1.859893697705944e-05</v>
+        <v>0.0379800175478273</v>
       </c>
       <c r="J16" t="n">
-        <v>6.785735879353361</v>
+        <v>2.537426441926904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.722723868724922e-06</v>
+        <v>4426949633895.619</v>
       </c>
       <c r="C17" t="n">
-        <v>7.90873677602351e-07</v>
+        <v>1182613706091.824</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.235166560611845e-07</v>
+        <v>-814403377461.6436</v>
       </c>
       <c r="E17" t="n">
-        <v>1.743312291403101e-07</v>
+        <v>158014560808.1466</v>
       </c>
       <c r="F17" t="n">
-        <v>3.025307924528285e-07</v>
+        <v>296060905294.6063</v>
       </c>
       <c r="G17" t="n">
-        <v>3.771473946991065e-07</v>
+        <v>351608612096.7836</v>
       </c>
       <c r="H17" t="n">
-        <v>17.32196238959778</v>
+        <v>9.250249312627204</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00167341977189116</v>
+        <v>0.05513990769793566</v>
       </c>
       <c r="J17" t="n">
-        <v>4.330490597399445</v>
+        <v>2.312562328156801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>4.845532868701418e-06</v>
+        <v>4588130871754.898</v>
       </c>
       <c r="C18" t="n">
-        <v>9.515642161071506e-07</v>
+        <v>1490757531184.394</v>
       </c>
       <c r="D18" t="n">
-        <v>6.062301815774007e-07</v>
+        <v>-397329140216.6416</v>
       </c>
       <c r="E18" t="n">
-        <v>1.880707939859976e-07</v>
+        <v>171237157036.1058</v>
       </c>
       <c r="F18" t="n">
-        <v>3.254649612149007e-07</v>
+        <v>316968801363.7084</v>
       </c>
       <c r="G18" t="n">
-        <v>4.2843242361131e-07</v>
+        <v>398804979192.4072</v>
       </c>
       <c r="H18" t="n">
-        <v>21.45638880421089</v>
+        <v>15.67525821075434</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002570606056545146</v>
+        <v>0.003487359339356452</v>
       </c>
       <c r="J18" t="n">
-        <v>5.364097201052722</v>
+        <v>3.918814552688585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>6.241724600402411e-06</v>
+        <v>5818736883958.282</v>
       </c>
       <c r="C19" t="n">
-        <v>1.268318025863799e-07</v>
+        <v>600182167389.0742</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.960617703346908e-07</v>
+        <v>-1193523428841.68</v>
       </c>
       <c r="E19" t="n">
-        <v>2.322857561045487e-07</v>
+        <v>209342296860.8065</v>
       </c>
       <c r="F19" t="n">
-        <v>3.86202804589165e-07</v>
+        <v>384490351200.4908</v>
       </c>
       <c r="G19" t="n">
-        <v>4.981096089244542e-07</v>
+        <v>464935509918.8495</v>
       </c>
       <c r="H19" t="n">
-        <v>14.55786463829932</v>
+        <v>9.672690993007267</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005711815779063444</v>
+        <v>0.04631725696592899</v>
       </c>
       <c r="J19" t="n">
-        <v>3.639466159574831</v>
+        <v>2.418172748251817</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.136102612011141e-06</v>
+        <v>4813669972889.714</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.787665386973965e-07</v>
+        <v>1135776721897.877</v>
       </c>
       <c r="D20" t="n">
-        <v>2.502563313723845e-06</v>
+        <v>91932778520.6084</v>
       </c>
       <c r="E20" t="n">
-        <v>2.110379790602829e-07</v>
+        <v>197771876215.1041</v>
       </c>
       <c r="F20" t="n">
-        <v>4.064472308566559e-07</v>
+        <v>354525227202.4298</v>
       </c>
       <c r="G20" t="n">
-        <v>4.543582863528637e-07</v>
+        <v>416358337662.4088</v>
       </c>
       <c r="H20" t="n">
-        <v>14.58162609456262</v>
+        <v>34.44517044614136</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005652456738961219</v>
+        <v>6.03860001180683e-07</v>
       </c>
       <c r="J20" t="n">
-        <v>3.645406523640656</v>
+        <v>8.61129261153534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>5.984743736077724e-06</v>
+        <v>5747562762555.971</v>
       </c>
       <c r="C21" t="n">
-        <v>1.618586723907426e-06</v>
+        <v>2702457431922.517</v>
       </c>
       <c r="D21" t="n">
-        <v>1.755768645405694e-06</v>
+        <v>-238078928697.291</v>
       </c>
       <c r="E21" t="n">
-        <v>2.54744196405606e-07</v>
+        <v>234929389892.7808</v>
       </c>
       <c r="F21" t="n">
-        <v>4.70737537694228e-07</v>
+        <v>440833665301.6028</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6506144458844e-07</v>
+        <v>524541819473.8068</v>
       </c>
       <c r="H21" t="n">
-        <v>22.84221950971126</v>
+        <v>17.30068942577818</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001361555834551621</v>
+        <v>0.001689451976943469</v>
       </c>
       <c r="J21" t="n">
-        <v>5.710554877427816</v>
+        <v>4.325172356444545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.139468928643491e-05</v>
+        <v>10357075473010.08</v>
       </c>
       <c r="C22" t="n">
-        <v>7.768768294760196e-07</v>
+        <v>1538557468965.375</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.053807155197833e-06</v>
+        <v>-4432930681407.59</v>
       </c>
       <c r="E22" t="n">
-        <v>5.723393064942188e-07</v>
+        <v>503994667114.5529</v>
       </c>
       <c r="F22" t="n">
-        <v>9.223646936707071e-07</v>
+        <v>950987904512.965</v>
       </c>
       <c r="G22" t="n">
-        <v>1.170275661820718e-06</v>
+        <v>1096176274607.523</v>
       </c>
       <c r="H22" t="n">
-        <v>12.21011822067061</v>
+        <v>8.486232728957114</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01585529081050259</v>
+        <v>0.0753056347062584</v>
       </c>
       <c r="J22" t="n">
-        <v>3.052529555167652</v>
+        <v>2.121558182239279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>1.277872835955177e-05</v>
+        <v>12096802356928.37</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.094458470187428e-06</v>
+        <v>-1103021822890.537</v>
       </c>
       <c r="D23" t="n">
-        <v>2.351221642969767e-06</v>
+        <v>1943017640019.504</v>
       </c>
       <c r="E23" t="n">
-        <v>7.341346705108242e-07</v>
+        <v>659873176801.6852</v>
       </c>
       <c r="F23" t="n">
-        <v>1.178679953804505e-06</v>
+        <v>1239657976775.761</v>
       </c>
       <c r="G23" t="n">
-        <v>1.571617292992605e-06</v>
+        <v>1485774516256.406</v>
       </c>
       <c r="H23" t="n">
-        <v>20.60644516951476</v>
+        <v>21.18911541111634</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003789392275525932</v>
+        <v>0.0002904666237059808</v>
       </c>
       <c r="J23" t="n">
-        <v>5.151611292378691</v>
+        <v>5.297278852779085</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1.700400580479619e-05</v>
+        <v>16933634184566.98</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.607710640509979e-07</v>
+        <v>5882301657229.98</v>
       </c>
       <c r="D24" t="n">
-        <v>4.394018947756849e-06</v>
+        <v>-5806068878926.262</v>
       </c>
       <c r="E24" t="n">
-        <v>9.52160807701463e-07</v>
+        <v>904857824771.6077</v>
       </c>
       <c r="F24" t="n">
-        <v>1.752870328473374e-06</v>
+        <v>1538943730367.107</v>
       </c>
       <c r="G24" t="n">
-        <v>2.09427535457168e-06</v>
+        <v>1932738500725.757</v>
       </c>
       <c r="H24" t="n">
-        <v>25.73232476249944</v>
+        <v>15.49042619743454</v>
       </c>
       <c r="I24" t="n">
-        <v>3.583050723452227e-05</v>
+        <v>0.003785010482999143</v>
       </c>
       <c r="J24" t="n">
-        <v>6.43308119062486</v>
+        <v>3.872606549358636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>1.866350771365947e-05</v>
+        <v>18004754960338.28</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.921985462401359e-06</v>
+        <v>2778155368975.043</v>
       </c>
       <c r="D25" t="n">
-        <v>3.268397351898702e-06</v>
+        <v>-3999877364158.688</v>
       </c>
       <c r="E25" t="n">
-        <v>9.569736654634123e-07</v>
+        <v>887779379602.184</v>
       </c>
       <c r="F25" t="n">
-        <v>1.667187922389361e-06</v>
+        <v>1552229149214.56</v>
       </c>
       <c r="G25" t="n">
-        <v>2.092282928419581e-06</v>
+        <v>1943210126994.519</v>
       </c>
       <c r="H25" t="n">
-        <v>24.75550031201754</v>
+        <v>22.44661740842467</v>
       </c>
       <c r="I25" t="n">
-        <v>5.633710027135894e-05</v>
+        <v>0.000163293065165621</v>
       </c>
       <c r="J25" t="n">
-        <v>6.188875078004386</v>
+        <v>5.611654352106168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>1.642078524591032e-05</v>
+        <v>17019375669857.17</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.884682501497316e-06</v>
+        <v>4631483910300.158</v>
       </c>
       <c r="D26" t="n">
-        <v>1.177935268157008e-06</v>
+        <v>-10818950036967.48</v>
       </c>
       <c r="E26" t="n">
-        <v>9.060954741254594e-07</v>
+        <v>881349751477.4755</v>
       </c>
       <c r="F26" t="n">
-        <v>1.706188529958161e-06</v>
+        <v>1412176078846.935</v>
       </c>
       <c r="G26" t="n">
-        <v>1.936517528765226e-06</v>
+        <v>1774239190244.432</v>
       </c>
       <c r="H26" t="n">
-        <v>54.53250069875783</v>
+        <v>23.73198748045441</v>
       </c>
       <c r="I26" t="n">
-        <v>4.070859674438288e-11</v>
+        <v>9.038736628884358e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>13.63312517468946</v>
+        <v>5.932996870113602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0031748659319e-05</v>
+        <v>18782528067469.89</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.931698446695628e-07</v>
+        <v>517793077463.9473</v>
       </c>
       <c r="D27" t="n">
-        <v>2.136778033919688e-06</v>
+        <v>591068017730.7969</v>
       </c>
       <c r="E27" t="n">
-        <v>1.051369587771867e-06</v>
+        <v>953379337840.7822</v>
       </c>
       <c r="F27" t="n">
-        <v>1.767161360125766e-06</v>
+        <v>1828037394124.094</v>
       </c>
       <c r="G27" t="n">
-        <v>2.173636226273265e-06</v>
+        <v>2063114962492.598</v>
       </c>
       <c r="H27" t="n">
-        <v>1.227480828654754</v>
+        <v>1.912323316384966</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8735536854251199</v>
+        <v>0.7518808267499973</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3068702071636886</v>
+        <v>0.4780808290962416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>1.833188143386869e-05</v>
+        <v>18417995882467.91</v>
       </c>
       <c r="C28" t="n">
-        <v>3.444083376003512e-07</v>
+        <v>6865442987131.418</v>
       </c>
       <c r="D28" t="n">
-        <v>1.767693554315912e-06</v>
+        <v>-8270308041443.086</v>
       </c>
       <c r="E28" t="n">
-        <v>9.93613016676873e-07</v>
+        <v>941972211515.0514</v>
       </c>
       <c r="F28" t="n">
-        <v>1.802727807409956e-06</v>
+        <v>1608952182091.441</v>
       </c>
       <c r="G28" t="n">
-        <v>2.177291081191157e-06</v>
+        <v>2017243962380.75</v>
       </c>
       <c r="H28" t="n">
-        <v>32.85819844099225</v>
+        <v>12.2089443917657</v>
       </c>
       <c r="I28" t="n">
-        <v>1.277049725790675e-06</v>
+        <v>0.01586328874363329</v>
       </c>
       <c r="J28" t="n">
-        <v>8.214549610248064</v>
+        <v>3.052236097941426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>1.910598828106061e-05</v>
+        <v>18261527557644.16</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.280267729483699e-06</v>
+        <v>1674158670096.682</v>
       </c>
       <c r="D29" t="n">
-        <v>4.900360054282237e-06</v>
+        <v>-1631379127746.477</v>
       </c>
       <c r="E29" t="n">
-        <v>9.872991075918741e-07</v>
+        <v>911810162346.8384</v>
       </c>
       <c r="F29" t="n">
-        <v>1.714493095569943e-06</v>
+        <v>1626327360569.994</v>
       </c>
       <c r="G29" t="n">
-        <v>2.213625244437846e-06</v>
+        <v>2063575751814.223</v>
       </c>
       <c r="H29" t="n">
-        <v>50.36293901120587</v>
+        <v>54.19468960602051</v>
       </c>
       <c r="I29" t="n">
-        <v>3.032639353418144e-10</v>
+        <v>4.791130043409929e-11</v>
       </c>
       <c r="J29" t="n">
-        <v>12.59073475280147</v>
+        <v>13.54867240150513</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>1.877170094342035e-05</v>
+        <v>17964057350041.97</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.698950561774878e-06</v>
+        <v>2484552267078.225</v>
       </c>
       <c r="D30" t="n">
-        <v>3.040632289936871e-06</v>
+        <v>-3280090195736.809</v>
       </c>
       <c r="E30" t="n">
-        <v>9.65749125185574e-07</v>
+        <v>892576301680.0714</v>
       </c>
       <c r="F30" t="n">
-        <v>1.687136841547654e-06</v>
+        <v>1594683894918.819</v>
       </c>
       <c r="G30" t="n">
-        <v>2.090982502766244e-06</v>
+        <v>1948351850257.822</v>
       </c>
       <c r="H30" t="n">
-        <v>20.47376361379253</v>
+        <v>19.21498552267936</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000402554357621067</v>
+        <v>0.0007130691585748216</v>
       </c>
       <c r="J30" t="n">
-        <v>5.118440903448133</v>
+        <v>4.80374638066984</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.877403849037332e-05</v>
+        <v>18275078425588.53</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.607123904066422e-06</v>
+        <v>1720288322879.402</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.470123284796839e-06</v>
+        <v>-9415923485353.754</v>
       </c>
       <c r="E31" t="n">
-        <v>9.932409807982571e-07</v>
+        <v>928877105243.4113</v>
       </c>
       <c r="F31" t="n">
-        <v>1.731130690067364e-06</v>
+        <v>1570640815177.121</v>
       </c>
       <c r="G31" t="n">
-        <v>1.989398357572783e-06</v>
+        <v>1842432012600.139</v>
       </c>
       <c r="H31" t="n">
-        <v>47.24409440423344</v>
+        <v>30.48080789616187</v>
       </c>
       <c r="I31" t="n">
-        <v>1.356436315186257e-09</v>
+        <v>3.906371030997071e-06</v>
       </c>
       <c r="J31" t="n">
-        <v>11.81102360105836</v>
+        <v>7.620201974040467</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>1.779976037110028e-05</v>
+        <v>17168687649416.77</v>
       </c>
       <c r="C32" t="n">
-        <v>3.017594923817124e-06</v>
+        <v>6495756195298.572</v>
       </c>
       <c r="D32" t="n">
-        <v>1.222759752289635e-06</v>
+        <v>-4445123191590.766</v>
       </c>
       <c r="E32" t="n">
-        <v>9.634992627202364e-07</v>
+        <v>883719537673.9889</v>
       </c>
       <c r="F32" t="n">
-        <v>1.680044382797258e-06</v>
+        <v>1599552933714.882</v>
       </c>
       <c r="G32" t="n">
-        <v>2.126227041539391e-06</v>
+        <v>1977390039537.9</v>
       </c>
       <c r="H32" t="n">
-        <v>11.28648715224931</v>
+        <v>1.592475650791724</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02352613750787709</v>
+        <v>0.8101438578532623</v>
       </c>
       <c r="J32" t="n">
-        <v>2.821621788062327</v>
+        <v>0.398118912697931</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>1.652233499204064e-05</v>
+        <v>16235742101937.3</v>
       </c>
       <c r="C33" t="n">
-        <v>3.482588820634176e-06</v>
+        <v>7540261835225.852</v>
       </c>
       <c r="D33" t="n">
-        <v>2.427226479744188e-06</v>
+        <v>-4536602498397.137</v>
       </c>
       <c r="E33" t="n">
-        <v>8.663708472265994e-07</v>
+        <v>806118027281.0399</v>
       </c>
       <c r="F33" t="n">
-        <v>1.553832597085794e-06</v>
+        <v>1439777497378.976</v>
       </c>
       <c r="G33" t="n">
-        <v>1.955159135758831e-06</v>
+        <v>1818043642988.138</v>
       </c>
       <c r="H33" t="n">
-        <v>17.32246784746184</v>
+        <v>3.515512292562555</v>
       </c>
       <c r="I33" t="n">
-        <v>0.001673040668931601</v>
+        <v>0.4755235898123661</v>
       </c>
       <c r="J33" t="n">
-        <v>4.33061696186546</v>
+        <v>0.8788780731406388</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>1.975503332049129e-05</v>
+        <v>18402113836883.46</v>
       </c>
       <c r="C34" t="n">
-        <v>6.600988728120344e-07</v>
+        <v>2931624722248.199</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.017441368308636e-06</v>
+        <v>-5640302797540.863</v>
       </c>
       <c r="E34" t="n">
-        <v>1.031598728091938e-06</v>
+        <v>926808515480.5032</v>
       </c>
       <c r="F34" t="n">
-        <v>1.71599460881138e-06</v>
+        <v>1730075742522.004</v>
       </c>
       <c r="G34" t="n">
-        <v>2.127703688167233e-06</v>
+        <v>1997485202489.501</v>
       </c>
       <c r="H34" t="n">
-        <v>7.570846121026928</v>
+        <v>1.923584884160024</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1086255507062666</v>
+        <v>0.7498111715014292</v>
       </c>
       <c r="J34" t="n">
-        <v>1.892711530256732</v>
+        <v>0.4808962210400061</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>1.73290483579689e-05</v>
+        <v>16409301222039.61</v>
       </c>
       <c r="C35" t="n">
-        <v>6.26788294748051e-07</v>
+        <v>3300070925021.41</v>
       </c>
       <c r="D35" t="n">
-        <v>4.545507479454887e-06</v>
+        <v>174284013244.3047</v>
       </c>
       <c r="E35" t="n">
-        <v>8.745764335103602e-07</v>
+        <v>804847993368.595</v>
       </c>
       <c r="F35" t="n">
-        <v>1.561474053779555e-06</v>
+        <v>1511796182495.14</v>
       </c>
       <c r="G35" t="n">
-        <v>1.883476331415607e-06</v>
+        <v>1765136073753.81</v>
       </c>
       <c r="H35" t="n">
-        <v>6.219121177047229</v>
+        <v>8.602558514975918</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1833708858483139</v>
+        <v>0.07183876136485015</v>
       </c>
       <c r="J35" t="n">
-        <v>1.554780294261807</v>
+        <v>2.15063962874398</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>1.683193934146222e-05</v>
+        <v>15732295295685.01</v>
       </c>
       <c r="C36" t="n">
-        <v>2.618258384662864e-06</v>
+        <v>3840717480221.842</v>
       </c>
       <c r="D36" t="n">
-        <v>8.87458175740112e-07</v>
+        <v>-1130426693502.59</v>
       </c>
       <c r="E36" t="n">
-        <v>8.311042579453239e-07</v>
+        <v>745931671538.6443</v>
       </c>
       <c r="F36" t="n">
-        <v>1.407368725789444e-06</v>
+        <v>1422659604498.85</v>
       </c>
       <c r="G36" t="n">
-        <v>1.790736217439722e-06</v>
+        <v>1681048952107.804</v>
       </c>
       <c r="H36" t="n">
-        <v>2.498894636716279</v>
+        <v>0.4053823816990336</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6448337362956538</v>
+        <v>0.9820338644680753</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6247236591790697</v>
+        <v>0.1013455954247584</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>1.098583513297806e-05</v>
+        <v>10631499726712.72</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.147539313584159e-06</v>
+        <v>-2957513541173.641</v>
       </c>
       <c r="D37" t="n">
-        <v>6.602339292528469e-06</v>
+        <v>5349357450213.363</v>
       </c>
       <c r="E37" t="n">
-        <v>5.927335748631179e-07</v>
+        <v>551046636598.2047</v>
       </c>
       <c r="F37" t="n">
-        <v>1.00593387163066e-06</v>
+        <v>1025306787428.289</v>
       </c>
       <c r="G37" t="n">
-        <v>1.252638797395804e-06</v>
+        <v>1191971591940.407</v>
       </c>
       <c r="H37" t="n">
-        <v>38.86004355291968</v>
+        <v>46.92585935203124</v>
       </c>
       <c r="I37" t="n">
-        <v>7.445906678206182e-08</v>
+        <v>1.580110937497456e-09</v>
       </c>
       <c r="J37" t="n">
-        <v>9.715010888229919</v>
+        <v>11.73146483800781</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>1.123611569879694e-05</v>
+        <v>10583808813992.17</v>
       </c>
       <c r="C38" t="n">
-        <v>7.772765775078202e-07</v>
+        <v>1184804167665.134</v>
       </c>
       <c r="D38" t="n">
-        <v>2.398282271378573e-06</v>
+        <v>1314486366162.975</v>
       </c>
       <c r="E38" t="n">
-        <v>5.350550897843821e-07</v>
+        <v>483027075035.163</v>
       </c>
       <c r="F38" t="n">
-        <v>8.988705511661134e-07</v>
+        <v>921481619420.5797</v>
       </c>
       <c r="G38" t="n">
-        <v>1.173595690170144e-06</v>
+        <v>1105777723088.013</v>
       </c>
       <c r="H38" t="n">
-        <v>26.21861967775059</v>
+        <v>27.75516690658135</v>
       </c>
       <c r="I38" t="n">
-        <v>2.858938716607252e-05</v>
+        <v>1.398216681279096e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>6.554654919437647</v>
+        <v>6.938791726645337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>9.271737689297937e-06</v>
+        <v>10016931513864.48</v>
       </c>
       <c r="C39" t="n">
-        <v>2.952877734450658e-07</v>
+        <v>5908469053987.655</v>
       </c>
       <c r="D39" t="n">
-        <v>4.709674599329115e-06</v>
+        <v>-4876157813862.211</v>
       </c>
       <c r="E39" t="n">
-        <v>4.078759949275751e-07</v>
+        <v>415799121230.6144</v>
       </c>
       <c r="F39" t="n">
-        <v>8.477708441603265e-07</v>
+        <v>652051528636.3278</v>
       </c>
       <c r="G39" t="n">
-        <v>9.65021274917149e-07</v>
+        <v>881420541669.0117</v>
       </c>
       <c r="H39" t="n">
-        <v>76.30026865669507</v>
+        <v>33.33509610512079</v>
       </c>
       <c r="I39" t="n">
-        <v>1.057646249857955e-15</v>
+        <v>1.019887185584356e-06</v>
       </c>
       <c r="J39" t="n">
-        <v>19.07506716417377</v>
+        <v>8.333774026280198</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>1.134572071504679e-05</v>
+        <v>10726229730159.97</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.321100016168608e-07</v>
+        <v>1762578727000.176</v>
       </c>
       <c r="D40" t="n">
-        <v>3.546747987290409e-06</v>
+        <v>30578173693.76562</v>
       </c>
       <c r="E40" t="n">
-        <v>5.458291555413424e-07</v>
+        <v>505756174867.4442</v>
       </c>
       <c r="F40" t="n">
-        <v>9.924384499102699e-07</v>
+        <v>932642524054.434</v>
       </c>
       <c r="G40" t="n">
-        <v>1.162770425779164e-06</v>
+        <v>1084946110240.733</v>
       </c>
       <c r="H40" t="n">
-        <v>6.687500208948979</v>
+        <v>12.52082734579356</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1533531189146272</v>
+        <v>0.01387069599616806</v>
       </c>
       <c r="J40" t="n">
-        <v>1.671875052237245</v>
+        <v>3.130206836448391</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>1.710263308225266e-05</v>
+        <v>16024049659868.04</v>
       </c>
       <c r="C41" t="n">
-        <v>4.432634585017957e-08</v>
+        <v>1112003564558.396</v>
       </c>
       <c r="D41" t="n">
-        <v>1.783050220152658e-06</v>
+        <v>-25035102849.45703</v>
       </c>
       <c r="E41" t="n">
-        <v>5.847462101027822e-07</v>
+        <v>535123545584.6137</v>
       </c>
       <c r="F41" t="n">
-        <v>1.001866961335103e-06</v>
+        <v>988510536582.3954</v>
       </c>
       <c r="G41" t="n">
-        <v>1.262677341115706e-06</v>
+        <v>1185336662345.635</v>
       </c>
       <c r="H41" t="n">
-        <v>6.621650291378934</v>
+        <v>7.601138181359088</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1572850034396942</v>
+        <v>0.1073313372600083</v>
       </c>
       <c r="J41" t="n">
-        <v>1.655412572844734</v>
+        <v>1.900284545339772</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>1.750590889163406e-05</v>
+        <v>16532608691018.99</v>
       </c>
       <c r="C42" t="n">
-        <v>1.065507763173935e-06</v>
+        <v>2975728284452.082</v>
       </c>
       <c r="D42" t="n">
-        <v>1.493881741417321e-06</v>
+        <v>-1709540150514.832</v>
       </c>
       <c r="E42" t="n">
-        <v>5.294113816311622e-07</v>
+        <v>489604161534.3657</v>
       </c>
       <c r="F42" t="n">
-        <v>9.405330765757919e-07</v>
+        <v>883331250736.9042</v>
       </c>
       <c r="G42" t="n">
-        <v>1.164188987219438e-06</v>
+        <v>1082311762165.696</v>
       </c>
       <c r="H42" t="n">
-        <v>13.42390219839732</v>
+        <v>7.979627770256879</v>
       </c>
       <c r="I42" t="n">
-        <v>0.009379959039336061</v>
+        <v>0.09232731227289394</v>
       </c>
       <c r="J42" t="n">
-        <v>3.355975549599329</v>
+        <v>1.99490694256422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>1.636208902411694e-05</v>
+        <v>15221228701817.49</v>
       </c>
       <c r="C43" t="n">
-        <v>1.404286740637652e-06</v>
+        <v>1601840061032</v>
       </c>
       <c r="D43" t="n">
-        <v>8.07553766500111e-07</v>
+        <v>299016782985.6914</v>
       </c>
       <c r="E43" t="n">
-        <v>4.744840121226472e-07</v>
+        <v>431669244208.5692</v>
       </c>
       <c r="F43" t="n">
-        <v>8.202869048839917e-07</v>
+        <v>813765833593.6311</v>
       </c>
       <c r="G43" t="n">
-        <v>1.045220684490186e-06</v>
+        <v>980363451943.6581</v>
       </c>
       <c r="H43" t="n">
-        <v>3.87391639843621</v>
+        <v>3.646632907431683</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4233382476771266</v>
+        <v>0.4559353698258244</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9684790996090524</v>
+        <v>0.9116582268579208</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>1.478899019514639e-05</v>
+        <v>13820526245956.34</v>
       </c>
       <c r="C44" t="n">
-        <v>1.032617629672679e-06</v>
+        <v>1789978535319.852</v>
       </c>
       <c r="D44" t="n">
-        <v>5.463979504161549e-07</v>
+        <v>-747793404181.6211</v>
       </c>
       <c r="E44" t="n">
-        <v>4.198387599585925e-07</v>
+        <v>384889464070.3817</v>
       </c>
       <c r="F44" t="n">
-        <v>7.36103306860773e-07</v>
+        <v>707657174838.3966</v>
       </c>
       <c r="G44" t="n">
-        <v>9.155105369960506e-07</v>
+        <v>854563226079.9303</v>
       </c>
       <c r="H44" t="n">
-        <v>7.086939999025449</v>
+        <v>4.623063392496947</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1313645544549835</v>
+        <v>0.3282036871977499</v>
       </c>
       <c r="J44" t="n">
-        <v>1.771734999756362</v>
+        <v>1.155765848124237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1.561740343122481e-05</v>
+        <v>14511872137216.89</v>
       </c>
       <c r="C45" t="n">
-        <v>1.025314948225695e-06</v>
+        <v>909142660841.291</v>
       </c>
       <c r="D45" t="n">
-        <v>6.888566990196343e-07</v>
+        <v>700138656784.1328</v>
       </c>
       <c r="E45" t="n">
-        <v>4.371393696650803e-07</v>
+        <v>398721373204.5166</v>
       </c>
       <c r="F45" t="n">
-        <v>7.512540815346243e-07</v>
+        <v>751124014168.7546</v>
       </c>
       <c r="G45" t="n">
-        <v>9.630254305357185e-07</v>
+        <v>905164789906.6799</v>
       </c>
       <c r="H45" t="n">
-        <v>4.241317070920493</v>
+        <v>4.201165457251153</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3743311345277943</v>
+        <v>0.3794650968355385</v>
       </c>
       <c r="J45" t="n">
-        <v>1.060329267730123</v>
+        <v>1.050291364312788</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.516175084933548e-05</v>
+        <v>14178811055699.53</v>
       </c>
       <c r="C46" t="n">
-        <v>9.952332834566354e-08</v>
+        <v>1004997918910.756</v>
       </c>
       <c r="D46" t="n">
-        <v>6.743298791092623e-07</v>
+        <v>-751512739977.7344</v>
       </c>
       <c r="E46" t="n">
-        <v>4.114024464504e-07</v>
+        <v>379504233110.2262</v>
       </c>
       <c r="F46" t="n">
-        <v>7.292293534489796e-07</v>
+        <v>690074036241.8108</v>
       </c>
       <c r="G46" t="n">
-        <v>8.928925085497596e-07</v>
+        <v>831360566413.4136</v>
       </c>
       <c r="H46" t="n">
-        <v>3.201245876053314</v>
+        <v>2.048660750219914</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5247297398636335</v>
+        <v>0.7268091099603702</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8003114690133286</v>
+        <v>0.5121651875549785</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>1.019531776715427e-05</v>
+        <v>9453973391144.586</v>
       </c>
       <c r="C47" t="n">
-        <v>1.448042472395271e-06</v>
+        <v>1589183548604.16</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.714288469186948e-09</v>
+        <v>-305745730751.9141</v>
       </c>
       <c r="E47" t="n">
-        <v>3.006013855888984e-07</v>
+        <v>272100599815.9023</v>
       </c>
       <c r="F47" t="n">
-        <v>5.174230462768608e-07</v>
+        <v>514207025457.1389</v>
       </c>
       <c r="G47" t="n">
-        <v>6.60370193432277e-07</v>
+        <v>618668868833.1968</v>
       </c>
       <c r="H47" t="n">
-        <v>4.811958105566708</v>
+        <v>3.640780426077537</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3071415322115951</v>
+        <v>0.4567975590486146</v>
       </c>
       <c r="J47" t="n">
-        <v>1.202989526391677</v>
+        <v>0.9101951065193842</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>1.356629258026172e-05</v>
+        <v>12681178214627.64</v>
       </c>
       <c r="C48" t="n">
-        <v>8.869872796057483e-07</v>
+        <v>1434396930299.162</v>
       </c>
       <c r="D48" t="n">
-        <v>1.711765828762081e-06</v>
+        <v>579676964744.7246</v>
       </c>
       <c r="E48" t="n">
-        <v>3.848300151479521e-07</v>
+        <v>353209041564.6313</v>
       </c>
       <c r="F48" t="n">
-        <v>6.813502957272965e-07</v>
+        <v>660398890253.9114</v>
       </c>
       <c r="G48" t="n">
-        <v>8.51724534077332e-07</v>
+        <v>796665362654.1182</v>
       </c>
       <c r="H48" t="n">
-        <v>11.82323341593274</v>
+        <v>13.08080843533428</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01871531453617234</v>
+        <v>0.01088762531028771</v>
       </c>
       <c r="J48" t="n">
-        <v>2.955808353983186</v>
+        <v>3.270202108833569</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.044429235985378e-05</v>
+        <v>19017298691532.8</v>
       </c>
       <c r="C49" t="n">
-        <v>7.507909326902982e-07</v>
+        <v>455689312919.2266</v>
       </c>
       <c r="D49" t="n">
-        <v>1.241191813263553e-06</v>
+        <v>1456590382898.617</v>
       </c>
       <c r="E49" t="n">
-        <v>5.578594372493102e-07</v>
+        <v>508759452573.0347</v>
       </c>
       <c r="F49" t="n">
-        <v>9.610383480895358e-07</v>
+        <v>957584361130.9534</v>
       </c>
       <c r="G49" t="n">
-        <v>1.229696883971646e-06</v>
+        <v>1156892672130.382</v>
       </c>
       <c r="H49" t="n">
-        <v>7.694634698115786</v>
+        <v>7.359837501425145</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1034267215845891</v>
+        <v>0.1180510640553224</v>
       </c>
       <c r="J49" t="n">
-        <v>1.923658674528947</v>
+        <v>1.839959375356286</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>2.963706162891428e-05</v>
+        <v>27749459552604.12</v>
       </c>
       <c r="C50" t="n">
-        <v>7.010875902083769e-07</v>
+        <v>3034329847368.826</v>
       </c>
       <c r="D50" t="n">
-        <v>4.881299575885796e-06</v>
+        <v>737405078870.8359</v>
       </c>
       <c r="E50" t="n">
-        <v>7.913804868397059e-07</v>
+        <v>734513183682.704</v>
       </c>
       <c r="F50" t="n">
-        <v>1.440457141596711e-06</v>
+        <v>1338908597812.063</v>
       </c>
       <c r="G50" t="n">
-        <v>1.760779080485259e-06</v>
+        <v>1635769826152.112</v>
       </c>
       <c r="H50" t="n">
-        <v>2.584275489769913</v>
+        <v>6.310874532074202</v>
       </c>
       <c r="I50" t="n">
-        <v>0.629611164265664</v>
+        <v>0.1771037420639292</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6460688724424781</v>
+        <v>1.57771863301855</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>4.075871733760341e-05</v>
+        <v>38096719717795.28</v>
       </c>
       <c r="C51" t="n">
-        <v>-7.930326054935655e-07</v>
+        <v>1640194220756.336</v>
       </c>
       <c r="D51" t="n">
-        <v>1.620712907221661e-06</v>
+        <v>-2106932976955.594</v>
       </c>
       <c r="E51" t="n">
-        <v>1.036590121062254e-06</v>
+        <v>961436645603.525</v>
       </c>
       <c r="F51" t="n">
-        <v>1.853998410454694e-06</v>
+        <v>1731584649305.671</v>
       </c>
       <c r="G51" t="n">
-        <v>2.256803976707465e-06</v>
+        <v>2097969137739.995</v>
       </c>
       <c r="H51" t="n">
-        <v>3.641079850156973</v>
+        <v>2.902743138088255</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4567534201854364</v>
+        <v>0.5742307976204422</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9102699625392433</v>
+        <v>0.7256857845220638</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>8.598387592427764e-05</v>
+        <v>80041540508718.19</v>
       </c>
       <c r="C52" t="n">
-        <v>5.078879541108064e-06</v>
+        <v>6214171626754.055</v>
       </c>
       <c r="D52" t="n">
-        <v>4.5101179141019e-06</v>
+        <v>1804271511858.5</v>
       </c>
       <c r="E52" t="n">
-        <v>2.240677942332022e-06</v>
+        <v>2057805056174.407</v>
       </c>
       <c r="F52" t="n">
-        <v>3.937846074183178e-06</v>
+        <v>3820992155559.119</v>
       </c>
       <c r="G52" t="n">
-        <v>4.954719515478581e-06</v>
+        <v>4637351474408.418</v>
       </c>
       <c r="H52" t="n">
-        <v>1.838663471045171</v>
+        <v>1.825662356891359</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7654015625713003</v>
+        <v>0.7677840720753659</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4596658677612928</v>
+        <v>0.4564155892228398</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001458136699369737</v>
+        <v>135743178846602.2</v>
       </c>
       <c r="C53" t="n">
-        <v>4.073634994363487e-06</v>
+        <v>7709106797629.984</v>
       </c>
       <c r="D53" t="n">
-        <v>2.64888236122901e-07</v>
+        <v>-5460508528901.688</v>
       </c>
       <c r="E53" t="n">
-        <v>3.649287300757469e-06</v>
+        <v>3366271903729.368</v>
       </c>
       <c r="F53" t="n">
-        <v>6.489863977927081e-06</v>
+        <v>6204506633261.433</v>
       </c>
       <c r="G53" t="n">
-        <v>7.884475046577802e-06</v>
+        <v>7366200329541.165</v>
       </c>
       <c r="H53" t="n">
-        <v>2.341228105737915</v>
+        <v>1.359934536220147</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6732732919018209</v>
+        <v>0.8511278232088499</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5853070264344786</v>
+        <v>0.3399836340550367</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004004202966473285</v>
+        <v>373904927928730.6</v>
       </c>
       <c r="C54" t="n">
-        <v>2.070471399601734e-05</v>
+        <v>36272854547828.09</v>
       </c>
       <c r="D54" t="n">
-        <v>2.443538030970588e-05</v>
+        <v>-4530255325324.625</v>
       </c>
       <c r="E54" t="n">
-        <v>9.996187924286117e-06</v>
+        <v>9250457262397.84</v>
       </c>
       <c r="F54" t="n">
-        <v>1.791171966396759e-05</v>
+        <v>16867817179490.72</v>
       </c>
       <c r="G54" t="n">
-        <v>2.231367648913919e-05</v>
+        <v>20774400560522.68</v>
       </c>
       <c r="H54" t="n">
-        <v>2.867065169953353</v>
+        <v>2.193086225007241</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5803124320043999</v>
+        <v>0.7002952402670748</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7167662924883383</v>
+        <v>0.5482715562518103</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006483919947153341</v>
+        <v>604903481549223.8</v>
       </c>
       <c r="C55" t="n">
-        <v>1.79666687948298e-05</v>
+        <v>41595954954777.12</v>
       </c>
       <c r="D55" t="n">
-        <v>4.002571772599871e-05</v>
+        <v>-2187765915794.875</v>
       </c>
       <c r="E55" t="n">
-        <v>1.57047433827071e-05</v>
+        <v>14561091371256.86</v>
       </c>
       <c r="F55" t="n">
-        <v>2.830214395370352e-05</v>
+        <v>26495251534890.2</v>
       </c>
       <c r="G55" t="n">
-        <v>3.483506324068599e-05</v>
+        <v>32404177866541.52</v>
       </c>
       <c r="H55" t="n">
-        <v>1.964720201230213</v>
+        <v>2.032094955534352</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7422478991422807</v>
+        <v>0.7298555965477045</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4911800503075532</v>
+        <v>0.5080237388835881</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007147581219881063</v>
+        <v>665827577551948.6</v>
       </c>
       <c r="C56" t="n">
-        <v>6.801656319182885e-06</v>
+        <v>25266180396574.81</v>
       </c>
       <c r="D56" t="n">
-        <v>3.960539602653845e-05</v>
+        <v>6915820807216.5</v>
       </c>
       <c r="E56" t="n">
-        <v>1.693056360937979e-05</v>
+        <v>15689605734265.37</v>
       </c>
       <c r="F56" t="n">
-        <v>3.045847028912626e-05</v>
+        <v>28599710542661.5</v>
       </c>
       <c r="G56" t="n">
-        <v>3.735369621067795e-05</v>
+        <v>34771507726491.62</v>
       </c>
       <c r="H56" t="n">
-        <v>2.179265476521274</v>
+        <v>2.703914418952767</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7028270664904304</v>
+        <v>0.6085298133963013</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5448163691303184</v>
+        <v>0.6759786047381918</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005766112586068361</v>
+        <v>537431053517202.5</v>
       </c>
       <c r="C57" t="n">
-        <v>3.306627818844352e-05</v>
+        <v>47496464657752.62</v>
       </c>
       <c r="D57" t="n">
-        <v>3.666214428002079e-05</v>
+        <v>7292420152417.375</v>
       </c>
       <c r="E57" t="n">
-        <v>1.377422293639091e-05</v>
+        <v>12750330199767.02</v>
       </c>
       <c r="F57" t="n">
-        <v>2.486944553829461e-05</v>
+        <v>23417263055778.51</v>
       </c>
       <c r="G57" t="n">
-        <v>3.06934192207412e-05</v>
+        <v>28581378558865.02</v>
       </c>
       <c r="H57" t="n">
-        <v>2.230747124333242</v>
+        <v>2.159193245519034</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6934042336389692</v>
+        <v>0.7065066394628183</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5576867810833106</v>
+        <v>0.5397983113797584</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002992652947220026</v>
+        <v>279542116625987.7</v>
       </c>
       <c r="C58" t="n">
-        <v>6.779971332998054e-06</v>
+        <v>20439575705172.66</v>
       </c>
       <c r="D58" t="n">
-        <v>1.52972719745232e-05</v>
+        <v>-8106222397778.125</v>
       </c>
       <c r="E58" t="n">
-        <v>7.163675861506472e-06</v>
+        <v>6661346545375.44</v>
       </c>
       <c r="F58" t="n">
-        <v>1.297407014640141e-05</v>
+        <v>12018881452735.01</v>
       </c>
       <c r="G58" t="n">
-        <v>1.592432781791915e-05</v>
+        <v>14788814934797.37</v>
       </c>
       <c r="H58" t="n">
-        <v>3.687594325979155</v>
+        <v>2.937617642150357</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4499328297315606</v>
+        <v>0.5683186321605238</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9218985814947889</v>
+        <v>0.7344044105375893</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002292299922823062</v>
+        <v>214310107367121.5</v>
       </c>
       <c r="C59" t="n">
-        <v>5.045167571150847e-06</v>
+        <v>17812317697080.75</v>
       </c>
       <c r="D59" t="n">
-        <v>1.559063861137321e-05</v>
+        <v>-6063689457208.75</v>
       </c>
       <c r="E59" t="n">
-        <v>5.498349521899253e-06</v>
+        <v>5119804266275.473</v>
       </c>
       <c r="F59" t="n">
-        <v>1.002249060450616e-05</v>
+        <v>9227879682209.416</v>
       </c>
       <c r="G59" t="n">
-        <v>1.217201874283764e-05</v>
+        <v>11289370097388.55</v>
       </c>
       <c r="H59" t="n">
-        <v>2.63510500882384</v>
+        <v>2.063537124431325</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6206171886130714</v>
+        <v>0.7240738163322874</v>
       </c>
       <c r="J59" t="n">
-        <v>0.65877625220596</v>
+        <v>0.5158842811078314</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002906100887307447</v>
+        <v>271164490263564.8</v>
       </c>
       <c r="C60" t="n">
-        <v>4.437335593445271e-06</v>
+        <v>18002391732641.72</v>
       </c>
       <c r="D60" t="n">
-        <v>3.03244934780524e-05</v>
+        <v>6057619563998</v>
       </c>
       <c r="E60" t="n">
-        <v>6.872802745911544e-06</v>
+        <v>6394357799577.401</v>
       </c>
       <c r="F60" t="n">
-        <v>1.256831872135972e-05</v>
+        <v>11596361381163.78</v>
       </c>
       <c r="G60" t="n">
-        <v>1.536724013781667e-05</v>
+        <v>14257346096599.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.934112999551471</v>
+        <v>5.865559024052509</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4149961167933113</v>
+        <v>0.2094158939337941</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9835282498878677</v>
+        <v>1.466389756013127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001283819086729053</v>
+        <v>119645517593044.4</v>
       </c>
       <c r="C61" t="n">
-        <v>7.804215092262003e-06</v>
+        <v>10698048912565.41</v>
       </c>
       <c r="D61" t="n">
-        <v>7.754965932278479e-06</v>
+        <v>1620264466118.281</v>
       </c>
       <c r="E61" t="n">
-        <v>3.08026517106216e-06</v>
+        <v>2849345840490.869</v>
       </c>
       <c r="F61" t="n">
-        <v>5.536009612950097e-06</v>
+        <v>5222041642338.486</v>
       </c>
       <c r="G61" t="n">
-        <v>6.910118859343123e-06</v>
+        <v>6436636762232.446</v>
       </c>
       <c r="H61" t="n">
-        <v>2.567123927921775</v>
+        <v>2.424630747978084</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6326578810847463</v>
+        <v>0.6581807256306308</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6417809819804438</v>
+        <v>0.6061576869945209</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>9.289642636719077e-05</v>
+        <v>86354542675547.92</v>
       </c>
       <c r="C62" t="n">
-        <v>3.146399057212757e-06</v>
+        <v>3492818003027.125</v>
       </c>
       <c r="D62" t="n">
-        <v>2.414509463542866e-06</v>
+        <v>1349374656397.656</v>
       </c>
       <c r="E62" t="n">
-        <v>2.186817330522822e-06</v>
+        <v>2018140545343.716</v>
       </c>
       <c r="F62" t="n">
-        <v>3.900672162081473e-06</v>
+        <v>3724069016531.064</v>
       </c>
       <c r="G62" t="n">
-        <v>4.79679174199762e-06</v>
+        <v>4477885662098.693</v>
       </c>
       <c r="H62" t="n">
-        <v>0.556697212117643</v>
+        <v>0.5566911604169631</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9677519131648293</v>
+        <v>0.9677525507666189</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1391743030294108</v>
+        <v>0.1391727901042408</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>5.374788160494251e-05</v>
+        <v>49860838168691.91</v>
       </c>
       <c r="C63" t="n">
-        <v>2.296491377779604e-06</v>
+        <v>1477434966098.723</v>
       </c>
       <c r="D63" t="n">
-        <v>5.202138714186779e-07</v>
+        <v>1515833904912.508</v>
       </c>
       <c r="E63" t="n">
-        <v>1.305302813375298e-06</v>
+        <v>1197062103768.11</v>
       </c>
       <c r="F63" t="n">
-        <v>2.277606698768503e-06</v>
+        <v>2225018818005.107</v>
       </c>
       <c r="G63" t="n">
-        <v>2.88017803665977e-06</v>
+        <v>2699224543125.544</v>
       </c>
       <c r="H63" t="n">
-        <v>3.645523395878472</v>
+        <v>3.655198710403585</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4560987359476312</v>
+        <v>0.4546755060738448</v>
       </c>
       <c r="J63" t="n">
-        <v>0.911380848969618</v>
+        <v>0.9137996776008962</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.823920079154378e-05</v>
+        <v>26346140704629.23</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.561148335442184e-08</v>
+        <v>1171728287373.547</v>
       </c>
       <c r="D64" t="n">
-        <v>3.011814976149868e-06</v>
+        <v>886568405461.3086</v>
       </c>
       <c r="E64" t="n">
-        <v>7.084124544612687e-07</v>
+        <v>656632512482.6052</v>
       </c>
       <c r="F64" t="n">
-        <v>1.281391936065012e-06</v>
+        <v>1204379690739.395</v>
       </c>
       <c r="G64" t="n">
-        <v>1.561729058064687e-06</v>
+        <v>1456130495093.403</v>
       </c>
       <c r="H64" t="n">
-        <v>4.67137980048466</v>
+        <v>6.920683418275487</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3227070363226763</v>
+        <v>0.1401395832799917</v>
       </c>
       <c r="J64" t="n">
-        <v>1.167844950121165</v>
+        <v>1.730170854568872</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>2.167252186750793e-05</v>
+        <v>20253740357907.72</v>
       </c>
       <c r="C65" t="n">
-        <v>6.116204003908351e-07</v>
+        <v>1635336732142.424</v>
       </c>
       <c r="D65" t="n">
-        <v>1.703987865041187e-06</v>
+        <v>-64617498690.03125</v>
       </c>
       <c r="E65" t="n">
-        <v>6.844828244974497e-07</v>
+        <v>625963093234.3971</v>
       </c>
       <c r="F65" t="n">
-        <v>1.193683262906725e-06</v>
+        <v>1171088501710.195</v>
       </c>
       <c r="G65" t="n">
-        <v>1.488292009695015e-06</v>
+        <v>1395068753470.828</v>
       </c>
       <c r="H65" t="n">
-        <v>5.225574514372706</v>
+        <v>5.439162090297991</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2649252179200608</v>
+        <v>0.2451291644609472</v>
       </c>
       <c r="J65" t="n">
-        <v>1.306393628593177</v>
+        <v>1.359790522574498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>2.188680757823856e-05</v>
+        <v>20608120445286.85</v>
       </c>
       <c r="C66" t="n">
-        <v>-7.923958962195194e-07</v>
+        <v>-67728312029.9375</v>
       </c>
       <c r="D66" t="n">
-        <v>4.499743419135908e-06</v>
+        <v>2841081010538.711</v>
       </c>
       <c r="E66" t="n">
-        <v>9.396841727795293e-07</v>
+        <v>861075455806.6694</v>
       </c>
       <c r="F66" t="n">
-        <v>1.618851392673373e-06</v>
+        <v>1651459838499.893</v>
       </c>
       <c r="G66" t="n">
-        <v>1.974946236439565e-06</v>
+        <v>1876111400002.84</v>
       </c>
       <c r="H66" t="n">
-        <v>2.047178479473496</v>
+        <v>4.492904748884303</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7270816814002786</v>
+        <v>0.3433896223063966</v>
       </c>
       <c r="J66" t="n">
-        <v>0.511794619868374</v>
+        <v>1.123226187221076</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>2.620035401489747e-05</v>
+        <v>24398764053897.62</v>
       </c>
       <c r="C67" t="n">
-        <v>2.539029629585288e-06</v>
+        <v>3946190815101.691</v>
       </c>
       <c r="D67" t="n">
-        <v>3.957791604890026e-07</v>
+        <v>-1761333463949.203</v>
       </c>
       <c r="E67" t="n">
-        <v>1.19831632383071e-06</v>
+        <v>1075977615155.338</v>
       </c>
       <c r="F67" t="n">
-        <v>2.006752961766333e-06</v>
+        <v>2046183204549.554</v>
       </c>
       <c r="G67" t="n">
-        <v>2.545459657004761e-06</v>
+        <v>2394691857382.319</v>
       </c>
       <c r="H67" t="n">
-        <v>3.051919282702766</v>
+        <v>1.612420403092093</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5491747430057067</v>
+        <v>0.806558085221973</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7629798206756916</v>
+        <v>0.4031051007730234</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.344122277121999e-05</v>
+        <v>31906765072450.94</v>
       </c>
       <c r="C68" t="n">
-        <v>1.128803981814802e-06</v>
+        <v>7472162297743.273</v>
       </c>
       <c r="D68" t="n">
-        <v>9.220653073114172e-06</v>
+        <v>-1370238014581.594</v>
       </c>
       <c r="E68" t="n">
-        <v>1.749411638575037e-06</v>
+        <v>1611600358508.471</v>
       </c>
       <c r="F68" t="n">
-        <v>3.095497849947033e-06</v>
+        <v>2946193300094.816</v>
       </c>
       <c r="G68" t="n">
-        <v>3.831524091067066e-06</v>
+        <v>3570743157929.607</v>
       </c>
       <c r="H68" t="n">
-        <v>5.813220189532176</v>
+        <v>7.37272306810817</v>
       </c>
       <c r="I68" t="n">
-        <v>0.213538084550494</v>
+        <v>0.1174544071456648</v>
       </c>
       <c r="J68" t="n">
-        <v>1.453305047383044</v>
+        <v>1.843180767027043</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.234275566213716e-05</v>
+        <v>30954841514780.76</v>
       </c>
       <c r="C69" t="n">
-        <v>-9.754612544911822e-07</v>
+        <v>6379995145218.199</v>
       </c>
       <c r="D69" t="n">
-        <v>6.794846612613269e-06</v>
+        <v>-4589539940410.109</v>
       </c>
       <c r="E69" t="n">
-        <v>1.514399844085007e-06</v>
+        <v>1406171028978.717</v>
       </c>
       <c r="F69" t="n">
-        <v>2.699448149886846e-06</v>
+        <v>2517121422009.805</v>
       </c>
       <c r="G69" t="n">
-        <v>3.28024070905814e-06</v>
+        <v>3050306840554.393</v>
       </c>
       <c r="H69" t="n">
-        <v>10.22832239413552</v>
+        <v>8.953702212404909</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03675233166356799</v>
+        <v>0.06226718073003754</v>
       </c>
       <c r="J69" t="n">
-        <v>2.557080598533879</v>
+        <v>2.238425553101227</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>6.911220240277263e-05</v>
+        <v>63090216325283.71</v>
       </c>
       <c r="C70" t="n">
-        <v>1.331038413244338e-05</v>
+        <v>10393920038113.12</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.954938885583726e-06</v>
+        <v>1555126226083.375</v>
       </c>
       <c r="E70" t="n">
-        <v>3.15938251483729e-06</v>
+        <v>2761372853639.667</v>
       </c>
       <c r="F70" t="n">
-        <v>5.095848961023364e-06</v>
+        <v>5468297435299.63</v>
       </c>
       <c r="G70" t="n">
-        <v>6.865226569707163e-06</v>
+        <v>6478720752941.993</v>
       </c>
       <c r="H70" t="n">
-        <v>6.801902336209769</v>
+        <v>8.025033227874438</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1467344958451198</v>
+        <v>0.09066548751311879</v>
       </c>
       <c r="J70" t="n">
-        <v>1.700475584052442</v>
+        <v>2.00625830696861</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001053149775730746</v>
+        <v>99549593412823.94</v>
       </c>
       <c r="C71" t="n">
-        <v>5.15411214630289e-06</v>
+        <v>19404905925057.64</v>
       </c>
       <c r="D71" t="n">
-        <v>1.198464696603238e-05</v>
+        <v>-10412587326947.75</v>
       </c>
       <c r="E71" t="n">
-        <v>4.571483455129748e-06</v>
+        <v>4182508350760.228</v>
       </c>
       <c r="F71" t="n">
-        <v>7.959659324969968e-06</v>
+        <v>7744175443629.413</v>
       </c>
       <c r="G71" t="n">
-        <v>9.840079727518741e-06</v>
+        <v>9207561645320.678</v>
       </c>
       <c r="H71" t="n">
-        <v>6.52227208261738</v>
+        <v>3.973669950059046</v>
       </c>
       <c r="I71" t="n">
-        <v>0.163392460300001</v>
+        <v>0.4095809623183041</v>
       </c>
       <c r="J71" t="n">
-        <v>1.630568020654345</v>
+        <v>0.9934174875147614</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002559412446372343</v>
+        <v>238883960981391.7</v>
       </c>
       <c r="C72" t="n">
-        <v>6.701350761834064e-06</v>
+        <v>17262864685990.16</v>
       </c>
       <c r="D72" t="n">
-        <v>9.850354899312733e-06</v>
+        <v>-7874140748471</v>
       </c>
       <c r="E72" t="n">
-        <v>6.681645823745863e-06</v>
+        <v>6164696041249.831</v>
       </c>
       <c r="F72" t="n">
-        <v>1.183220154405975e-05</v>
+        <v>11278373793238.79</v>
       </c>
       <c r="G72" t="n">
-        <v>1.468195732194955e-05</v>
+        <v>13700561116782.02</v>
       </c>
       <c r="H72" t="n">
-        <v>4.235526438603661</v>
+        <v>3.367629895450515</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3750682042765706</v>
+        <v>0.4982886868502713</v>
       </c>
       <c r="J72" t="n">
-        <v>1.058881609650915</v>
+        <v>0.8419074738626288</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00064708924827766</v>
+        <v>603764530011919.4</v>
       </c>
       <c r="C73" t="n">
-        <v>2.187993244297649e-05</v>
+        <v>44696181096393.62</v>
       </c>
       <c r="D73" t="n">
-        <v>3.80550831869062e-05</v>
+        <v>-3316686376051.25</v>
       </c>
       <c r="E73" t="n">
-        <v>1.651345698519055e-05</v>
+        <v>15245075238276.61</v>
       </c>
       <c r="F73" t="n">
-        <v>2.935076608766547e-05</v>
+        <v>27908518074310.21</v>
       </c>
       <c r="G73" t="n">
-        <v>3.659997439118207e-05</v>
+        <v>34133225900678.18</v>
       </c>
       <c r="H73" t="n">
-        <v>4.401726929926401</v>
+        <v>4.284568015701228</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3543596721049838</v>
+        <v>0.368861486291761</v>
       </c>
       <c r="J73" t="n">
-        <v>1.1004317324816</v>
+        <v>1.071142003925307</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0006387892865982628</v>
+        <v>596327790003703</v>
       </c>
       <c r="C74" t="n">
-        <v>2.993378959547841e-06</v>
+        <v>34359252871338.38</v>
       </c>
       <c r="D74" t="n">
-        <v>5.817200218334356e-05</v>
+        <v>5184758849866.25</v>
       </c>
       <c r="E74" t="n">
-        <v>1.635512237350928e-05</v>
+        <v>15147017340801.59</v>
       </c>
       <c r="F74" t="n">
-        <v>2.947945789787822e-05</v>
+        <v>27783869763133.42</v>
       </c>
       <c r="G74" t="n">
-        <v>3.576948854689153e-05</v>
+        <v>33324894492934.71</v>
       </c>
       <c r="H74" t="n">
-        <v>2.189071218342677</v>
+        <v>3.568960183483729</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7010305960314269</v>
+        <v>0.4674705544407297</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5472678045856693</v>
+        <v>0.8922400458709323</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.000348337397163955</v>
+        <v>324819276042810.3</v>
       </c>
       <c r="C75" t="n">
-        <v>1.072922668922502e-05</v>
+        <v>26438902581321.12</v>
       </c>
       <c r="D75" t="n">
-        <v>1.149830367543916e-06</v>
+        <v>-22479318076481.56</v>
       </c>
       <c r="E75" t="n">
-        <v>9.895945164936488e-06</v>
+        <v>9083500372910.07</v>
       </c>
       <c r="F75" t="n">
-        <v>1.732103680297512e-05</v>
+        <v>16805572076457.01</v>
       </c>
       <c r="G75" t="n">
-        <v>2.120870684272485e-05</v>
+        <v>19856908293676.21</v>
       </c>
       <c r="H75" t="n">
-        <v>2.526674179006038</v>
+        <v>0.5455215535490029</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6398658224517725</v>
+        <v>0.9689208082186987</v>
       </c>
       <c r="J75" t="n">
-        <v>0.6316685447515096</v>
+        <v>0.1363803883872507</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0001821895223073151</v>
+        <v>170811279028423.4</v>
       </c>
       <c r="C76" t="n">
-        <v>4.447847756695037e-06</v>
+        <v>19349766558126.69</v>
       </c>
       <c r="D76" t="n">
-        <v>1.446781058437582e-05</v>
+        <v>-9467009201855.625</v>
       </c>
       <c r="E76" t="n">
-        <v>5.12517643022432e-06</v>
+        <v>4743262756272.54</v>
       </c>
       <c r="F76" t="n">
-        <v>9.189743965323858e-06</v>
+        <v>8665822208702.173</v>
       </c>
       <c r="G76" t="n">
-        <v>1.111083304264264e-05</v>
+        <v>10350125868922.63</v>
       </c>
       <c r="H76" t="n">
-        <v>4.511971472921203</v>
+        <v>2.934711312139646</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3411303321426055</v>
+        <v>0.5688100888899694</v>
       </c>
       <c r="J76" t="n">
-        <v>1.127992868230301</v>
+        <v>0.7336778280349114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>9.162288040498924e-05</v>
+        <v>85453945996042.42</v>
       </c>
       <c r="C77" t="n">
-        <v>7.729657456861556e-06</v>
+        <v>11827851416092.5</v>
       </c>
       <c r="D77" t="n">
-        <v>1.934718656572415e-06</v>
+        <v>-4989115076241.312</v>
       </c>
       <c r="E77" t="n">
-        <v>3.060335483323767e-06</v>
+        <v>2776607898616.358</v>
       </c>
       <c r="F77" t="n">
-        <v>5.21625698475061e-06</v>
+        <v>5178216890640.976</v>
       </c>
       <c r="G77" t="n">
-        <v>6.713868241687062e-06</v>
+        <v>6290342112036.598</v>
       </c>
       <c r="H77" t="n">
-        <v>4.776352239343057</v>
+        <v>2.867259761778789</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3110242607948821</v>
+        <v>0.5802791721392115</v>
       </c>
       <c r="J77" t="n">
-        <v>1.194088059835764</v>
+        <v>0.7168149404446972</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>9.488424176313315e-05</v>
+        <v>88832742972246.97</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.198005230136242e-05</v>
+        <v>-4114898899239.625</v>
       </c>
       <c r="D78" t="n">
-        <v>4.806887220520814e-06</v>
+        <v>-5534342027142.844</v>
       </c>
       <c r="E78" t="n">
-        <v>3.616018659520721e-06</v>
+        <v>3320207517380.717</v>
       </c>
       <c r="F78" t="n">
-        <v>6.198739071790482e-06</v>
+        <v>6168126176142.538</v>
       </c>
       <c r="G78" t="n">
-        <v>7.41614875094751e-06</v>
+        <v>6995759079125.047</v>
       </c>
       <c r="H78" t="n">
-        <v>1.956760815772268</v>
+        <v>3.227417496055894</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7437116594878209</v>
+        <v>0.5205139661696175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4891902039430669</v>
+        <v>0.8068543740139735</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>6.68405947524277e-05</v>
+        <v>63608754421101.34</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.507038519689781e-06</v>
+        <v>7872256949518.383</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.291813216718965e-06</v>
+        <v>-24136694803904</v>
       </c>
       <c r="E79" t="n">
-        <v>3.325336914554065e-06</v>
+        <v>3061309931421.499</v>
       </c>
       <c r="F79" t="n">
-        <v>5.755905049794968e-06</v>
+        <v>5502138112765.257</v>
       </c>
       <c r="G79" t="n">
-        <v>6.770871557871637e-06</v>
+        <v>6320173398623.681</v>
       </c>
       <c r="H79" t="n">
-        <v>17.22739252462956</v>
+        <v>6.527540452934679</v>
       </c>
       <c r="I79" t="n">
-        <v>0.001745860910369952</v>
+        <v>0.1630633623058779</v>
       </c>
       <c r="J79" t="n">
-        <v>4.306848131157389</v>
+        <v>1.63188511323367</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>5.943658622827903e-05</v>
+        <v>55416819821450.09</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.781235785121678e-07</v>
+        <v>2823667993112.258</v>
       </c>
       <c r="D80" t="n">
-        <v>4.43166272827723e-07</v>
+        <v>-4342184991556.656</v>
       </c>
       <c r="E80" t="n">
-        <v>2.54307004599318e-06</v>
+        <v>2307107404116.771</v>
       </c>
       <c r="F80" t="n">
-        <v>4.273223666638181e-06</v>
+        <v>4372221164112.091</v>
       </c>
       <c r="G80" t="n">
-        <v>5.206613537851392e-06</v>
+        <v>4928468326418.07</v>
       </c>
       <c r="H80" t="n">
-        <v>7.485036360804791</v>
+        <v>6.722794860290888</v>
       </c>
       <c r="I80" t="n">
-        <v>0.112370939078402</v>
+        <v>0.1512827142894811</v>
       </c>
       <c r="J80" t="n">
-        <v>1.871259090201198</v>
+        <v>1.680698715072722</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>3.822632645391872e-05</v>
+        <v>35575368667847.18</v>
       </c>
       <c r="C81" t="n">
-        <v>4.645278613465148e-06</v>
+        <v>5839067952386.367</v>
       </c>
       <c r="D81" t="n">
-        <v>2.086128656697539e-06</v>
+        <v>-154415709581.0312</v>
       </c>
       <c r="E81" t="n">
-        <v>1.702247362566023e-06</v>
+        <v>1526032453393.009</v>
       </c>
       <c r="F81" t="n">
-        <v>2.854904928931727e-06</v>
+        <v>2941381495209.755</v>
       </c>
       <c r="G81" t="n">
-        <v>3.656554315589344e-06</v>
+        <v>3450054264831.569</v>
       </c>
       <c r="H81" t="n">
-        <v>3.776051600335609</v>
+        <v>3.226507196319262</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4371614743563439</v>
+        <v>0.5206602486624354</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9440129000839022</v>
+        <v>0.8066267990798154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>4.347846010805113e-05</v>
+        <v>40506414648522.48</v>
       </c>
       <c r="C82" t="n">
-        <v>1.285881053651503e-06</v>
+        <v>3340871088825.188</v>
       </c>
       <c r="D82" t="n">
-        <v>3.014906500686657e-07</v>
+        <v>-2686080797460.516</v>
       </c>
       <c r="E82" t="n">
-        <v>1.601525870898284e-06</v>
+        <v>1450709444417.265</v>
       </c>
       <c r="F82" t="n">
-        <v>2.706700245744112e-06</v>
+        <v>2732311712809.207</v>
       </c>
       <c r="G82" t="n">
-        <v>3.391776462309e-06</v>
+        <v>3194114572865.038</v>
       </c>
       <c r="H82" t="n">
-        <v>2.939028969776715</v>
+        <v>1.820350858845322</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5680800606231735</v>
+        <v>0.7687570080682564</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7347572424441788</v>
+        <v>0.4550877147113305</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>9.333485546735955e-05</v>
+        <v>86894653470136.86</v>
       </c>
       <c r="C83" t="n">
-        <v>1.258112064539418e-07</v>
+        <v>1264126520166.211</v>
       </c>
       <c r="D83" t="n">
-        <v>3.386802154803868e-06</v>
+        <v>1267975111647.172</v>
       </c>
       <c r="E83" t="n">
-        <v>2.646125995689087e-06</v>
+        <v>2422396001702.536</v>
       </c>
       <c r="F83" t="n">
-        <v>4.572415371382564e-06</v>
+        <v>4518635011552.218</v>
       </c>
       <c r="G83" t="n">
-        <v>5.720338185140718e-06</v>
+        <v>5375418659734.154</v>
       </c>
       <c r="H83" t="n">
-        <v>4.591800705433479</v>
+        <v>4.793886113751948</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3318006394810812</v>
+        <v>0.3091072018782749</v>
       </c>
       <c r="J83" t="n">
-        <v>1.14795017635837</v>
+        <v>1.198471528437987</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>6.305579840389958e-05</v>
+        <v>58681395603990.17</v>
       </c>
       <c r="C84" t="n">
-        <v>2.493634593913237e-06</v>
+        <v>4298029335289.57</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.163866588031981e-06</v>
+        <v>-3891157624101.078</v>
       </c>
       <c r="E84" t="n">
-        <v>1.696773810959555e-06</v>
+        <v>1555572030039.387</v>
       </c>
       <c r="F84" t="n">
-        <v>2.954614833265724e-06</v>
+        <v>2868058183850.357</v>
       </c>
       <c r="G84" t="n">
-        <v>3.677707141648294e-06</v>
+        <v>3441981951202.106</v>
       </c>
       <c r="H84" t="n">
-        <v>2.793856771244997</v>
+        <v>1.150539534568217</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5928936091549388</v>
+        <v>0.8861728750371746</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6984641928112493</v>
+        <v>0.2876348836420543</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>2.822038819035869e-05</v>
+        <v>26225334115848.29</v>
       </c>
       <c r="C85" t="n">
-        <v>1.549207968840504e-06</v>
+        <v>793575076053.8164</v>
       </c>
       <c r="D85" t="n">
-        <v>1.311416371372691e-06</v>
+        <v>2084925210782.805</v>
       </c>
       <c r="E85" t="n">
-        <v>8.245084578040502e-07</v>
+        <v>749645438224.1024</v>
       </c>
       <c r="F85" t="n">
-        <v>1.42257768321399e-06</v>
+        <v>1450291379299.493</v>
       </c>
       <c r="G85" t="n">
-        <v>1.76112615737128e-06</v>
+        <v>1667839925706.937</v>
       </c>
       <c r="H85" t="n">
-        <v>3.373837617448239</v>
+        <v>2.87968046935645</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4973189561369417</v>
+        <v>0.5781582406037813</v>
       </c>
       <c r="J85" t="n">
-        <v>0.8434594043620597</v>
+        <v>0.7199201173391125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>2.437189392206575e-05</v>
+        <v>22697658679499.67</v>
       </c>
       <c r="C86" t="n">
-        <v>-9.251270118069612e-07</v>
+        <v>72051496013.87695</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.272127100847311e-07</v>
+        <v>-1485863260483.629</v>
       </c>
       <c r="E86" t="n">
-        <v>7.013401470071529e-07</v>
+        <v>644614053975.2152</v>
       </c>
       <c r="F86" t="n">
-        <v>1.222814322328223e-06</v>
+        <v>1195903258286.584</v>
       </c>
       <c r="G86" t="n">
-        <v>1.456281809021992e-06</v>
+        <v>1368110778111.703</v>
       </c>
       <c r="H86" t="n">
-        <v>4.508921626189467</v>
+        <v>3.848282889162013</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3414909162197861</v>
+        <v>0.426927730196285</v>
       </c>
       <c r="J86" t="n">
-        <v>1.127230406547367</v>
+        <v>0.9620707222905032</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>2.232557054880997e-05</v>
+        <v>20831688581787.15</v>
       </c>
       <c r="C87" t="n">
-        <v>6.282580097076046e-07</v>
+        <v>1415308093517.4</v>
       </c>
       <c r="D87" t="n">
-        <v>3.02446961890487e-06</v>
+        <v>1477782928342.805</v>
       </c>
       <c r="E87" t="n">
-        <v>5.825150996599339e-07</v>
+        <v>538381057429.6209</v>
       </c>
       <c r="F87" t="n">
-        <v>1.051114634347983e-06</v>
+        <v>1005199678684.499</v>
       </c>
       <c r="G87" t="n">
-        <v>1.27025836795474e-06</v>
+        <v>1186655216264.889</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4271140143087147</v>
+        <v>2.898873465461667</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9801974141367351</v>
+        <v>0.5748888049310601</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1067785035771787</v>
+        <v>0.7247183663654169</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>2.864407127555294e-05</v>
+        <v>26503935822899.32</v>
       </c>
       <c r="C88" t="n">
-        <v>2.695831472481402e-06</v>
+        <v>2196126841403.459</v>
       </c>
       <c r="D88" t="n">
-        <v>-3.352145054341901e-07</v>
+        <v>264976307949.3047</v>
       </c>
       <c r="E88" t="n">
-        <v>7.594049159989366e-07</v>
+        <v>691127275505.0059</v>
       </c>
       <c r="F88" t="n">
-        <v>1.319797202309704e-06</v>
+        <v>1317446560353.918</v>
       </c>
       <c r="G88" t="n">
-        <v>1.649660829421132e-06</v>
+        <v>1551495474363.952</v>
       </c>
       <c r="H88" t="n">
-        <v>2.428201692208003</v>
+        <v>2.95887459570373</v>
       </c>
       <c r="I88" t="n">
-        <v>0.6575368547984269</v>
+        <v>0.5647310609670531</v>
       </c>
       <c r="J88" t="n">
-        <v>0.6070504230520007</v>
+        <v>0.7397186489259325</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>5.179120576622905e-05</v>
+        <v>48292452250040.33</v>
       </c>
       <c r="C89" t="n">
-        <v>3.402503037601678e-07</v>
+        <v>2005725563609.199</v>
       </c>
       <c r="D89" t="n">
-        <v>2.790330286907665e-06</v>
+        <v>-95148140795.14062</v>
       </c>
       <c r="E89" t="n">
-        <v>1.306001607467325e-06</v>
+        <v>1206170918601.913</v>
       </c>
       <c r="F89" t="n">
-        <v>2.319138327839368e-06</v>
+        <v>2201983134157.909</v>
       </c>
       <c r="G89" t="n">
-        <v>2.887539095763168e-06</v>
+        <v>2692109406286.694</v>
       </c>
       <c r="H89" t="n">
-        <v>6.476618977800064</v>
+        <v>6.839568939871572</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1662695512913192</v>
+        <v>0.1446130770244124</v>
       </c>
       <c r="J89" t="n">
-        <v>1.619154744450016</v>
+        <v>1.709892234967893</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001200743724731021</v>
+        <v>111779436747340.4</v>
       </c>
       <c r="C90" t="n">
-        <v>3.777774576074695e-06</v>
+        <v>5779838418130.273</v>
       </c>
       <c r="D90" t="n">
-        <v>5.509832109500205e-06</v>
+        <v>1538404448877</v>
       </c>
       <c r="E90" t="n">
-        <v>2.907293086394077e-06</v>
+        <v>2684699732987.143</v>
       </c>
       <c r="F90" t="n">
-        <v>5.20004610291477e-06</v>
+        <v>4946726373527.393</v>
       </c>
       <c r="G90" t="n">
-        <v>6.403880294094421e-06</v>
+        <v>5975008484834.117</v>
       </c>
       <c r="H90" t="n">
-        <v>2.100141950734479</v>
+        <v>2.219875701581222</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7173463069136916</v>
+        <v>0.6953921427687029</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5250354876836199</v>
+        <v>0.5549689253953055</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001350022072627554</v>
+        <v>125546432447833.3</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.308756154498982e-07</v>
+        <v>737536359103.4688</v>
       </c>
       <c r="D91" t="n">
-        <v>3.875297025189518e-06</v>
+        <v>2176320694154.5</v>
       </c>
       <c r="E91" t="n">
-        <v>3.250615806927412e-06</v>
+        <v>3000243728560.546</v>
       </c>
       <c r="F91" t="n">
-        <v>5.755141972091078e-06</v>
+        <v>5520018072528.679</v>
       </c>
       <c r="G91" t="n">
-        <v>7.0727138367653e-06</v>
+        <v>6611136805575.38</v>
       </c>
       <c r="H91" t="n">
-        <v>1.508524638681713</v>
+        <v>1.65346075870416</v>
       </c>
       <c r="I91" t="n">
-        <v>0.825130369375237</v>
+        <v>0.7991531388326432</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3771311596704282</v>
+        <v>0.4133651896760401</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001576588006929124</v>
+        <v>147254768413636</v>
       </c>
       <c r="C92" t="n">
-        <v>4.981867671208657e-06</v>
+        <v>11782236690001.62</v>
       </c>
       <c r="D92" t="n">
-        <v>1.069322391808255e-05</v>
+        <v>-1640025545230.969</v>
       </c>
       <c r="E92" t="n">
-        <v>3.780110306164908e-06</v>
+        <v>3513553003405.362</v>
       </c>
       <c r="F92" t="n">
-        <v>6.834587807711737e-06</v>
+        <v>6341892986802.371</v>
       </c>
       <c r="G92" t="n">
-        <v>8.497820947480526e-06</v>
+        <v>7894940327719.543</v>
       </c>
       <c r="H92" t="n">
-        <v>5.57868563734632</v>
+        <v>5.429087067779294</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2328990424826987</v>
+        <v>0.2460334604125554</v>
       </c>
       <c r="J92" t="n">
-        <v>1.39467140933658</v>
+        <v>1.357271766944824</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001635376255191664</v>
+        <v>152124472582384</v>
       </c>
       <c r="C93" t="n">
-        <v>8.153056631860959e-06</v>
+        <v>10354105800207.14</v>
       </c>
       <c r="D93" t="n">
-        <v>3.240316247999958e-06</v>
+        <v>-1148651221941.5</v>
       </c>
       <c r="E93" t="n">
-        <v>4.067935996324168e-06</v>
+        <v>3744279604521.789</v>
       </c>
       <c r="F93" t="n">
-        <v>7.207060076228103e-06</v>
+        <v>6926745018546.108</v>
       </c>
       <c r="G93" t="n">
-        <v>8.93217629241462e-06</v>
+        <v>8348728308501.632</v>
       </c>
       <c r="H93" t="n">
-        <v>1.426629523009124</v>
+        <v>1.029989552253583</v>
       </c>
       <c r="I93" t="n">
-        <v>0.839553723096444</v>
+        <v>0.9052150082953602</v>
       </c>
       <c r="J93" t="n">
-        <v>0.356657380752281</v>
+        <v>0.2574973880633957</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001458598430857729</v>
+        <v>135395966455643.9</v>
       </c>
       <c r="C94" t="n">
-        <v>4.801514524861949e-06</v>
+        <v>6356533636848.297</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.306113576527999e-06</v>
+        <v>-4518246134565.25</v>
       </c>
       <c r="E94" t="n">
-        <v>4.262527292678648e-06</v>
+        <v>3880359632125.208</v>
       </c>
       <c r="F94" t="n">
-        <v>7.270019576024499e-06</v>
+        <v>7258016036717.474</v>
       </c>
       <c r="G94" t="n">
-        <v>9.140837868127385e-06</v>
+        <v>8592633540521.743</v>
       </c>
       <c r="H94" t="n">
-        <v>1.731305881650961</v>
+        <v>1.408870626448827</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7850233262430376</v>
+        <v>0.8426518025350591</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4328264704127402</v>
+        <v>0.3522176566122067</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001279287985448936</v>
+        <v>119366513526327.7</v>
       </c>
       <c r="C95" t="n">
-        <v>3.220111999595768e-06</v>
+        <v>7550522692144.953</v>
       </c>
       <c r="D95" t="n">
-        <v>9.154820064514248e-06</v>
+        <v>1440601334826.938</v>
       </c>
       <c r="E95" t="n">
-        <v>3.735613393881529e-06</v>
+        <v>3427635020137.147</v>
       </c>
       <c r="F95" t="n">
-        <v>6.536661218835728e-06</v>
+        <v>6398577879596.071</v>
       </c>
       <c r="G95" t="n">
-        <v>8.066873317498144e-06</v>
+        <v>7567986607716.591</v>
       </c>
       <c r="H95" t="n">
-        <v>1.900839364432998</v>
+        <v>2.316297295414771</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7539908011248935</v>
+        <v>0.677803469482925</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4752098411082495</v>
+        <v>0.5790743238536928</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>9.621538420290095e-05</v>
+        <v>89606011643277.88</v>
       </c>
       <c r="C96" t="n">
-        <v>7.01786742116596e-07</v>
+        <v>2275834947046.156</v>
       </c>
       <c r="D96" t="n">
-        <v>3.927338618942461e-06</v>
+        <v>1073600636766.125</v>
       </c>
       <c r="E96" t="n">
-        <v>2.771978065545607e-06</v>
+        <v>2537003458631.179</v>
       </c>
       <c r="F96" t="n">
-        <v>4.792300905854857e-06</v>
+        <v>4743344131674.797</v>
       </c>
       <c r="G96" t="n">
-        <v>5.953090904638837e-06</v>
+        <v>5595775739603.359</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9699626044534641</v>
+        <v>1.180624461082011</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9143159205403296</v>
+        <v>0.881278255687864</v>
       </c>
       <c r="J96" t="n">
-        <v>0.242490651113366</v>
+        <v>0.2951561152705027</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>8.791764924378772e-05</v>
+        <v>82094082407673.45</v>
       </c>
       <c r="C97" t="n">
-        <v>1.822089240577165e-06</v>
+        <v>6073186031367.133</v>
       </c>
       <c r="D97" t="n">
-        <v>3.434945903023356e-06</v>
+        <v>-3390350294438.156</v>
       </c>
       <c r="E97" t="n">
-        <v>2.443019658232354e-06</v>
+        <v>2249019536780.39</v>
       </c>
       <c r="F97" t="n">
-        <v>4.300491828713738e-06</v>
+        <v>4136098516222.46</v>
       </c>
       <c r="G97" t="n">
-        <v>5.292122650506723e-06</v>
+        <v>4947700455613.996</v>
       </c>
       <c r="H97" t="n">
-        <v>1.720216996728276</v>
+        <v>0.7486937365430139</v>
       </c>
       <c r="I97" t="n">
-        <v>0.787041988103837</v>
+        <v>0.9451910005785156</v>
       </c>
       <c r="J97" t="n">
-        <v>0.430054249182069</v>
+        <v>0.1871734341357535</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.270425588248438e-05</v>
+        <v>77276746550636.08</v>
       </c>
       <c r="C98" t="n">
-        <v>5.290839836978172e-06</v>
+        <v>8811183871991.914</v>
       </c>
       <c r="D98" t="n">
-        <v>4.507324364806393e-06</v>
+        <v>-1981718592177.562</v>
       </c>
       <c r="E98" t="n">
-        <v>2.109453008293671e-06</v>
+        <v>1950254746365.667</v>
       </c>
       <c r="F98" t="n">
-        <v>3.782843036306735e-06</v>
+        <v>3565463312665.64</v>
       </c>
       <c r="G98" t="n">
-        <v>4.714150437732533e-06</v>
+        <v>4388702157678.821</v>
       </c>
       <c r="H98" t="n">
-        <v>4.016331603535757</v>
+        <v>2.578833734912381</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4038001195945239</v>
+        <v>0.6305771768057138</v>
       </c>
       <c r="J98" t="n">
-        <v>1.004082900883939</v>
+        <v>0.6447084337280952</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>8.347065135287189e-05</v>
+        <v>77230792841968.95</v>
       </c>
       <c r="C99" t="n">
-        <v>4.681513745404323e-06</v>
+        <v>3095740596790.68</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.29491320217058e-06</v>
+        <v>-850344832320.7344</v>
       </c>
       <c r="E99" t="n">
-        <v>2.027135351496373e-06</v>
+        <v>1854555401565.692</v>
       </c>
       <c r="F99" t="n">
-        <v>3.515761910390672e-06</v>
+        <v>3451749400737.743</v>
       </c>
       <c r="G99" t="n">
-        <v>4.420356680103231e-06</v>
+        <v>4144075488392.944</v>
       </c>
       <c r="H99" t="n">
-        <v>1.0330114629822</v>
+        <v>1.900614457116217</v>
       </c>
       <c r="I99" t="n">
-        <v>0.904749739981206</v>
+        <v>0.7540321178329861</v>
       </c>
       <c r="J99" t="n">
-        <v>0.25825286574555</v>
+        <v>0.4751536142790542</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>8.116038279066642e-05</v>
+        <v>75824780554104.08</v>
       </c>
       <c r="C100" t="n">
-        <v>5.365042775688123e-06</v>
+        <v>8587165800139.578</v>
       </c>
       <c r="D100" t="n">
-        <v>5.62273239300278e-06</v>
+        <v>-639577112247.6562</v>
       </c>
       <c r="E100" t="n">
-        <v>1.885754330586899e-06</v>
+        <v>1755616783739.111</v>
       </c>
       <c r="F100" t="n">
-        <v>3.449865363497101e-06</v>
+        <v>3181357134132.069</v>
       </c>
       <c r="G100" t="n">
-        <v>4.254219115223484e-06</v>
+        <v>3947769685795.921</v>
       </c>
       <c r="H100" t="n">
-        <v>3.680736533550644</v>
+        <v>2.719262599308732</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4509338827764638</v>
+        <v>0.6058481379366567</v>
       </c>
       <c r="J100" t="n">
-        <v>0.920184133387661</v>
+        <v>0.6798156498271831</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>8.186415338145527e-05</v>
+        <v>76212698051107.31</v>
       </c>
       <c r="C101" t="n">
-        <v>3.016886771453021e-06</v>
+        <v>4283900173879.375</v>
       </c>
       <c r="D101" t="n">
-        <v>2.453280427038834e-06</v>
+        <v>-111768411163.2812</v>
       </c>
       <c r="E101" t="n">
-        <v>1.842315544785584e-06</v>
+        <v>1710198300179.266</v>
       </c>
       <c r="F101" t="n">
-        <v>3.319494678381608e-06</v>
+        <v>3091289834320.1</v>
       </c>
       <c r="G101" t="n">
-        <v>4.127676376605422e-06</v>
+        <v>3836946039215.233</v>
       </c>
       <c r="H101" t="n">
-        <v>2.818926588081458</v>
+        <v>2.57436343945315</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5885700835614851</v>
+        <v>0.6313711789533119</v>
       </c>
       <c r="J101" t="n">
-        <v>0.7047316470203644</v>
+        <v>0.6435908598632876</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>9.572514903772861e-05</v>
+        <v>89199506607078.59</v>
       </c>
       <c r="C102" t="n">
-        <v>3.234326853044321e-06</v>
+        <v>5746067519521.219</v>
       </c>
       <c r="D102" t="n">
-        <v>6.184511267962896e-06</v>
+        <v>1297363837571.516</v>
       </c>
       <c r="E102" t="n">
-        <v>2.116395033237747e-06</v>
+        <v>1973031078316.651</v>
       </c>
       <c r="F102" t="n">
-        <v>3.870752308398771e-06</v>
+        <v>3553387514299.216</v>
       </c>
       <c r="G102" t="n">
-        <v>4.777869572180102e-06</v>
+        <v>4430315252593.977</v>
       </c>
       <c r="H102" t="n">
-        <v>2.77813713215093</v>
+        <v>3.160455966624724</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5956124962787837</v>
+        <v>0.5313415614349229</v>
       </c>
       <c r="J102" t="n">
-        <v>0.6945342830377326</v>
+        <v>0.7901139916561811</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001283202703444668</v>
+        <v>119765079236790.4</v>
       </c>
       <c r="C103" t="n">
-        <v>7.234905848790881e-06</v>
+        <v>11491577074770.27</v>
       </c>
       <c r="D103" t="n">
-        <v>8.322318210964908e-06</v>
+        <v>-100903400206.125</v>
       </c>
       <c r="E103" t="n">
-        <v>2.81602566577747e-06</v>
+        <v>2631392449590.524</v>
       </c>
       <c r="F103" t="n">
-        <v>5.203297100873526e-06</v>
+        <v>4729105749314.835</v>
       </c>
       <c r="G103" t="n">
-        <v>6.392450635915255e-06</v>
+        <v>5915656956345.6</v>
       </c>
       <c r="H103" t="n">
-        <v>2.193666664354305</v>
+        <v>1.693361465074454</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7001889424406612</v>
+        <v>0.7919231667303636</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5484166660885763</v>
+        <v>0.4233403662686135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002104222491540148</v>
+        <v>196109448025960.3</v>
       </c>
       <c r="C104" t="n">
-        <v>7.253480321634212e-06</v>
+        <v>13290503111915.09</v>
       </c>
       <c r="D104" t="n">
-        <v>1.383493570615612e-05</v>
+        <v>2256874837487.219</v>
       </c>
       <c r="E104" t="n">
-        <v>4.538234782585476e-06</v>
+        <v>4241060058622.932</v>
       </c>
       <c r="F104" t="n">
-        <v>8.387282271945424e-06</v>
+        <v>7612012961698.388</v>
       </c>
       <c r="G104" t="n">
-        <v>1.026366116487613e-05</v>
+        <v>9497004215088.102</v>
       </c>
       <c r="H104" t="n">
-        <v>2.31864909466214</v>
+        <v>2.674101114118025</v>
       </c>
       <c r="I104" t="n">
-        <v>0.6773757864247576</v>
+        <v>0.613754131443131</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5796622736655349</v>
+        <v>0.6685252785295063</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003220486683357956</v>
+        <v>299938205189175.5</v>
       </c>
       <c r="C105" t="n">
-        <v>9.708612293396197e-06</v>
+        <v>16331352421430.09</v>
       </c>
       <c r="D105" t="n">
-        <v>1.258656476342876e-05</v>
+        <v>-39453626409.375</v>
       </c>
       <c r="E105" t="n">
-        <v>7.032358157129405e-06</v>
+        <v>6552495884880.217</v>
       </c>
       <c r="F105" t="n">
-        <v>1.285202378244925e-05</v>
+        <v>11797153673574.24</v>
       </c>
       <c r="G105" t="n">
-        <v>1.576131702373334e-05</v>
+        <v>14610985083605.29</v>
       </c>
       <c r="H105" t="n">
-        <v>1.955954064249875</v>
+        <v>1.833385664057729</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7438600172880114</v>
+        <v>0.7663689137894412</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4889885160624687</v>
+        <v>0.4583464160144323</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004254010167138297</v>
+        <v>396564583731291.6</v>
       </c>
       <c r="C106" t="n">
-        <v>1.904593369801111e-05</v>
+        <v>29858108587381.66</v>
       </c>
       <c r="D106" t="n">
-        <v>2.125256213713559e-05</v>
+        <v>-81290101851.6875</v>
       </c>
       <c r="E106" t="n">
-        <v>9.193861452879691e-06</v>
+        <v>8587910902079.266</v>
       </c>
       <c r="F106" t="n">
-        <v>1.694714603074031e-05</v>
+        <v>15428347278731.17</v>
       </c>
       <c r="G106" t="n">
-        <v>2.079004235666546e-05</v>
+        <v>19248380613904.68</v>
       </c>
       <c r="H106" t="n">
-        <v>2.475402673766547</v>
+        <v>2.151981849177893</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6490456752924227</v>
+        <v>0.7078292895049252</v>
       </c>
       <c r="J106" t="n">
-        <v>0.6188506684416367</v>
+        <v>0.5379954622944734</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0005666451978522166</v>
+        <v>527555515725105.9</v>
       </c>
       <c r="C107" t="n">
-        <v>7.952822413935924e-06</v>
+        <v>20268337164455.72</v>
       </c>
       <c r="D107" t="n">
-        <v>2.266844529981665e-05</v>
+        <v>857388331155.625</v>
       </c>
       <c r="E107" t="n">
-        <v>1.229521080157715e-05</v>
+        <v>11459670155823.24</v>
       </c>
       <c r="F107" t="n">
-        <v>2.253179571892041e-05</v>
+        <v>20631481253800.78</v>
       </c>
       <c r="G107" t="n">
-        <v>2.730613282244675e-05</v>
+        <v>25297767792583.45</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9756578135140904</v>
+        <v>1.134296229616973</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9134643232132363</v>
+        <v>0.8887932504886269</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2439144533785226</v>
+        <v>0.2835740574042432</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007058018680730735</v>
+        <v>657844885890479.1</v>
       </c>
       <c r="C108" t="n">
-        <v>2.84310781927133e-05</v>
+        <v>46794394165744.75</v>
       </c>
       <c r="D108" t="n">
-        <v>3.996218060427551e-05</v>
+        <v>3889845890048.875</v>
       </c>
       <c r="E108" t="n">
-        <v>1.510785808988403e-05</v>
+        <v>14123894308029.25</v>
       </c>
       <c r="F108" t="n">
-        <v>2.791615840337616e-05</v>
+        <v>25315567575398.89</v>
       </c>
       <c r="G108" t="n">
-        <v>3.422830091502162e-05</v>
+        <v>31666062610563.38</v>
       </c>
       <c r="H108" t="n">
-        <v>2.424823340450291</v>
+        <v>2.406111457428</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6581459944629116</v>
+        <v>0.6615231072279673</v>
       </c>
       <c r="J108" t="n">
-        <v>0.6062058351125728</v>
+        <v>0.6015278643569999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0007632444899812367</v>
+        <v>711146876943172</v>
       </c>
       <c r="C109" t="n">
-        <v>4.837001216678331e-05</v>
+        <v>61832746586734.06</v>
       </c>
       <c r="D109" t="n">
-        <v>3.463472074427239e-05</v>
+        <v>4146090391914</v>
       </c>
       <c r="E109" t="n">
-        <v>1.640545572217535e-05</v>
+        <v>15310865174436.01</v>
       </c>
       <c r="F109" t="n">
-        <v>3.017384198694739e-05</v>
+        <v>27591965404219.14</v>
       </c>
       <c r="G109" t="n">
-        <v>3.727888420077714e-05</v>
+        <v>34545497264495.4</v>
       </c>
       <c r="H109" t="n">
-        <v>1.834847520984072</v>
+        <v>1.366752726758627</v>
       </c>
       <c r="I109" t="n">
-        <v>0.7661009979136666</v>
+        <v>0.8499524717211271</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4587118802460181</v>
+        <v>0.3416881816896569</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0009493180187277939</v>
+        <v>885643343029824.2</v>
       </c>
       <c r="C110" t="n">
-        <v>4.556130062972723e-05</v>
+        <v>73976624173093.06</v>
       </c>
       <c r="D110" t="n">
-        <v>5.283571011267395e-05</v>
+        <v>-3014472319938.5</v>
       </c>
       <c r="E110" t="n">
-        <v>2.025773734732967e-05</v>
+        <v>18971551811384.94</v>
       </c>
       <c r="F110" t="n">
-        <v>3.756963240436883e-05</v>
+        <v>33901192609923.75</v>
       </c>
       <c r="G110" t="n">
-        <v>4.601196932033953e-05</v>
+        <v>42542120410828.9</v>
       </c>
       <c r="H110" t="n">
-        <v>2.126476904426604</v>
+        <v>1.647031648233051</v>
       </c>
       <c r="I110" t="n">
-        <v>0.7125097807038088</v>
+        <v>0.8003153711918687</v>
       </c>
       <c r="J110" t="n">
-        <v>0.531619226106651</v>
+        <v>0.4117579120582627</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00116664734932758</v>
+        <v>1087209148105689</v>
       </c>
       <c r="C111" t="n">
-        <v>3.007884978285e-05</v>
+        <v>61181006296554.56</v>
       </c>
       <c r="D111" t="n">
-        <v>5.336802548895907e-05</v>
+        <v>-3823472579674.25</v>
       </c>
       <c r="E111" t="n">
-        <v>2.492432613821252e-05</v>
+        <v>23299586088942.92</v>
       </c>
       <c r="F111" t="n">
-        <v>4.59849469119766e-05</v>
+        <v>41659365099864.12</v>
       </c>
       <c r="G111" t="n">
-        <v>5.60175594513543e-05</v>
+        <v>51808447928749.58</v>
       </c>
       <c r="H111" t="n">
-        <v>1.841812097895324</v>
+        <v>1.757933126371526</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7648243543122601</v>
+        <v>0.7801690609959411</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4604530244738311</v>
+        <v>0.4394832815928814</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001179365448335933</v>
+        <v>1098979303630393</v>
       </c>
       <c r="C112" t="n">
-        <v>3.438879844183446e-05</v>
+        <v>66324446701326.5</v>
       </c>
       <c r="D112" t="n">
-        <v>6.555134942943142e-05</v>
+        <v>5498578612139</v>
       </c>
       <c r="E112" t="n">
-        <v>2.526783017109706e-05</v>
+        <v>23616425110298.35</v>
       </c>
       <c r="F112" t="n">
-        <v>4.666668957116494e-05</v>
+        <v>42306976431736.07</v>
       </c>
       <c r="G112" t="n">
-        <v>5.699175707701222e-05</v>
+        <v>52717452552141.11</v>
       </c>
       <c r="H112" t="n">
-        <v>2.410850708317105</v>
+        <v>2.579595708326962</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6606672568254062</v>
+        <v>0.6304418767533827</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6027126770792762</v>
+        <v>0.6448989270817406</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001323736719372463</v>
+        <v>1232723142263198</v>
       </c>
       <c r="C113" t="n">
-        <v>1.031289048514543e-05</v>
+        <v>45763681035801</v>
       </c>
       <c r="D113" t="n">
-        <v>6.948005558696214e-05</v>
+        <v>7283619269152</v>
       </c>
       <c r="E113" t="n">
-        <v>2.832863777259379e-05</v>
+        <v>26459978944660.82</v>
       </c>
       <c r="F113" t="n">
-        <v>5.211996307737323e-05</v>
+        <v>47256290856907.14</v>
       </c>
       <c r="G113" t="n">
-        <v>6.339566354362917e-05</v>
+        <v>58629540250341.6</v>
       </c>
       <c r="H113" t="n">
-        <v>1.492983796809129</v>
+        <v>2.035947677975442</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8278835687706374</v>
+        <v>0.7291470293399971</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3732459492022822</v>
+        <v>0.5089869194938604</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001353048945555235</v>
+        <v>1260358494386712</v>
       </c>
       <c r="C114" t="n">
-        <v>2.338527758043206e-05</v>
+        <v>56837811062016.38</v>
       </c>
       <c r="D114" t="n">
-        <v>5.53699134216391e-05</v>
+        <v>-4431806921885.5</v>
       </c>
       <c r="E114" t="n">
-        <v>2.892491578799672e-05</v>
+        <v>27019526730401.15</v>
       </c>
       <c r="F114" t="n">
-        <v>5.324141134579116e-05</v>
+        <v>48334576330257.18</v>
       </c>
       <c r="G114" t="n">
-        <v>6.472091076494168e-05</v>
+        <v>59874193859224.42</v>
       </c>
       <c r="H114" t="n">
-        <v>1.546552832505532</v>
+        <v>1.57300981149782</v>
       </c>
       <c r="I114" t="n">
-        <v>0.81836445452076</v>
+        <v>0.8136347194834808</v>
       </c>
       <c r="J114" t="n">
-        <v>0.386638208126383</v>
+        <v>0.393252452874455</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001343632386193721</v>
+        <v>1251903881089818</v>
       </c>
       <c r="C115" t="n">
-        <v>1.56684520517059e-05</v>
+        <v>56924682041926.25</v>
       </c>
       <c r="D115" t="n">
-        <v>7.690744113418059e-05</v>
+        <v>3917107817758</v>
       </c>
       <c r="E115" t="n">
-        <v>2.874933065737984e-05</v>
+        <v>26881433031080.48</v>
       </c>
       <c r="F115" t="n">
-        <v>5.302978668194479e-05</v>
+        <v>47908252124595.72</v>
       </c>
       <c r="G115" t="n">
-        <v>6.456312766411287e-05</v>
+        <v>59676481486447.79</v>
       </c>
       <c r="H115" t="n">
-        <v>1.801165581274896</v>
+        <v>2.330479691458939</v>
       </c>
       <c r="I115" t="n">
-        <v>0.7722690961253718</v>
+        <v>0.6752254072656791</v>
       </c>
       <c r="J115" t="n">
-        <v>0.450291395318724</v>
+        <v>0.5826199228647346</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>0.00132125263787467</v>
+        <v>1231477950962289</v>
       </c>
       <c r="C116" t="n">
-        <v>2.594879100315125e-05</v>
+        <v>65493408372784.25</v>
       </c>
       <c r="D116" t="n">
-        <v>6.418516744786744e-05</v>
+        <v>-6423937011767</v>
       </c>
       <c r="E116" t="n">
-        <v>2.825278278442253e-05</v>
+        <v>26423088847491.1</v>
       </c>
       <c r="F116" t="n">
-        <v>5.221792562969667e-05</v>
+        <v>47190867857247.62</v>
       </c>
       <c r="G116" t="n">
-        <v>6.340506604693865e-05</v>
+        <v>58609325513438.27</v>
       </c>
       <c r="H116" t="n">
-        <v>1.999482699822195</v>
+        <v>2.027816097989139</v>
       </c>
       <c r="I116" t="n">
-        <v>0.7358540343919879</v>
+        <v>0.7306425608589024</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4998706749555487</v>
+        <v>0.5069540244972848</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001324503908421497</v>
+        <v>1232424934386821</v>
       </c>
       <c r="C117" t="n">
-        <v>2.187902034632698e-05</v>
+        <v>49358727492894.62</v>
       </c>
       <c r="D117" t="n">
-        <v>9.121632294396679e-05</v>
+        <v>38982099735650.25</v>
       </c>
       <c r="E117" t="n">
-        <v>2.841081650296451e-05</v>
+        <v>26489603543546.3</v>
       </c>
       <c r="F117" t="n">
-        <v>5.236213637342453e-05</v>
+        <v>47803338740206.91</v>
       </c>
       <c r="G117" t="n">
-        <v>6.376564251408534e-05</v>
+        <v>59037775681740.21</v>
       </c>
       <c r="H117" t="n">
-        <v>2.617632520243976</v>
+        <v>3.519872892263196</v>
       </c>
       <c r="I117" t="n">
-        <v>0.623702798556362</v>
+        <v>0.4748630684609588</v>
       </c>
       <c r="J117" t="n">
-        <v>0.654408130060994</v>
+        <v>0.879968223065799</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>0.00125782267225719</v>
+        <v>1171625750321631</v>
       </c>
       <c r="C118" t="n">
-        <v>2.755544832420487e-05</v>
+        <v>58417830174637.25</v>
       </c>
       <c r="D118" t="n">
-        <v>6.299786365263093e-05</v>
+        <v>5740302928414.5</v>
       </c>
       <c r="E118" t="n">
-        <v>2.68780692136999e-05</v>
+        <v>25111107692926.71</v>
       </c>
       <c r="F118" t="n">
-        <v>4.945111437978948e-05</v>
+        <v>44885346241407.93</v>
       </c>
       <c r="G118" t="n">
-        <v>6.048341518720133e-05</v>
+        <v>55960144901647.52</v>
       </c>
       <c r="H118" t="n">
-        <v>1.836068144725032</v>
+        <v>2.061018365489657</v>
       </c>
       <c r="I118" t="n">
-        <v>0.7658772795568984</v>
+        <v>0.7245368961137602</v>
       </c>
       <c r="J118" t="n">
-        <v>0.459017036181258</v>
+        <v>0.5152545913724143</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001225281906263601</v>
+        <v>1141684733450313</v>
       </c>
       <c r="C119" t="n">
-        <v>2.343201938333184e-05</v>
+        <v>55151700942936.75</v>
       </c>
       <c r="D119" t="n">
-        <v>4.623676883475938e-05</v>
+        <v>-10290995196635</v>
       </c>
       <c r="E119" t="n">
-        <v>2.62354466504159e-05</v>
+        <v>24513626293486.18</v>
       </c>
       <c r="F119" t="n">
-        <v>4.830013706740566e-05</v>
+        <v>43820850820374.37</v>
       </c>
       <c r="G119" t="n">
-        <v>5.870575760036891e-05</v>
+        <v>54303295556208.04</v>
       </c>
       <c r="H119" t="n">
-        <v>1.65255946261301</v>
+        <v>1.485912309950519</v>
       </c>
       <c r="I119" t="n">
-        <v>0.79931611962174</v>
+        <v>0.829133960786282</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4131398656532524</v>
+        <v>0.3714780774876297</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001008339295102033</v>
+        <v>939322193780635</v>
       </c>
       <c r="C120" t="n">
-        <v>6.365451816742152e-06</v>
+        <v>34146799092316.62</v>
       </c>
       <c r="D120" t="n">
-        <v>4.212225015373227e-05</v>
+        <v>-5594714979147</v>
       </c>
       <c r="E120" t="n">
-        <v>2.161533231516354e-05</v>
+        <v>20194306605930.86</v>
       </c>
       <c r="F120" t="n">
-        <v>3.971862127881016e-05</v>
+        <v>36002605787586.47</v>
       </c>
       <c r="G120" t="n">
-        <v>4.826418319354428e-05</v>
+        <v>44634836810619.89</v>
       </c>
       <c r="H120" t="n">
-        <v>1.541714277578447</v>
+        <v>1.732777229561994</v>
       </c>
       <c r="I120" t="n">
-        <v>0.8192275046763239</v>
+        <v>0.7847553442360474</v>
       </c>
       <c r="J120" t="n">
-        <v>0.3854285693946118</v>
+        <v>0.4331943073904985</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0009354744297227361</v>
+        <v>871142874589816.9</v>
       </c>
       <c r="C121" t="n">
-        <v>2.204709843139653e-05</v>
+        <v>47159776712352.19</v>
       </c>
       <c r="D121" t="n">
-        <v>6.783604335260183e-05</v>
+        <v>20434830699005.75</v>
       </c>
       <c r="E121" t="n">
-        <v>2.00914739787491e-05</v>
+        <v>18762417995122.17</v>
       </c>
       <c r="F121" t="n">
-        <v>3.715609162225385e-05</v>
+        <v>33738133569800.29</v>
       </c>
       <c r="G121" t="n">
-        <v>4.534919751392877e-05</v>
+        <v>41951330077961.56</v>
       </c>
       <c r="H121" t="n">
-        <v>3.006491070923051</v>
+        <v>3.895449896262053</v>
       </c>
       <c r="I121" t="n">
-        <v>0.5567397233196685</v>
+        <v>0.4203400386920417</v>
       </c>
       <c r="J121" t="n">
-        <v>0.7516227677307629</v>
+        <v>0.9738624740655133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0007866759866496458</v>
+        <v>733741273274903.6</v>
       </c>
       <c r="C122" t="n">
-        <v>2.691522274210912e-05</v>
+        <v>51247926918151.06</v>
       </c>
       <c r="D122" t="n">
-        <v>4.018030550673028e-05</v>
+        <v>-5409263939879.75</v>
       </c>
       <c r="E122" t="n">
-        <v>1.682414230989292e-05</v>
+        <v>15749858845203.01</v>
       </c>
       <c r="F122" t="n">
-        <v>3.112689297502387e-05</v>
+        <v>28090257316857</v>
       </c>
       <c r="G122" t="n">
-        <v>3.804347742958216e-05</v>
+        <v>35169938469882.52</v>
       </c>
       <c r="H122" t="n">
-        <v>2.340845218537409</v>
+        <v>2.009735221326345</v>
       </c>
       <c r="I122" t="n">
-        <v>0.673342805444074</v>
+        <v>0.7339681955064323</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5852113046343523</v>
+        <v>0.5024338053315862</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006120569535297865</v>
+        <v>570169330945967.9</v>
       </c>
       <c r="C123" t="n">
-        <v>1.432814501135088e-05</v>
+        <v>27746935155927.38</v>
       </c>
       <c r="D123" t="n">
-        <v>1.759876535729096e-05</v>
+        <v>-6769462083089.375</v>
       </c>
       <c r="E123" t="n">
-        <v>1.310458936012703e-05</v>
+        <v>12236610480218.19</v>
       </c>
       <c r="F123" t="n">
-        <v>2.405482560552026e-05</v>
+        <v>21898605663160.95</v>
       </c>
       <c r="G123" t="n">
-        <v>2.929918535366121e-05</v>
+        <v>27122775887153.32</v>
       </c>
       <c r="H123" t="n">
-        <v>1.439084473057174</v>
+        <v>1.085248030416231</v>
       </c>
       <c r="I123" t="n">
-        <v>0.8373742944912477</v>
+        <v>0.8966056525936053</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3597711182642935</v>
+        <v>0.2713120076040578</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0005593383933698716</v>
+        <v>520960766850428.5</v>
       </c>
       <c r="C124" t="n">
-        <v>6.732953520336761e-06</v>
+        <v>22262162620631.5</v>
       </c>
       <c r="D124" t="n">
-        <v>3.140780832944408e-05</v>
+        <v>3879855847412.875</v>
       </c>
       <c r="E124" t="n">
-        <v>1.20968902682504e-05</v>
+        <v>11289955921520.43</v>
       </c>
       <c r="F124" t="n">
-        <v>2.227113203324571e-05</v>
+        <v>20256912837081.32</v>
       </c>
       <c r="G124" t="n">
-        <v>2.707693363160051e-05</v>
+        <v>25052160210805.02</v>
       </c>
       <c r="H124" t="n">
-        <v>2.576491292894376</v>
+        <v>3.125930391331025</v>
       </c>
       <c r="I124" t="n">
-        <v>0.6309931856822713</v>
+        <v>0.5369768324766988</v>
       </c>
       <c r="J124" t="n">
-        <v>0.6441228232235939</v>
+        <v>0.7814825978327562</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0004809554225394651</v>
+        <v>448692220540397.1</v>
       </c>
       <c r="C125" t="n">
-        <v>1.953346495782909e-05</v>
+        <v>34479375878103.5</v>
       </c>
       <c r="D125" t="n">
-        <v>2.546461296432058e-05</v>
+        <v>-3094872636178.75</v>
       </c>
       <c r="E125" t="n">
-        <v>1.032936695166285e-05</v>
+        <v>9669270536604.275</v>
       </c>
       <c r="F125" t="n">
-        <v>1.910310185773508e-05</v>
+        <v>17261717267966.9</v>
       </c>
       <c r="G125" t="n">
-        <v>2.340060939949085e-05</v>
+        <v>21641672416492.27</v>
       </c>
       <c r="H125" t="n">
-        <v>2.308465323145005</v>
+        <v>1.864448669641099</v>
       </c>
       <c r="I125" t="n">
-        <v>0.6792282342806614</v>
+        <v>0.7606724072789226</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5771163307862512</v>
+        <v>0.4661121674102747</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0004580511732173382</v>
+        <v>426836320020814</v>
       </c>
       <c r="C126" t="n">
-        <v>1.144473188951237e-05</v>
+        <v>22045869316955.56</v>
       </c>
       <c r="D126" t="n">
-        <v>9.923883559226658e-06</v>
+        <v>-9011085637271.75</v>
       </c>
       <c r="E126" t="n">
-        <v>9.911642822959114e-06</v>
+        <v>9249707380345.838</v>
       </c>
       <c r="F126" t="n">
-        <v>1.815176313118e-05</v>
+        <v>16570612429065.32</v>
       </c>
       <c r="G126" t="n">
-        <v>2.211009004948574e-05</v>
+        <v>20475999947145.59</v>
       </c>
       <c r="H126" t="n">
-        <v>1.777556653704996</v>
+        <v>1.127067769283253</v>
       </c>
       <c r="I126" t="n">
-        <v>0.7765858403783044</v>
+        <v>0.8899541676002523</v>
       </c>
       <c r="J126" t="n">
-        <v>0.444389163426249</v>
+        <v>0.2817669423208132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004592097130561311</v>
+        <v>428220507490185.8</v>
       </c>
       <c r="C127" t="n">
-        <v>7.587750396600686e-06</v>
+        <v>21778524139869.84</v>
       </c>
       <c r="D127" t="n">
-        <v>1.359073485233085e-05</v>
+        <v>-10759529344954.62</v>
       </c>
       <c r="E127" t="n">
-        <v>9.92111910773569e-06</v>
+        <v>9274055679623.66</v>
       </c>
       <c r="F127" t="n">
-        <v>1.82531519611901e-05</v>
+        <v>16541606483744.85</v>
       </c>
       <c r="G127" t="n">
-        <v>2.209378105036017e-05</v>
+        <v>20435643272069.94</v>
       </c>
       <c r="H127" t="n">
-        <v>1.5092109301971</v>
+        <v>0.8425793320654937</v>
       </c>
       <c r="I127" t="n">
-        <v>0.8250086237555342</v>
+        <v>0.9326502717834274</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3773027325492751</v>
+        <v>0.2106448330163734</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004545111473396111</v>
+        <v>424475654734085.6</v>
       </c>
       <c r="C128" t="n">
-        <v>1.7966373307294e-05</v>
+        <v>31506276578122.97</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.768396208663315e-06</v>
+        <v>-26537872534269.25</v>
       </c>
       <c r="E128" t="n">
-        <v>9.926124824908462e-06</v>
+        <v>9279342421068.648</v>
       </c>
       <c r="F128" t="n">
-        <v>1.815858498567114e-05</v>
+        <v>16512622741797.02</v>
       </c>
       <c r="G128" t="n">
-        <v>2.211175718149197e-05</v>
+        <v>20471054310057.36</v>
       </c>
       <c r="H128" t="n">
-        <v>2.972211895533257</v>
+        <v>0.3492930994412664</v>
       </c>
       <c r="I128" t="n">
-        <v>0.562486391649073</v>
+        <v>0.9864138797390224</v>
       </c>
       <c r="J128" t="n">
-        <v>0.7430529738833143</v>
+        <v>0.08732327486031659</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004413905903409231</v>
+        <v>411413651206251.9</v>
       </c>
       <c r="C129" t="n">
-        <v>1.683408433877774e-05</v>
+        <v>26298216178166.41</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.508365394677443e-06</v>
+        <v>-23814061577071.38</v>
       </c>
       <c r="E129" t="n">
-        <v>9.915210600602976e-06</v>
+        <v>9221139707796.865</v>
       </c>
       <c r="F129" t="n">
-        <v>1.785731468234538e-05</v>
+        <v>16530601690782.41</v>
       </c>
       <c r="G129" t="n">
-        <v>2.196959970571307e-05</v>
+        <v>20399787526943.11</v>
       </c>
       <c r="H129" t="n">
-        <v>2.292727274592265</v>
+        <v>0.5053991269948169</v>
       </c>
       <c r="I129" t="n">
-        <v>0.682093483083234</v>
+        <v>0.9729732494036163</v>
       </c>
       <c r="J129" t="n">
-        <v>0.5731818186480663</v>
+        <v>0.1263497817487042</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004446780639924145</v>
+        <v>415053918225168.2</v>
       </c>
       <c r="C130" t="n">
-        <v>6.110588701792915e-06</v>
+        <v>22628104980093.97</v>
       </c>
       <c r="D130" t="n">
-        <v>7.888900933587448e-06</v>
+        <v>-19288502326175.25</v>
       </c>
       <c r="E130" t="n">
-        <v>1.005670946384496e-05</v>
+        <v>9378084894854.867</v>
       </c>
       <c r="F130" t="n">
-        <v>1.830883233977937e-05</v>
+        <v>16765424654768.39</v>
       </c>
       <c r="G130" t="n">
-        <v>2.225292638364566e-05</v>
+        <v>20619726803071.42</v>
       </c>
       <c r="H130" t="n">
-        <v>2.519357422038346</v>
+        <v>1.095968344185355</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6411729336852869</v>
+        <v>0.8949113447814736</v>
       </c>
       <c r="J130" t="n">
-        <v>0.6298393555095865</v>
+        <v>0.2739920860463387</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004497149283296686</v>
+        <v>418688985208763.2</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.935557890363887e-07</v>
+        <v>9908536022425.875</v>
       </c>
       <c r="D131" t="n">
-        <v>2.884956066849e-05</v>
+        <v>10269994818800</v>
       </c>
       <c r="E131" t="n">
-        <v>1.03355350703598e-05</v>
+        <v>9593448840658.232</v>
       </c>
       <c r="F131" t="n">
-        <v>1.87022987461214e-05</v>
+        <v>17449021095596.58</v>
       </c>
       <c r="G131" t="n">
-        <v>2.283418470650022e-05</v>
+        <v>21231504831160.21</v>
       </c>
       <c r="H131" t="n">
-        <v>3.219506865091425</v>
+        <v>4.172419021583126</v>
       </c>
       <c r="I131" t="n">
-        <v>0.5217860265484097</v>
+        <v>0.3831740829375284</v>
       </c>
       <c r="J131" t="n">
-        <v>0.8048767162728562</v>
+        <v>1.043104755395782</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005026778059218666</v>
+        <v>468459937498036.2</v>
       </c>
       <c r="C132" t="n">
-        <v>1.590203325984522e-05</v>
+        <v>27764522892607.78</v>
       </c>
       <c r="D132" t="n">
-        <v>4.126384382620698e-06</v>
+        <v>-16548957272605.88</v>
       </c>
       <c r="E132" t="n">
-        <v>1.130973433685153e-05</v>
+        <v>10518371005606.3</v>
       </c>
       <c r="F132" t="n">
-        <v>2.047899520657197e-05</v>
+        <v>18947250433996.26</v>
       </c>
       <c r="G132" t="n">
-        <v>2.499750558275433e-05</v>
+        <v>23206707698236.26</v>
       </c>
       <c r="H132" t="n">
-        <v>1.44903810825865</v>
+        <v>0.3192782330509968</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8356287431112077</v>
+        <v>0.988535952514504</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3622595270646625</v>
+        <v>0.0798195582627492</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0005481529164959392</v>
+        <v>510380767108499.5</v>
       </c>
       <c r="C133" t="n">
-        <v>5.431786115753028e-06</v>
+        <v>16186180349773.38</v>
       </c>
       <c r="D133" t="n">
-        <v>-6.24676025135721e-06</v>
+        <v>-22891510602161.12</v>
       </c>
       <c r="E133" t="n">
-        <v>1.23062747845229e-05</v>
+        <v>11433301136298.31</v>
       </c>
       <c r="F133" t="n">
-        <v>2.215231276709909e-05</v>
+        <v>20566327769783.86</v>
       </c>
       <c r="G133" t="n">
-        <v>2.689369919712183e-05</v>
+        <v>24980369084846.12</v>
       </c>
       <c r="H133" t="n">
-        <v>1.215378890880714</v>
+        <v>0.3176338270808454</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8755601515212454</v>
+        <v>0.9886475993815231</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3038447227201785</v>
+        <v>0.07940845677021136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0005765052581455648</v>
+        <v>536749435557534.4</v>
       </c>
       <c r="C134" t="n">
-        <v>5.68661654083252e-06</v>
+        <v>17025071419298.06</v>
       </c>
       <c r="D134" t="n">
-        <v>-7.899886270831802e-06</v>
+        <v>-25159989261925.38</v>
       </c>
       <c r="E134" t="n">
-        <v>1.293257067969349e-05</v>
+        <v>12015822746480.91</v>
       </c>
       <c r="F134" t="n">
-        <v>2.333373513083287e-05</v>
+        <v>21664441374758.09</v>
       </c>
       <c r="G134" t="n">
-        <v>2.814298135969365e-05</v>
+        <v>26142878677008.64</v>
       </c>
       <c r="H134" t="n">
-        <v>1.722596125219329</v>
+        <v>0.7772058769892111</v>
       </c>
       <c r="I134" t="n">
-        <v>0.7866090332216605</v>
+        <v>0.94147754914702</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4306490313048323</v>
+        <v>0.1943014692473028</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0005815453425130225</v>
+        <v>542498284214874.9</v>
       </c>
       <c r="C135" t="n">
-        <v>1.432344078127769e-05</v>
+        <v>32612690022850.19</v>
       </c>
       <c r="D135" t="n">
-        <v>8.699779911870579e-06</v>
+        <v>-22299619335711.38</v>
       </c>
       <c r="E135" t="n">
-        <v>1.315014957304038e-05</v>
+        <v>12248506756572.19</v>
       </c>
       <c r="F135" t="n">
-        <v>2.390306742139525e-05</v>
+        <v>21989596796722.83</v>
       </c>
       <c r="G135" t="n">
-        <v>2.913982639790079e-05</v>
+        <v>27024366837740.09</v>
       </c>
       <c r="H135" t="n">
-        <v>2.454033637400923</v>
+        <v>1.096521127640043</v>
       </c>
       <c r="I135" t="n">
-        <v>0.6528852593256811</v>
+        <v>0.8948237746419099</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6135084093502308</v>
+        <v>0.2741302819100108</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0005704039690835095</v>
+        <v>530949458876311.8</v>
       </c>
       <c r="C136" t="n">
-        <v>1.82739173697815e-05</v>
+        <v>26825353256760.88</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.867385314752612e-05</v>
+        <v>-32366759564878.38</v>
       </c>
       <c r="E136" t="n">
-        <v>1.283112793863532e-05</v>
+        <v>11908148928441.6</v>
       </c>
       <c r="F136" t="n">
-        <v>2.301527947965216e-05</v>
+        <v>21456031385808.84</v>
       </c>
       <c r="G136" t="n">
-        <v>2.814904770533666e-05</v>
+        <v>26165634211736.3</v>
       </c>
       <c r="H136" t="n">
-        <v>1.81470153119863</v>
+        <v>0.5001556763469481</v>
       </c>
       <c r="I136" t="n">
-        <v>0.769791546143156</v>
+        <v>0.9734858219622807</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4536753827996575</v>
+        <v>0.125038919086737</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005421480398599475</v>
+        <v>504873618491211.5</v>
       </c>
       <c r="C137" t="n">
-        <v>1.895038264429147e-05</v>
+        <v>29407511537242.69</v>
       </c>
       <c r="D137" t="n">
-        <v>1.936891750654391e-05</v>
+        <v>-787034187559.625</v>
       </c>
       <c r="E137" t="n">
-        <v>1.223729676398701e-05</v>
+        <v>11365180831175.19</v>
       </c>
       <c r="F137" t="n">
-        <v>2.217962853526671e-05</v>
+        <v>20617659929241.91</v>
       </c>
       <c r="G137" t="n">
-        <v>2.72830312490797e-05</v>
+        <v>25347419336578.06</v>
       </c>
       <c r="H137" t="n">
-        <v>2.164185243771747</v>
+        <v>1.941114668520562</v>
       </c>
       <c r="I137" t="n">
-        <v>0.7055912566709198</v>
+        <v>0.7465886456230009</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5410463109429368</v>
+        <v>0.4852786671301405</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0004652909072460537</v>
+        <v>433800564146799.8</v>
       </c>
       <c r="C138" t="n">
-        <v>1.321233239924807e-05</v>
+        <v>24643385834974.75</v>
       </c>
       <c r="D138" t="n">
-        <v>-3.260810357619162e-06</v>
+        <v>-22531191947195.25</v>
       </c>
       <c r="E138" t="n">
-        <v>1.038594258950495e-05</v>
+        <v>9670678634296.561</v>
       </c>
       <c r="F138" t="n">
-        <v>1.881335689270222e-05</v>
+        <v>17333763041984.11</v>
       </c>
       <c r="G138" t="n">
-        <v>2.29848438722776e-05</v>
+        <v>21322210973591.18</v>
       </c>
       <c r="H138" t="n">
-        <v>2.324950402685229</v>
+        <v>0.7108349791638143</v>
       </c>
       <c r="I138" t="n">
-        <v>0.676230212977629</v>
+        <v>0.9499860560722538</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5812376006713074</v>
+        <v>0.1777087447909536</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002914519151903295</v>
+        <v>271389631796271.2</v>
       </c>
       <c r="C139" t="n">
-        <v>6.272425301937152e-06</v>
+        <v>11583410339243.22</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.493951843324463e-06</v>
+        <v>-10369300497738.69</v>
       </c>
       <c r="E139" t="n">
-        <v>6.517321047584545e-06</v>
+        <v>6056641029577.873</v>
       </c>
       <c r="F139" t="n">
-        <v>1.175122032508213e-05</v>
+        <v>10899556004840.91</v>
       </c>
       <c r="G139" t="n">
-        <v>1.437543023301222e-05</v>
+        <v>13351564784247.38</v>
       </c>
       <c r="H139" t="n">
-        <v>1.359280708932961</v>
+        <v>0.4787704138434226</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8512404344106588</v>
+        <v>0.9755345018938794</v>
       </c>
       <c r="J139" t="n">
-        <v>0.3398201772332402</v>
+        <v>0.1196926034608557</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002458982137642296</v>
+        <v>228430312559777.3</v>
       </c>
       <c r="C140" t="n">
-        <v>5.578284175196212e-06</v>
+        <v>4132722018751.453</v>
       </c>
       <c r="D140" t="n">
-        <v>7.598059514416118e-06</v>
+        <v>8563747065585.438</v>
       </c>
       <c r="E140" t="n">
-        <v>5.594289311332589e-06</v>
+        <v>5168434433672.025</v>
       </c>
       <c r="F140" t="n">
-        <v>9.981775067865052e-06</v>
+        <v>9509784127374.518</v>
       </c>
       <c r="G140" t="n">
-        <v>1.239295747802134e-05</v>
+        <v>11568763768997.12</v>
       </c>
       <c r="H140" t="n">
-        <v>4.124062370963565</v>
+        <v>4.027267827490149</v>
       </c>
       <c r="I140" t="n">
-        <v>0.3894761282962032</v>
+        <v>0.4023281286645274</v>
       </c>
       <c r="J140" t="n">
-        <v>1.031015592740891</v>
+        <v>1.006816956872537</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.000196526042366269</v>
+        <v>183374840152104.8</v>
       </c>
       <c r="C141" t="n">
-        <v>5.923080899232629e-06</v>
+        <v>11701123900007.55</v>
       </c>
       <c r="D141" t="n">
-        <v>9.950842987419776e-08</v>
+        <v>-9728395932758.594</v>
       </c>
       <c r="E141" t="n">
-        <v>4.367131523878165e-06</v>
+        <v>4072815656587.061</v>
       </c>
       <c r="F141" t="n">
-        <v>7.948207962959969e-06</v>
+        <v>7283465960785.883</v>
       </c>
       <c r="G141" t="n">
-        <v>9.666828010403386e-06</v>
+        <v>8959498876521.766</v>
       </c>
       <c r="H141" t="n">
-        <v>2.069179679807257</v>
+        <v>0.1469896256170846</v>
       </c>
       <c r="I141" t="n">
-        <v>0.7230364853998028</v>
+        <v>0.9974280067367348</v>
       </c>
       <c r="J141" t="n">
-        <v>0.5172949199518142</v>
+        <v>0.03674740640427114</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001518874629243444</v>
+        <v>141757173784112</v>
       </c>
       <c r="C142" t="n">
-        <v>8.267903587993634e-06</v>
+        <v>12996199687846.2</v>
       </c>
       <c r="D142" t="n">
-        <v>5.034145479492202e-06</v>
+        <v>-3844514778933.25</v>
       </c>
       <c r="E142" t="n">
-        <v>3.43692779534213e-06</v>
+        <v>3202630344705.854</v>
       </c>
       <c r="F142" t="n">
-        <v>6.282283828447773e-06</v>
+        <v>5781954523674.661</v>
       </c>
       <c r="G142" t="n">
-        <v>7.705907336635038e-06</v>
+        <v>7149069518407.103</v>
       </c>
       <c r="H142" t="n">
-        <v>2.830256166632741</v>
+        <v>1.346559224359452</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5866213299794523</v>
+        <v>0.8534280229530596</v>
       </c>
       <c r="J142" t="n">
-        <v>0.7075640416581852</v>
+        <v>0.336639806089863</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001429236585382152</v>
+        <v>132918808792600.5</v>
       </c>
       <c r="C143" t="n">
-        <v>2.287262764977474e-06</v>
+        <v>3390461082977.5</v>
       </c>
       <c r="D143" t="n">
-        <v>5.485433311769853e-06</v>
+        <v>3065944851168.75</v>
       </c>
       <c r="E143" t="n">
-        <v>3.308823131941257e-06</v>
+        <v>3061293632118.089</v>
       </c>
       <c r="F143" t="n">
-        <v>5.935758913321355e-06</v>
+        <v>5620344786990.445</v>
       </c>
       <c r="G143" t="n">
-        <v>7.287954659219728e-06</v>
+        <v>6795306847577.643</v>
       </c>
       <c r="H143" t="n">
-        <v>2.760003420610453</v>
+        <v>2.942535809057902</v>
       </c>
       <c r="I143" t="n">
-        <v>0.5987563625013228</v>
+        <v>0.5674874956751537</v>
       </c>
       <c r="J143" t="n">
-        <v>0.6900008551526133</v>
+        <v>0.7356339522644755</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001406361268284369</v>
+        <v>130328253916878.8</v>
       </c>
       <c r="C144" t="n">
-        <v>9.975714852540076e-07</v>
+        <v>124764223628.1719</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.112599200364577e-06</v>
+        <v>-4116513899587.406</v>
       </c>
       <c r="E144" t="n">
-        <v>3.69318539691257e-06</v>
+        <v>3376011570125.793</v>
       </c>
       <c r="F144" t="n">
-        <v>6.343882546612848e-06</v>
+        <v>6286543664462.248</v>
       </c>
       <c r="G144" t="n">
-        <v>7.876439476809645e-06</v>
+        <v>7405788033019.114</v>
       </c>
       <c r="H144" t="n">
-        <v>2.512067995288795</v>
+        <v>2.758600074102822</v>
       </c>
       <c r="I144" t="n">
-        <v>0.642476143112668</v>
+        <v>0.5989999917115909</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6280169988221986</v>
+        <v>0.6896500185257055</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0001435784801030762</v>
+        <v>133644742707566.7</v>
       </c>
       <c r="C145" t="n">
-        <v>6.286976100622585e-06</v>
+        <v>9102218232145.391</v>
       </c>
       <c r="D145" t="n">
-        <v>2.92299275951813e-06</v>
+        <v>-2180278091240.375</v>
       </c>
       <c r="E145" t="n">
-        <v>3.616081171887627e-06</v>
+        <v>3330897763136.532</v>
       </c>
       <c r="F145" t="n">
-        <v>6.406827033104921e-06</v>
+        <v>6147630730235.451</v>
       </c>
       <c r="G145" t="n">
-        <v>7.912881612404013e-06</v>
+        <v>7392970689158.643</v>
       </c>
       <c r="H145" t="n">
-        <v>1.145324805501141</v>
+        <v>0.5764401191911985</v>
       </c>
       <c r="I145" t="n">
-        <v>0.8870158552406997</v>
+        <v>0.9656454001174308</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2863312013752853</v>
+        <v>0.1441100297977996</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001366878406123011</v>
+        <v>127373636838655.4</v>
       </c>
       <c r="C146" t="n">
-        <v>2.100986882899928e-06</v>
+        <v>3551614141399.969</v>
       </c>
       <c r="D146" t="n">
-        <v>1.048488340573149e-05</v>
+        <v>6824872914074.594</v>
       </c>
       <c r="E146" t="n">
-        <v>3.700134658141374e-06</v>
+        <v>3398159866583.526</v>
       </c>
       <c r="F146" t="n">
-        <v>6.48937112117711e-06</v>
+        <v>6360515906301.394</v>
       </c>
       <c r="G146" t="n">
-        <v>8.074646412459193e-06</v>
+        <v>7580117717406.309</v>
       </c>
       <c r="H146" t="n">
-        <v>3.36599298625093</v>
+        <v>3.942330008972755</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4985445982162683</v>
+        <v>0.4138668930681516</v>
       </c>
       <c r="J146" t="n">
-        <v>0.8414982465627324</v>
+        <v>0.9855825022431888</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001359435454987607</v>
+        <v>127316713753435.2</v>
       </c>
       <c r="C147" t="n">
-        <v>1.54214749816743e-05</v>
+        <v>22766779202520.95</v>
       </c>
       <c r="D147" t="n">
-        <v>8.02467861458811e-06</v>
+        <v>-5894613063315.156</v>
       </c>
       <c r="E147" t="n">
-        <v>3.807380602916134e-06</v>
+        <v>3499979655514.659</v>
       </c>
       <c r="F147" t="n">
-        <v>6.742332598203463e-06</v>
+        <v>6442780815514.351</v>
       </c>
       <c r="G147" t="n">
-        <v>8.55684951176454e-06</v>
+        <v>7977175319530.566</v>
       </c>
       <c r="H147" t="n">
-        <v>5.066159262226694</v>
+        <v>1.76133095469926</v>
       </c>
       <c r="I147" t="n">
-        <v>0.2805762587530024</v>
+        <v>0.779548957765927</v>
       </c>
       <c r="J147" t="n">
-        <v>1.266539815556674</v>
+        <v>0.440332738674815</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001366123718327163</v>
+        <v>127507549881145.1</v>
       </c>
       <c r="C148" t="n">
-        <v>1.272467205118788e-06</v>
+        <v>7101080140919.484</v>
       </c>
       <c r="D148" t="n">
-        <v>7.373923991629356e-06</v>
+        <v>-2179170902853.062</v>
       </c>
       <c r="E148" t="n">
-        <v>3.803640749832629e-06</v>
+        <v>3501370330349.827</v>
       </c>
       <c r="F148" t="n">
-        <v>6.692256433175272e-06</v>
+        <v>6453748954092.024</v>
       </c>
       <c r="G148" t="n">
-        <v>8.236810625570689e-06</v>
+        <v>7705803455927.411</v>
       </c>
       <c r="H148" t="n">
-        <v>1.717545822755307</v>
+        <v>1.734534680061789</v>
       </c>
       <c r="I148" t="n">
-        <v>0.7875279897040283</v>
+        <v>0.7844352134800086</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4293864556888268</v>
+        <v>0.4336336700154473</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001361220669321244</v>
+        <v>126954312743451.1</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.703243450172138e-07</v>
+        <v>708823052507.8594</v>
       </c>
       <c r="D149" t="n">
-        <v>1.239657466747856e-05</v>
+        <v>9492260205878.625</v>
       </c>
       <c r="E149" t="n">
-        <v>3.774975756038415e-06</v>
+        <v>3470801342751.087</v>
       </c>
       <c r="F149" t="n">
-        <v>6.629597821634732e-06</v>
+        <v>6558588659109.566</v>
       </c>
       <c r="G149" t="n">
-        <v>8.100860913517867e-06</v>
+        <v>7633717463025.762</v>
       </c>
       <c r="H149" t="n">
-        <v>1.799898039365983</v>
+        <v>2.422518687353811</v>
       </c>
       <c r="I149" t="n">
-        <v>0.7725010077994204</v>
+        <v>0.6585616425169627</v>
       </c>
       <c r="J149" t="n">
-        <v>0.4499745098414958</v>
+        <v>0.6056296718384528</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001341115842147438</v>
+        <v>124862597343529.7</v>
       </c>
       <c r="C150" t="n">
-        <v>4.838074911901264e-07</v>
+        <v>4811285555263</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.628799478943922e-06</v>
+        <v>-7760376761231.469</v>
       </c>
       <c r="E150" t="n">
-        <v>3.766131913653078e-06</v>
+        <v>3451765465031.524</v>
       </c>
       <c r="F150" t="n">
-        <v>6.505477603867259e-06</v>
+        <v>6349800636481.131</v>
       </c>
       <c r="G150" t="n">
-        <v>8.079261631005475e-06</v>
+        <v>7570069805879.052</v>
       </c>
       <c r="H150" t="n">
-        <v>1.893308187959295</v>
+        <v>0.8388629670189323</v>
       </c>
       <c r="I150" t="n">
-        <v>0.7553741841197802</v>
+        <v>0.9331633101396893</v>
       </c>
       <c r="J150" t="n">
-        <v>0.4733270469898239</v>
+        <v>0.2097157417547331</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001316948281702436</v>
+        <v>122139984537016.3</v>
       </c>
       <c r="C151" t="n">
-        <v>8.888030218155384e-06</v>
+        <v>8247619026047.906</v>
       </c>
       <c r="D151" t="n">
-        <v>8.088437070857325e-07</v>
+        <v>1085515297809.25</v>
       </c>
       <c r="E151" t="n">
-        <v>3.668575921541007e-06</v>
+        <v>3333068911382.635</v>
       </c>
       <c r="F151" t="n">
-        <v>6.266170245578378e-06</v>
+        <v>6251104966803.155</v>
       </c>
       <c r="G151" t="n">
-        <v>8.117294409349378e-06</v>
+        <v>7619148338447.968</v>
       </c>
       <c r="H151" t="n">
-        <v>7.978972633089286</v>
+        <v>8.023255918152238</v>
       </c>
       <c r="I151" t="n">
-        <v>0.09235149771493867</v>
+        <v>0.09073000553184633</v>
       </c>
       <c r="J151" t="n">
-        <v>1.994743158272321</v>
+        <v>2.005813979538059</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001318898045597999</v>
+        <v>122361628656508.2</v>
       </c>
       <c r="C152" t="n">
-        <v>-8.722156508732178e-07</v>
+        <v>-5424040952965.891</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.646088318297233e-06</v>
+        <v>4958131166428.938</v>
       </c>
       <c r="E152" t="n">
-        <v>3.738690678368867e-06</v>
+        <v>3404913109813.265</v>
       </c>
       <c r="F152" t="n">
-        <v>6.303059829069108e-06</v>
+        <v>6473382133867.362</v>
       </c>
       <c r="G152" t="n">
-        <v>7.872309864162007e-06</v>
+        <v>7465366472576.204</v>
       </c>
       <c r="H152" t="n">
-        <v>2.62717370651164</v>
+        <v>2.001658795108875</v>
       </c>
       <c r="I152" t="n">
-        <v>0.622017045258882</v>
+        <v>0.7354537640690166</v>
       </c>
       <c r="J152" t="n">
-        <v>0.65679342662791</v>
+        <v>0.5004146987772187</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001183849360322415</v>
+        <v>110806132361239.3</v>
       </c>
       <c r="C153" t="n">
-        <v>1.04697480818924e-05</v>
+        <v>16409096037743.16</v>
       </c>
       <c r="D153" t="n">
-        <v>1.18547278902432e-05</v>
+        <v>169191880411.9688</v>
       </c>
       <c r="E153" t="n">
-        <v>3.349296804335401e-06</v>
+        <v>3080482570743.457</v>
       </c>
       <c r="F153" t="n">
-        <v>5.933895467486859e-06</v>
+        <v>5688997163734.873</v>
       </c>
       <c r="G153" t="n">
-        <v>7.533519997508125e-06</v>
+        <v>7029751887248.743</v>
       </c>
       <c r="H153" t="n">
-        <v>4.80353749132628</v>
+        <v>4.180333998747138</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3080561430483549</v>
+        <v>0.3821500811968176</v>
       </c>
       <c r="J153" t="n">
-        <v>1.20088437283157</v>
+        <v>1.045083499686785</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001204346355127321</v>
+        <v>112107031224999.4</v>
       </c>
       <c r="C154" t="n">
-        <v>2.442659615459476e-06</v>
+        <v>950531922896.3281</v>
       </c>
       <c r="D154" t="n">
-        <v>6.762549400962089e-06</v>
+        <v>7764436041582.375</v>
       </c>
       <c r="E154" t="n">
-        <v>3.487568393753201e-06</v>
+        <v>3181365593130.129</v>
       </c>
       <c r="F154" t="n">
-        <v>5.984872635205522e-06</v>
+        <v>6038891566313.738</v>
       </c>
       <c r="G154" t="n">
-        <v>7.590777235708808e-06</v>
+        <v>7165578529121.388</v>
       </c>
       <c r="H154" t="n">
-        <v>8.780481420097493</v>
+        <v>8.513747877630939</v>
       </c>
       <c r="I154" t="n">
-        <v>0.06682682765321021</v>
+        <v>0.07447160278386852</v>
       </c>
       <c r="J154" t="n">
-        <v>2.195120355024373</v>
+        <v>2.128436969407735</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001211699482547004</v>
+        <v>113194851398485.8</v>
       </c>
       <c r="C155" t="n">
-        <v>-4.683082263382855e-06</v>
+        <v>2157603183710.234</v>
       </c>
       <c r="D155" t="n">
-        <v>4.220008873575957e-06</v>
+        <v>-5848044010550.906</v>
       </c>
       <c r="E155" t="n">
-        <v>3.489222180422646e-06</v>
+        <v>3213517541825.264</v>
       </c>
       <c r="F155" t="n">
-        <v>6.080005231519495e-06</v>
+        <v>5866061284473.375</v>
       </c>
       <c r="G155" t="n">
-        <v>7.477610772536683e-06</v>
+        <v>6996602576151.071</v>
       </c>
       <c r="H155" t="n">
-        <v>3.797890259926585</v>
+        <v>3.711039483426569</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4340488440015914</v>
+        <v>0.4465223298564189</v>
       </c>
       <c r="J155" t="n">
-        <v>0.9494725649816463</v>
+        <v>0.9277598708566421</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001208193038828718</v>
+        <v>112556380541212.8</v>
       </c>
       <c r="C156" t="n">
-        <v>-4.761578420848969e-06</v>
+        <v>-1819722037185.906</v>
       </c>
       <c r="D156" t="n">
-        <v>2.634487119752659e-06</v>
+        <v>-1589941091014.344</v>
       </c>
       <c r="E156" t="n">
-        <v>3.397775284360294e-06</v>
+        <v>3118717549425.994</v>
       </c>
       <c r="F156" t="n">
-        <v>5.858440269586237e-06</v>
+        <v>5755738702194.797</v>
       </c>
       <c r="G156" t="n">
-        <v>7.238670951193574e-06</v>
+        <v>6797570917536.183</v>
       </c>
       <c r="H156" t="n">
-        <v>2.416075917237544</v>
+        <v>2.731914913360316</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6597240490135263</v>
+        <v>0.6036415772110164</v>
       </c>
       <c r="J156" t="n">
-        <v>0.604018979309386</v>
+        <v>0.6829787283400791</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001066696036486944</v>
+        <v>99476279872270.5</v>
       </c>
       <c r="C157" t="n">
-        <v>4.120317889203142e-06</v>
+        <v>6830526360692.305</v>
       </c>
       <c r="D157" t="n">
-        <v>8.501940179968091e-06</v>
+        <v>3035710862298.422</v>
       </c>
       <c r="E157" t="n">
-        <v>2.88711394620859e-06</v>
+        <v>2655093587081.149</v>
       </c>
       <c r="F157" t="n">
-        <v>5.088443793146474e-06</v>
+        <v>4923096775304.761</v>
       </c>
       <c r="G157" t="n">
-        <v>6.350636573246153e-06</v>
+        <v>5941586949765.473</v>
       </c>
       <c r="H157" t="n">
-        <v>5.196910126004584</v>
+        <v>5.761330464102368</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2676833682189586</v>
+        <v>0.217695356331989</v>
       </c>
       <c r="J157" t="n">
-        <v>1.299227531501146</v>
+        <v>1.440332616025592</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>9.271403551196339e-05</v>
+        <v>86944889756154.75</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.82777507113311e-06</v>
+        <v>6326594843808.406</v>
       </c>
       <c r="D158" t="n">
-        <v>6.993553103179907e-06</v>
+        <v>-5636354345653.484</v>
       </c>
       <c r="E158" t="n">
-        <v>2.690982138437851e-06</v>
+        <v>2491020944256.428</v>
       </c>
       <c r="F158" t="n">
-        <v>4.790256652473216e-06</v>
+        <v>4518645868532.887</v>
       </c>
       <c r="G158" t="n">
-        <v>5.850687045381964e-06</v>
+        <v>5451843270400.937</v>
       </c>
       <c r="H158" t="n">
-        <v>6.280187947818558</v>
+        <v>5.72828285276098</v>
       </c>
       <c r="I158" t="n">
-        <v>0.1791780119184315</v>
+        <v>0.2203800088708756</v>
       </c>
       <c r="J158" t="n">
-        <v>1.57004698695464</v>
+        <v>1.432070713190245</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>8.816842111172245e-05</v>
+        <v>82045381759377.45</v>
       </c>
       <c r="C159" t="n">
-        <v>1.44756084738345e-06</v>
+        <v>3950686165217.875</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.32230863063602e-06</v>
+        <v>-4902411954825.25</v>
       </c>
       <c r="E159" t="n">
-        <v>2.379035195834072e-06</v>
+        <v>2183164638854.515</v>
       </c>
       <c r="F159" t="n">
-        <v>4.141026930704737e-06</v>
+        <v>4024760247963.487</v>
       </c>
       <c r="G159" t="n">
-        <v>5.095108464927968e-06</v>
+        <v>4770080525781.205</v>
       </c>
       <c r="H159" t="n">
-        <v>1.289849883091651</v>
+        <v>0.1258942185843316</v>
       </c>
       <c r="I159" t="n">
-        <v>0.8630952815724316</v>
+        <v>0.9981000399681808</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3224624707729127</v>
+        <v>0.0314735546460829</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>8.599710710864717e-05</v>
+        <v>80027097296065</v>
       </c>
       <c r="C160" t="n">
-        <v>4.907427313219279e-06</v>
+        <v>6096367563274.148</v>
       </c>
       <c r="D160" t="n">
-        <v>3.747763999931234e-06</v>
+        <v>1147054968325.125</v>
       </c>
       <c r="E160" t="n">
-        <v>2.504552700620037e-06</v>
+        <v>2285227042590.741</v>
       </c>
       <c r="F160" t="n">
-        <v>4.333322800464991e-06</v>
+        <v>4306290143048.369</v>
       </c>
       <c r="G160" t="n">
-        <v>5.44088939558473e-06</v>
+        <v>5114536248794.995</v>
       </c>
       <c r="H160" t="n">
-        <v>1.553619870119769</v>
+        <v>1.458296719617993</v>
       </c>
       <c r="I160" t="n">
-        <v>0.8171028130027975</v>
+        <v>0.8340021071442323</v>
       </c>
       <c r="J160" t="n">
-        <v>0.3884049675299421</v>
+        <v>0.3645741799044981</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001065970059101856</v>
+        <v>99086246663049.8</v>
       </c>
       <c r="C161" t="n">
-        <v>1.523250159019373e-06</v>
+        <v>3663948225663.406</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.460472663454408e-06</v>
+        <v>-6277621291541.219</v>
       </c>
       <c r="E161" t="n">
-        <v>2.757214043132886e-06</v>
+        <v>2533577694226.042</v>
       </c>
       <c r="F161" t="n">
-        <v>4.82567564953049e-06</v>
+        <v>4674650635906.923</v>
       </c>
       <c r="G161" t="n">
-        <v>5.901203949516729e-06</v>
+        <v>5524564368726.132</v>
       </c>
       <c r="H161" t="n">
-        <v>1.792978734410723</v>
+        <v>0.8135411708182813</v>
       </c>
       <c r="I161" t="n">
-        <v>0.7737666848401641</v>
+        <v>0.9366235177199145</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4482446836026807</v>
+        <v>0.2033852927045703</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001849546508203854</v>
+        <v>173395793873688.9</v>
       </c>
       <c r="C162" t="n">
-        <v>2.738562507912198e-07</v>
+        <v>13290126623254.53</v>
       </c>
       <c r="D162" t="n">
-        <v>6.595321590830057e-06</v>
+        <v>-14222960911935.72</v>
       </c>
       <c r="E162" t="n">
-        <v>4.506045783891458e-06</v>
+        <v>4205180414859.121</v>
       </c>
       <c r="F162" t="n">
-        <v>8.174478272279355e-06</v>
+        <v>7464680329348.731</v>
       </c>
       <c r="G162" t="n">
-        <v>9.944291146691252e-06</v>
+        <v>9210894113280.115</v>
       </c>
       <c r="H162" t="n">
-        <v>5.167133408454465</v>
+        <v>2.098685192673473</v>
       </c>
       <c r="I162" t="n">
-        <v>0.2705744158615905</v>
+        <v>0.7176139423191088</v>
       </c>
       <c r="J162" t="n">
-        <v>1.291783352113616</v>
+        <v>0.5246712981683682</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002273727176250479</v>
+        <v>211362863671946.8</v>
       </c>
       <c r="C163" t="n">
-        <v>5.6008913593546e-06</v>
+        <v>7709425606923.312</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.823586915640897e-06</v>
+        <v>-5342181806787.438</v>
       </c>
       <c r="E163" t="n">
-        <v>5.350430745086286e-06</v>
+        <v>4941720047123.148</v>
       </c>
       <c r="F163" t="n">
-        <v>9.508606417891122e-06</v>
+        <v>9042595580954.092</v>
       </c>
       <c r="G163" t="n">
-        <v>1.164699446048343e-05</v>
+        <v>10866744456613.19</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8658127935791263</v>
+        <v>0.5109502588278372</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9294134694254674</v>
+        <v>0.9724262524682473</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2164531983947816</v>
+        <v>0.1277375647069593</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.000241850347195317</v>
+        <v>225222960802008.2</v>
       </c>
       <c r="C164" t="n">
-        <v>6.997465888620774e-06</v>
+        <v>12085058971043.16</v>
       </c>
       <c r="D164" t="n">
-        <v>4.233142917374792e-06</v>
+        <v>-4702556450994.25</v>
       </c>
       <c r="E164" t="n">
-        <v>5.646308047603407e-06</v>
+        <v>5231117469255.348</v>
       </c>
       <c r="F164" t="n">
-        <v>1.013470350012333e-05</v>
+        <v>9510350790354.453</v>
       </c>
       <c r="G164" t="n">
-        <v>1.243293149622591e-05</v>
+        <v>11570270237379.97</v>
       </c>
       <c r="H164" t="n">
-        <v>1.020124988657527</v>
+        <v>0.4322982955059339</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9067291843722263</v>
+        <v>0.9797481625531772</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2550312471643819</v>
+        <v>0.1080745738764835</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002472864292717167</v>
+        <v>229818571430723.4</v>
       </c>
       <c r="C165" t="n">
-        <v>3.597126050119493e-06</v>
+        <v>5044025431723.734</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.838779332457525e-07</v>
+        <v>-2767920670963.562</v>
       </c>
       <c r="E165" t="n">
-        <v>5.816842576263461e-06</v>
+        <v>5369899447506.471</v>
       </c>
       <c r="F165" t="n">
-        <v>1.03066060937986e-05</v>
+        <v>9829773641312.043</v>
       </c>
       <c r="G165" t="n">
-        <v>1.268634516876761e-05</v>
+        <v>11842384439321.61</v>
       </c>
       <c r="H165" t="n">
-        <v>0.8193869662797114</v>
+        <v>0.7073857109568851</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9358302364896776</v>
+        <v>0.9504149986827932</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2048467415699279</v>
+        <v>0.1768464277392213</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002519289788509245</v>
+        <v>234347637436355.2</v>
       </c>
       <c r="C166" t="n">
-        <v>1.268950786548995e-05</v>
+        <v>14816606691856.56</v>
       </c>
       <c r="D166" t="n">
-        <v>1.002550982750561e-05</v>
+        <v>4505646698741.5</v>
       </c>
       <c r="E166" t="n">
-        <v>6.038189820848181e-06</v>
+        <v>5570357330828.191</v>
       </c>
       <c r="F166" t="n">
-        <v>1.077540002491028e-05</v>
+        <v>10283068352388.24</v>
       </c>
       <c r="G166" t="n">
-        <v>1.343958015991331e-05</v>
+        <v>12542945412246.45</v>
       </c>
       <c r="H166" t="n">
-        <v>3.72116614035145</v>
+        <v>3.690462204743345</v>
       </c>
       <c r="I166" t="n">
-        <v>0.445054917004201</v>
+        <v>0.4495146620481562</v>
       </c>
       <c r="J166" t="n">
-        <v>0.9302915350878624</v>
+        <v>0.9226155511858362</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002537184996205051</v>
+        <v>236373513395028.7</v>
       </c>
       <c r="C167" t="n">
-        <v>4.191121988429924e-06</v>
+        <v>10682590272861.09</v>
       </c>
       <c r="D167" t="n">
-        <v>4.434154615882264e-06</v>
+        <v>-6347868862726.875</v>
       </c>
       <c r="E167" t="n">
-        <v>5.821068751694704e-06</v>
+        <v>5405623637490.465</v>
       </c>
       <c r="F167" t="n">
-        <v>1.051467641719592e-05</v>
+        <v>9782008485574.457</v>
       </c>
       <c r="G167" t="n">
-        <v>1.27778533707238e-05</v>
+        <v>11872982982147.83</v>
       </c>
       <c r="H167" t="n">
-        <v>1.060511507201729</v>
+        <v>0.4322233742900305</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9004858095072004</v>
+        <v>0.9797546852390794</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2651278768004323</v>
+        <v>0.1080558435725076</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002454570459951823</v>
+        <v>228382072370480.1</v>
       </c>
       <c r="C168" t="n">
-        <v>7.254459777998194e-06</v>
+        <v>10467445494701.55</v>
       </c>
       <c r="D168" t="n">
-        <v>1.835105678005787e-06</v>
+        <v>-4080140275003.375</v>
       </c>
       <c r="E168" t="n">
-        <v>5.601002104268472e-06</v>
+        <v>5190890524905.69</v>
       </c>
       <c r="F168" t="n">
-        <v>1.005079174281924e-05</v>
+        <v>9427656824552.74</v>
       </c>
       <c r="G168" t="n">
-        <v>1.237629240520141e-05</v>
+        <v>11517790581971.74</v>
       </c>
       <c r="H168" t="n">
-        <v>1.477373588513542</v>
+        <v>1.049167053524376</v>
       </c>
       <c r="I168" t="n">
-        <v>0.8306417518803892</v>
+        <v>0.9022512489435586</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3693433971283854</v>
+        <v>0.262291763381094</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002252661632429881</v>
+        <v>210203852669984.1</v>
       </c>
       <c r="C169" t="n">
-        <v>9.858054517236929e-06</v>
+        <v>16604303889209.97</v>
       </c>
       <c r="D169" t="n">
-        <v>5.500356643322268e-06</v>
+        <v>-6888915781952.688</v>
       </c>
       <c r="E169" t="n">
-        <v>5.084582152049911e-06</v>
+        <v>4737240821851.121</v>
       </c>
       <c r="F169" t="n">
-        <v>9.248576263025832e-06</v>
+        <v>8508684705861.043</v>
       </c>
       <c r="G169" t="n">
-        <v>1.139635778025401e-05</v>
+        <v>10570680107392.84</v>
       </c>
       <c r="H169" t="n">
-        <v>2.717726643464318</v>
+        <v>1.282623110210769</v>
       </c>
       <c r="I169" t="n">
-        <v>0.6061162606501413</v>
+        <v>0.8643168056682788</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6794316608660795</v>
+        <v>0.3206557775526924</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001415680531670075</v>
+        <v>131873890212215.8</v>
       </c>
       <c r="C170" t="n">
-        <v>2.482126851063691e-06</v>
+        <v>5778927174462.469</v>
       </c>
       <c r="D170" t="n">
-        <v>9.094894175134237e-06</v>
+        <v>2875966004907.531</v>
       </c>
       <c r="E170" t="n">
-        <v>3.389576263203296e-06</v>
+        <v>3137412117268.295</v>
       </c>
       <c r="F170" t="n">
-        <v>6.087343140249829e-06</v>
+        <v>5747714291485.263</v>
       </c>
       <c r="G170" t="n">
-        <v>7.515027573773304e-06</v>
+        <v>7003443722614.082</v>
       </c>
       <c r="H170" t="n">
-        <v>6.495106328270627</v>
+        <v>7.130100893265356</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1650989854598789</v>
+        <v>0.129170649834257</v>
       </c>
       <c r="J170" t="n">
-        <v>1.623776582067657</v>
+        <v>1.782525223316339</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>9.233420437968237e-05</v>
+        <v>85951257638370.34</v>
       </c>
       <c r="C171" t="n">
-        <v>1.78709185675447e-06</v>
+        <v>3158676458453.109</v>
       </c>
       <c r="D171" t="n">
-        <v>7.558001500979392e-06</v>
+        <v>4539750547755.891</v>
       </c>
       <c r="E171" t="n">
-        <v>2.154488710260362e-06</v>
+        <v>1995583615946.828</v>
       </c>
       <c r="F171" t="n">
-        <v>3.889138311299364e-06</v>
+        <v>3667715476114.529</v>
       </c>
       <c r="G171" t="n">
-        <v>4.799476781560382e-06</v>
+        <v>4473367220448.363</v>
       </c>
       <c r="H171" t="n">
-        <v>5.889376716859145</v>
+        <v>6.800816096185301</v>
       </c>
       <c r="I171" t="n">
-        <v>0.207563408294915</v>
+        <v>0.1467960936358955</v>
       </c>
       <c r="J171" t="n">
-        <v>1.472344179214786</v>
+        <v>1.700204024046325</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>8.419718988585551e-05</v>
+        <v>78514365317925.02</v>
       </c>
       <c r="C172" t="n">
-        <v>2.924303236348799e-06</v>
+        <v>5523201957608.219</v>
       </c>
       <c r="D172" t="n">
-        <v>5.73744983281282e-06</v>
+        <v>818358040125.5156</v>
       </c>
       <c r="E172" t="n">
-        <v>2.022082528520615e-06</v>
+        <v>1873671540101.977</v>
       </c>
       <c r="F172" t="n">
-        <v>3.64481699535955e-06</v>
+        <v>3419467835067.565</v>
       </c>
       <c r="G172" t="n">
-        <v>4.517810096556296e-06</v>
+        <v>4204511454265.811</v>
       </c>
       <c r="H172" t="n">
-        <v>4.7784794170185</v>
+        <v>5.093459823596249</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3107911651514623</v>
+        <v>0.2778416631853626</v>
       </c>
       <c r="J172" t="n">
-        <v>1.194619854254625</v>
+        <v>1.273364955899062</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>9.745026840402588e-05</v>
+        <v>90892494005842.98</v>
       </c>
       <c r="C173" t="n">
-        <v>5.11570244236369e-06</v>
+        <v>8073544509278.367</v>
       </c>
       <c r="D173" t="n">
-        <v>6.906644714380533e-06</v>
+        <v>1131123725082.344</v>
       </c>
       <c r="E173" t="n">
-        <v>2.49986129151777e-06</v>
+        <v>2304968928722.36</v>
       </c>
       <c r="F173" t="n">
-        <v>4.454590554673738e-06</v>
+        <v>4253112648651.116</v>
       </c>
       <c r="G173" t="n">
-        <v>5.541731817105441e-06</v>
+        <v>5171089455927.692</v>
       </c>
       <c r="H173" t="n">
-        <v>1.692887468817268</v>
+        <v>1.752549302217738</v>
       </c>
       <c r="I173" t="n">
-        <v>0.7920092158633295</v>
+        <v>0.781151310297145</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4232218672043169</v>
+        <v>0.4381373255544345</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001369266488330788</v>
+        <v>127892246234121.5</v>
       </c>
       <c r="C174" t="n">
-        <v>4.379763084849127e-06</v>
+        <v>9791673990712.453</v>
       </c>
       <c r="D174" t="n">
-        <v>1.255152693913341e-06</v>
+        <v>-7759940613466.781</v>
       </c>
       <c r="E174" t="n">
-        <v>3.205151656689635e-06</v>
+        <v>2980837122889.24</v>
       </c>
       <c r="F174" t="n">
-        <v>5.793628368217002e-06</v>
+        <v>5358470743127.54</v>
       </c>
       <c r="G174" t="n">
-        <v>7.082000610458827e-06</v>
+        <v>6573531777101.12</v>
       </c>
       <c r="H174" t="n">
-        <v>2.89825782632512</v>
+        <v>0.4866563024549075</v>
       </c>
       <c r="I174" t="n">
-        <v>0.5749935259444596</v>
+        <v>0.9747869212633848</v>
       </c>
       <c r="J174" t="n">
-        <v>0.7245644565812801</v>
+        <v>0.1216640756137269</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001529703243506324</v>
+        <v>142149045215544.8</v>
       </c>
       <c r="C175" t="n">
-        <v>3.456672753272784e-06</v>
+        <v>2357132811182.672</v>
       </c>
       <c r="D175" t="n">
-        <v>4.703415107382223e-06</v>
+        <v>5502850961542.031</v>
       </c>
       <c r="E175" t="n">
-        <v>3.867820541385215e-06</v>
+        <v>3547858392557.375</v>
       </c>
       <c r="F175" t="n">
-        <v>6.734713832099928e-06</v>
+        <v>6602402366219.423</v>
       </c>
       <c r="G175" t="n">
-        <v>8.476426226410736e-06</v>
+        <v>7953455685047.422</v>
       </c>
       <c r="H175" t="n">
-        <v>3.89444527407963</v>
+        <v>3.797250649866154</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4204795685871586</v>
+        <v>0.4341397786072984</v>
       </c>
       <c r="J175" t="n">
-        <v>0.9736113185199076</v>
+        <v>0.9493126624665384</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002325417422859975</v>
+        <v>215955621701852.5</v>
       </c>
       <c r="C176" t="n">
-        <v>7.388991733605222e-06</v>
+        <v>7146663408952.281</v>
       </c>
       <c r="D176" t="n">
-        <v>1.506528564810974e-06</v>
+        <v>1120724899767.062</v>
       </c>
       <c r="E176" t="n">
-        <v>5.908742587858088e-06</v>
+        <v>5416389967760.852</v>
       </c>
       <c r="F176" t="n">
-        <v>1.026988825468636e-05</v>
+        <v>10041533978062.6</v>
       </c>
       <c r="G176" t="n">
-        <v>1.289895195934276e-05</v>
+        <v>12087951495648.24</v>
       </c>
       <c r="H176" t="n">
-        <v>1.663773225074586</v>
+        <v>1.656235463296287</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7972872580941889</v>
+        <v>0.7986512943552303</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4159433062686466</v>
+        <v>0.4140588658240718</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003099691982310474</v>
+        <v>290383098375577.6</v>
       </c>
       <c r="C177" t="n">
-        <v>1.612208737662767e-05</v>
+        <v>35919201278442.66</v>
       </c>
       <c r="D177" t="n">
-        <v>2.884805120035059e-05</v>
+        <v>-6885191274545.688</v>
       </c>
       <c r="E177" t="n">
-        <v>7.575001921597853e-06</v>
+        <v>7057974529511.873</v>
       </c>
       <c r="F177" t="n">
-        <v>1.389231641729899e-05</v>
+        <v>12766364550586.43</v>
       </c>
       <c r="G177" t="n">
-        <v>1.705503948068963e-05</v>
+        <v>15814394470029.71</v>
       </c>
       <c r="H177" t="n">
-        <v>7.632061087756382</v>
+        <v>6.641800874305076</v>
       </c>
       <c r="I177" t="n">
-        <v>0.1060249862058408</v>
+        <v>0.1560721900423181</v>
       </c>
       <c r="J177" t="n">
-        <v>1.908015271939095</v>
+        <v>1.660450218576269</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003230032053109591</v>
+        <v>300620783380180.8</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.085176087248333e-06</v>
+        <v>6338048861201.562</v>
       </c>
       <c r="D178" t="n">
-        <v>1.274614637828807e-06</v>
+        <v>-9628302239059.5</v>
       </c>
       <c r="E178" t="n">
-        <v>8.313469411457473e-06</v>
+        <v>7655118906739.721</v>
       </c>
       <c r="F178" t="n">
-        <v>1.460455034334333e-05</v>
+        <v>14092642288644.07</v>
       </c>
       <c r="G178" t="n">
-        <v>1.789741611690079e-05</v>
+        <v>16747576896963.48</v>
       </c>
       <c r="H178" t="n">
-        <v>2.125498404371822</v>
+        <v>1.776921204964535</v>
       </c>
       <c r="I178" t="n">
-        <v>0.7126894232673676</v>
+        <v>0.7767019434786991</v>
       </c>
       <c r="J178" t="n">
-        <v>0.5313746010929554</v>
+        <v>0.4442303012411338</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003111060546336464</v>
+        <v>289717047972777.5</v>
       </c>
       <c r="C179" t="n">
-        <v>1.038086950449991e-05</v>
+        <v>17172923845838.62</v>
       </c>
       <c r="D179" t="n">
-        <v>8.733992230463021e-06</v>
+        <v>-3497736685679.625</v>
       </c>
       <c r="E179" t="n">
-        <v>8.094337469962261e-06</v>
+        <v>7442287589470.524</v>
       </c>
       <c r="F179" t="n">
-        <v>1.420526271227809e-05</v>
+        <v>13706513879126.01</v>
       </c>
       <c r="G179" t="n">
-        <v>1.781682708014984e-05</v>
+        <v>16656695952363.18</v>
       </c>
       <c r="H179" t="n">
-        <v>3.349284921228791</v>
+        <v>2.996456789780221</v>
       </c>
       <c r="I179" t="n">
-        <v>0.5011615630311297</v>
+        <v>0.5584185231436063</v>
       </c>
       <c r="J179" t="n">
-        <v>0.8373212303071976</v>
+        <v>0.7491141974450551</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0002811354379809007</v>
+        <v>261302234323448</v>
       </c>
       <c r="C180" t="n">
-        <v>3.5977658082526e-06</v>
+        <v>926232231259.0938</v>
       </c>
       <c r="D180" t="n">
-        <v>7.41417666872546e-06</v>
+        <v>9984521170567</v>
       </c>
       <c r="E180" t="n">
-        <v>7.544100777634696e-06</v>
+        <v>6908258564359.784</v>
       </c>
       <c r="F180" t="n">
-        <v>1.306415732240818e-05</v>
+        <v>13008768534728.92</v>
       </c>
       <c r="G180" t="n">
-        <v>1.616855022072e-05</v>
+        <v>15231492975179.23</v>
       </c>
       <c r="H180" t="n">
-        <v>1.404459732506653</v>
+        <v>1.252607507193942</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8434195240936679</v>
+        <v>0.8693634953902279</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3511149331266634</v>
+        <v>0.3131518767984856</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002784075371153608</v>
+        <v>259398449082585.2</v>
       </c>
       <c r="C181" t="n">
-        <v>2.683840873695325e-05</v>
+        <v>32764741139117.22</v>
       </c>
       <c r="D181" t="n">
-        <v>3.654119618838017e-06</v>
+        <v>-8671803845196.188</v>
       </c>
       <c r="E181" t="n">
-        <v>6.798301441864984e-06</v>
+        <v>6271672028100.281</v>
       </c>
       <c r="F181" t="n">
-        <v>1.215407393411521e-05</v>
+        <v>11521410689543.24</v>
       </c>
       <c r="G181" t="n">
-        <v>1.522301763041202e-05</v>
+        <v>14182112156275.01</v>
       </c>
       <c r="H181" t="n">
-        <v>3.290009282700576</v>
+        <v>1.442066362048045</v>
       </c>
       <c r="I181" t="n">
-        <v>0.5105167549358274</v>
+        <v>0.8368517173231516</v>
       </c>
       <c r="J181" t="n">
-        <v>0.8225023206751441</v>
+        <v>0.3605165905120113</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002496076177388872</v>
+        <v>232571746985873.6</v>
       </c>
       <c r="C182" t="n">
-        <v>-6.902318574208201e-06</v>
+        <v>-776294011930.5938</v>
       </c>
       <c r="D182" t="n">
-        <v>8.772993737569761e-06</v>
+        <v>-438477404141.875</v>
       </c>
       <c r="E182" t="n">
-        <v>7.236651146845969e-06</v>
+        <v>6644826742826.817</v>
       </c>
       <c r="F182" t="n">
-        <v>1.26143664835935e-05</v>
+        <v>12456864953134.7</v>
       </c>
       <c r="G182" t="n">
-        <v>1.532480834355604e-05</v>
+        <v>14427981070923.65</v>
       </c>
       <c r="H182" t="n">
-        <v>3.965968423897346</v>
+        <v>4.366962789018406</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4106311145135854</v>
+        <v>0.3586149537198308</v>
       </c>
       <c r="J182" t="n">
-        <v>0.9914921059743365</v>
+        <v>1.091740697254602</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002127388886521917</v>
+        <v>198013625969831.8</v>
       </c>
       <c r="C183" t="n">
-        <v>3.80222795174628e-06</v>
+        <v>1313955177417.125</v>
       </c>
       <c r="D183" t="n">
-        <v>9.707943087360613e-06</v>
+        <v>11466851375336.94</v>
       </c>
       <c r="E183" t="n">
-        <v>6.773640174560957e-06</v>
+        <v>6149985946124.995</v>
       </c>
       <c r="F183" t="n">
-        <v>1.145183079978477e-05</v>
+        <v>11729805461606.28</v>
       </c>
       <c r="G183" t="n">
-        <v>1.456750011826484e-05</v>
+        <v>13782636390957.32</v>
       </c>
       <c r="H183" t="n">
-        <v>6.127261146339854</v>
+        <v>5.951888928979384</v>
       </c>
       <c r="I183" t="n">
-        <v>0.1898437773899609</v>
+        <v>0.2027701629714188</v>
       </c>
       <c r="J183" t="n">
-        <v>1.531815286584963</v>
+        <v>1.487972232244846</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0001949570547108702</v>
+        <v>182147857443775.2</v>
       </c>
       <c r="C184" t="n">
-        <v>-7.934218458533485e-06</v>
+        <v>4424632166000.594</v>
       </c>
       <c r="D184" t="n">
-        <v>1.501800394502551e-05</v>
+        <v>-3454055462180.219</v>
       </c>
       <c r="E184" t="n">
-        <v>5.618797335949491e-06</v>
+        <v>5186198464166.118</v>
       </c>
       <c r="F184" t="n">
-        <v>9.968155790901345e-06</v>
+        <v>9591124007697.291</v>
       </c>
       <c r="G184" t="n">
-        <v>1.192415587474747e-05</v>
+        <v>11163476612531.89</v>
       </c>
       <c r="H184" t="n">
-        <v>5.155927607893263</v>
+        <v>6.549421148593455</v>
       </c>
       <c r="I184" t="n">
-        <v>0.2716692527329606</v>
+        <v>0.1617029650037078</v>
       </c>
       <c r="J184" t="n">
-        <v>1.288981901973316</v>
+        <v>1.637355287148364</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0001918415410961279</v>
+        <v>180120154285623.5</v>
       </c>
       <c r="C185" t="n">
-        <v>1.425233307544372e-05</v>
+        <v>28770831434754.59</v>
       </c>
       <c r="D185" t="n">
-        <v>1.681686436692028e-05</v>
+        <v>-8761429945028.625</v>
       </c>
       <c r="E185" t="n">
-        <v>5.635344461578799e-06</v>
+        <v>5193834967577.652</v>
       </c>
       <c r="F185" t="n">
-        <v>9.98662903600467e-06</v>
+        <v>9502318223597.295</v>
       </c>
       <c r="G185" t="n">
-        <v>1.248568295404798e-05</v>
+        <v>11637818408697.91</v>
       </c>
       <c r="H185" t="n">
-        <v>5.451766216497949</v>
+        <v>3.011999414733564</v>
       </c>
       <c r="I185" t="n">
-        <v>0.2440019142395766</v>
+        <v>0.5558193388459656</v>
       </c>
       <c r="J185" t="n">
-        <v>1.362941554124487</v>
+        <v>0.752999853683391</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0001902101695717868</v>
+        <v>177764060776985.5</v>
       </c>
       <c r="C186" t="n">
-        <v>5.454898900373331e-06</v>
+        <v>14626756414862.17</v>
       </c>
       <c r="D186" t="n">
-        <v>1.602859099451403e-05</v>
+        <v>-419202964604.7188</v>
       </c>
       <c r="E186" t="n">
-        <v>5.036813301944953e-06</v>
+        <v>4651973705012.312</v>
       </c>
       <c r="F186" t="n">
-        <v>8.962254205314362e-06</v>
+        <v>8513863377450.982</v>
       </c>
       <c r="G186" t="n">
-        <v>1.119612992297095e-05</v>
+        <v>10441373755658.75</v>
       </c>
       <c r="H186" t="n">
-        <v>6.393277533978766</v>
+        <v>6.792522955824177</v>
       </c>
       <c r="I186" t="n">
-        <v>0.1716401996481488</v>
+        <v>0.1472671547675738</v>
       </c>
       <c r="J186" t="n">
-        <v>1.598319383494692</v>
+        <v>1.698130738956044</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0001882995976859306</v>
+        <v>175822243967181.5</v>
       </c>
       <c r="C187" t="n">
-        <v>1.009330713515078e-05</v>
+        <v>19565091998979.69</v>
       </c>
       <c r="D187" t="n">
-        <v>-2.424859538735979e-06</v>
+        <v>-17088955958762.28</v>
       </c>
       <c r="E187" t="n">
-        <v>5.208846734355941e-06</v>
+        <v>4785382313556.995</v>
       </c>
       <c r="F187" t="n">
-        <v>9.146019092159652e-06</v>
+        <v>8788844358597.713</v>
       </c>
       <c r="G187" t="n">
-        <v>1.134085061123665e-05</v>
+        <v>10589978042125.01</v>
       </c>
       <c r="H187" t="n">
-        <v>5.433304876108532</v>
+        <v>1.677654800014387</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2456545355312974</v>
+        <v>0.7947725434426257</v>
       </c>
       <c r="J187" t="n">
-        <v>1.358326219027133</v>
+        <v>0.4194137000035967</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0001767845168106176</v>
+        <v>165423923209201.8</v>
       </c>
       <c r="C188" t="n">
-        <v>-7.206608270786616e-06</v>
+        <v>-2222820048684.562</v>
       </c>
       <c r="D188" t="n">
-        <v>3.190580002616753e-05</v>
+        <v>20776439019110.47</v>
       </c>
       <c r="E188" t="n">
-        <v>5.021467728281479e-06</v>
+        <v>4631368749360.219</v>
       </c>
       <c r="F188" t="n">
-        <v>8.830583904888791e-06</v>
+        <v>8607291406816.104</v>
       </c>
       <c r="G188" t="n">
-        <v>1.109431221054794e-05</v>
+        <v>10412793629380.35</v>
       </c>
       <c r="H188" t="n">
-        <v>15.33770654905063</v>
+        <v>19.21269229286925</v>
       </c>
       <c r="I188" t="n">
-        <v>0.004049682661625967</v>
+        <v>0.0007138100757195011</v>
       </c>
       <c r="J188" t="n">
-        <v>3.834426637262657</v>
+        <v>4.803173073217312</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0001988761842748653</v>
+        <v>185749379911228.4</v>
       </c>
       <c r="C189" t="n">
-        <v>-3.603114782095069e-07</v>
+        <v>8996736823267.859</v>
       </c>
       <c r="D189" t="n">
-        <v>1.177454161998111e-05</v>
+        <v>-3976363347163.469</v>
       </c>
       <c r="E189" t="n">
-        <v>4.959523926561286e-06</v>
+        <v>4599466249979.844</v>
       </c>
       <c r="F189" t="n">
-        <v>8.860421755949097e-06</v>
+        <v>8288360477436.955</v>
       </c>
       <c r="G189" t="n">
-        <v>1.104822683492253e-05</v>
+        <v>10275063267497.64</v>
       </c>
       <c r="H189" t="n">
-        <v>8.757781507075341</v>
+        <v>8.998468060260596</v>
       </c>
       <c r="I189" t="n">
-        <v>0.0674473098823396</v>
+        <v>0.06113778357332805</v>
       </c>
       <c r="J189" t="n">
-        <v>2.189445376768835</v>
+        <v>2.249617015065149</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002296897737491856</v>
+        <v>214597165764737.2</v>
       </c>
       <c r="C190" t="n">
-        <v>2.728176711433889e-06</v>
+        <v>15142432238104.27</v>
       </c>
       <c r="D190" t="n">
-        <v>2.271221175684295e-05</v>
+        <v>1087627223983.125</v>
       </c>
       <c r="E190" t="n">
-        <v>5.730455449189398e-06</v>
+        <v>5320608756637.086</v>
       </c>
       <c r="F190" t="n">
-        <v>1.036694745153622e-05</v>
+        <v>9643134098227.473</v>
       </c>
       <c r="G190" t="n">
-        <v>1.272558790113018e-05</v>
+        <v>11823825070733.18</v>
       </c>
       <c r="H190" t="n">
-        <v>2.704538530635095</v>
+        <v>4.134723771834682</v>
       </c>
       <c r="I190" t="n">
-        <v>0.6084206618073787</v>
+        <v>0.388079907152371</v>
       </c>
       <c r="J190" t="n">
-        <v>0.6761346326587738</v>
+        <v>1.03368094295867</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0002609951062288512</v>
+        <v>243336546587380.6</v>
       </c>
       <c r="C191" t="n">
-        <v>-8.101654580017247e-06</v>
+        <v>2003624420384.328</v>
       </c>
       <c r="D191" t="n">
-        <v>1.979293462846005e-05</v>
+        <v>3248772819293.688</v>
       </c>
       <c r="E191" t="n">
-        <v>6.398938478962966e-06</v>
+        <v>5933197639960.43</v>
       </c>
       <c r="F191" t="n">
-        <v>1.1454231020251e-05</v>
+        <v>10744916066127.4</v>
       </c>
       <c r="G191" t="n">
-        <v>1.412097113378852e-05</v>
+        <v>13144548022851.53</v>
       </c>
       <c r="H191" t="n">
-        <v>8.185298596380457</v>
+        <v>9.957770722387338</v>
       </c>
       <c r="I191" t="n">
-        <v>0.0850215000907184</v>
+        <v>0.04114506833657385</v>
       </c>
       <c r="J191" t="n">
-        <v>2.046324649095114</v>
+        <v>2.489442680596834</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0002962219134575351</v>
+        <v>275446680792918.5</v>
       </c>
       <c r="C192" t="n">
-        <v>1.06968156286906e-05</v>
+        <v>11991014377649.59</v>
       </c>
       <c r="D192" t="n">
-        <v>1.078754321340053e-05</v>
+        <v>6623952590433.062</v>
       </c>
       <c r="E192" t="n">
-        <v>7.07180140451223e-06</v>
+        <v>6519796997958.752</v>
       </c>
       <c r="F192" t="n">
-        <v>1.254269339442413e-05</v>
+        <v>11997275381298</v>
       </c>
       <c r="G192" t="n">
-        <v>1.577804141534649e-05</v>
+        <v>14730978785323.82</v>
       </c>
       <c r="H192" t="n">
-        <v>6.838009010399253</v>
+        <v>6.894128543123018</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1447003741657071</v>
+        <v>0.1415899453942486</v>
       </c>
       <c r="J192" t="n">
-        <v>1.709502252599813</v>
+        <v>1.723532135780754</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003439231828168512</v>
+        <v>320118330033676.8</v>
       </c>
       <c r="C193" t="n">
-        <v>2.011451820965173e-05</v>
+        <v>24300748313959.84</v>
       </c>
       <c r="D193" t="n">
-        <v>1.810999702662113e-05</v>
+        <v>7694105241485.312</v>
       </c>
       <c r="E193" t="n">
-        <v>8.106098408907306e-06</v>
+        <v>7491536124511.082</v>
       </c>
       <c r="F193" t="n">
-        <v>1.454180846845825e-05</v>
+        <v>13767089770564.22</v>
       </c>
       <c r="G193" t="n">
-        <v>1.821152308196328e-05</v>
+        <v>16972121806549.33</v>
       </c>
       <c r="H193" t="n">
-        <v>4.337949985663145</v>
+        <v>4.345834547993387</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3621970771276626</v>
+        <v>0.3612208143330384</v>
       </c>
       <c r="J193" t="n">
-        <v>1.084487496415786</v>
+        <v>1.086458636998347</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003890598420051698</v>
+        <v>362718069907865.3</v>
       </c>
       <c r="C194" t="n">
-        <v>2.462715838922382e-05</v>
+        <v>34443827413459.69</v>
       </c>
       <c r="D194" t="n">
-        <v>8.740969008222215e-06</v>
+        <v>-10059287394522.69</v>
       </c>
       <c r="E194" t="n">
-        <v>9.162679455997065e-06</v>
+        <v>8489792121711.501</v>
       </c>
       <c r="F194" t="n">
-        <v>1.651184350085402e-05</v>
+        <v>15469088020305.45</v>
       </c>
       <c r="G194" t="n">
-        <v>2.042171359591516e-05</v>
+        <v>18996375591214.66</v>
       </c>
       <c r="H194" t="n">
-        <v>2.209176745676229</v>
+        <v>0.8029869922790496</v>
       </c>
       <c r="I194" t="n">
-        <v>0.697349560674154</v>
+        <v>0.9380471683337721</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5522941864190571</v>
+        <v>0.2007467480697624</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003709883750739037</v>
+        <v>345758952168914.1</v>
       </c>
       <c r="C195" t="n">
-        <v>1.380974905468082e-05</v>
+        <v>24870973588634.88</v>
       </c>
       <c r="D195" t="n">
-        <v>3.492901719035808e-05</v>
+        <v>12931937630190</v>
       </c>
       <c r="E195" t="n">
-        <v>8.531549369878616e-06</v>
+        <v>7929744440421.732</v>
       </c>
       <c r="F195" t="n">
-        <v>1.559495588555676e-05</v>
+        <v>14458380330344.81</v>
       </c>
       <c r="G195" t="n">
-        <v>1.91962648618644e-05</v>
+        <v>17826890104086.93</v>
       </c>
       <c r="H195" t="n">
-        <v>3.709317031047726</v>
+        <v>4.92859195266343</v>
       </c>
       <c r="I195" t="n">
-        <v>0.4467722648321751</v>
+        <v>0.2947031955881254</v>
       </c>
       <c r="J195" t="n">
-        <v>0.9273292577619315</v>
+        <v>1.232147988165857</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003749157563009049</v>
+        <v>348448777094277.5</v>
       </c>
       <c r="C196" t="n">
-        <v>1.357474737025263e-05</v>
+        <v>13285548229065.66</v>
       </c>
       <c r="D196" t="n">
-        <v>1.588809194945817e-05</v>
+        <v>13504107121928.12</v>
       </c>
       <c r="E196" t="n">
-        <v>8.519571816877566e-06</v>
+        <v>7876500113396.267</v>
       </c>
       <c r="F196" t="n">
-        <v>1.526277268582184e-05</v>
+        <v>14458357671564.52</v>
       </c>
       <c r="G196" t="n">
-        <v>1.903420220829597e-05</v>
+        <v>17742726252829.18</v>
       </c>
       <c r="H196" t="n">
-        <v>3.936967999702516</v>
+        <v>3.983537925985368</v>
       </c>
       <c r="I196" t="n">
-        <v>0.4146035091335231</v>
+        <v>0.408238333614006</v>
       </c>
       <c r="J196" t="n">
-        <v>0.9842419999256291</v>
+        <v>0.9958844814963421</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003374848580031055</v>
+        <v>314555715847780</v>
       </c>
       <c r="C197" t="n">
-        <v>2.07425123798082e-05</v>
+        <v>27817849293788.12</v>
       </c>
       <c r="D197" t="n">
-        <v>3.01957369901743e-06</v>
+        <v>-10771719863420.56</v>
       </c>
       <c r="E197" t="n">
-        <v>7.687114638061279e-06</v>
+        <v>7137773959509.985</v>
       </c>
       <c r="F197" t="n">
-        <v>1.389038820746666e-05</v>
+        <v>12921451709215.13</v>
       </c>
       <c r="G197" t="n">
-        <v>1.715765827523211e-05</v>
+        <v>15941716366878.57</v>
       </c>
       <c r="H197" t="n">
-        <v>1.708267875658555</v>
+        <v>0.2028500958105492</v>
       </c>
       <c r="I197" t="n">
-        <v>0.7892152113176522</v>
+        <v>0.9951913901225303</v>
       </c>
       <c r="J197" t="n">
-        <v>0.4270669689146387</v>
+        <v>0.05071252395263731</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003315565408277864</v>
+        <v>308958067016120.7</v>
       </c>
       <c r="C198" t="n">
-        <v>1.468170142801447e-05</v>
+        <v>22726425067914.03</v>
       </c>
       <c r="D198" t="n">
-        <v>2.216712364494912e-05</v>
+        <v>5762564551314</v>
       </c>
       <c r="E198" t="n">
-        <v>7.46139424752458e-06</v>
+        <v>6940302784533.623</v>
       </c>
       <c r="F198" t="n">
-        <v>1.360867893699352e-05</v>
+        <v>12573724145700.64</v>
       </c>
       <c r="G198" t="n">
-        <v>1.685156207734989e-05</v>
+        <v>15640827567959.61</v>
       </c>
       <c r="H198" t="n">
-        <v>3.013419883059733</v>
+        <v>3.301960807305948</v>
       </c>
       <c r="I198" t="n">
-        <v>0.5555821319829128</v>
+        <v>0.5086216452367327</v>
       </c>
       <c r="J198" t="n">
-        <v>0.7533549707649333</v>
+        <v>0.825490201826487</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002945697218428833</v>
+        <v>274934230046648.1</v>
       </c>
       <c r="C199" t="n">
-        <v>1.709717494742185e-05</v>
+        <v>25268455235409</v>
       </c>
       <c r="D199" t="n">
-        <v>1.506318417298193e-06</v>
+        <v>-13656410283045.06</v>
       </c>
       <c r="E199" t="n">
-        <v>6.650610947571693e-06</v>
+        <v>6194466623599.975</v>
       </c>
       <c r="F199" t="n">
-        <v>1.208809930921872e-05</v>
+        <v>11136941057345.86</v>
       </c>
       <c r="G199" t="n">
-        <v>1.48624263541834e-05</v>
+        <v>13790270750073.57</v>
       </c>
       <c r="H199" t="n">
-        <v>3.643852097136172</v>
+        <v>1.352930256604548</v>
       </c>
       <c r="I199" t="n">
-        <v>0.4563448976757984</v>
+        <v>0.8523332911153204</v>
       </c>
       <c r="J199" t="n">
-        <v>0.910963024284043</v>
+        <v>0.3382325641511369</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002825518522778923</v>
+        <v>263626321995617.8</v>
       </c>
       <c r="C200" t="n">
-        <v>1.063578672435111e-05</v>
+        <v>20296230932985.08</v>
       </c>
       <c r="D200" t="n">
-        <v>1.617823964533444e-05</v>
+        <v>-1789306639514.875</v>
       </c>
       <c r="E200" t="n">
-        <v>6.308343903105439e-06</v>
+        <v>5885420503320.469</v>
       </c>
       <c r="F200" t="n">
-        <v>1.157908771167115e-05</v>
+        <v>10583446653012.03</v>
       </c>
       <c r="G200" t="n">
-        <v>1.421135497778455e-05</v>
+        <v>13164714422057.02</v>
       </c>
       <c r="H200" t="n">
-        <v>3.164140079106837</v>
+        <v>2.851290242340605</v>
       </c>
       <c r="I200" t="n">
-        <v>0.5307423344265539</v>
+        <v>0.5830119456873456</v>
       </c>
       <c r="J200" t="n">
-        <v>0.7910350197767093</v>
+        <v>0.7128225605851513</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002753785995543116</v>
+        <v>256988809341625.8</v>
       </c>
       <c r="C201" t="n">
-        <v>9.870812387048242e-06</v>
+        <v>18728539497047.55</v>
       </c>
       <c r="D201" t="n">
-        <v>7.06664492499049e-06</v>
+        <v>-8702639393097.625</v>
       </c>
       <c r="E201" t="n">
-        <v>6.142050649388578e-06</v>
+        <v>5729209322790.296</v>
       </c>
       <c r="F201" t="n">
-        <v>1.122743799715868e-05</v>
+        <v>10275614305988.8</v>
       </c>
       <c r="G201" t="n">
-        <v>1.371278051012744e-05</v>
+        <v>12706993812314.32</v>
       </c>
       <c r="H201" t="n">
-        <v>2.299788120372396</v>
+        <v>0.9149419308673925</v>
       </c>
       <c r="I201" t="n">
-        <v>0.6808076305378876</v>
+        <v>0.9224074371912663</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5749470300930989</v>
+        <v>0.2287354827168481</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003511987163355977</v>
+        <v>327293257020775.8</v>
       </c>
       <c r="C202" t="n">
-        <v>1.262684725205894e-05</v>
+        <v>21491595247511.69</v>
       </c>
       <c r="D202" t="n">
-        <v>1.244210346025868e-05</v>
+        <v>-3893018984787.125</v>
       </c>
       <c r="E202" t="n">
-        <v>8.103523438175696e-06</v>
+        <v>7523501317200.297</v>
       </c>
       <c r="F202" t="n">
-        <v>1.464552966687978e-05</v>
+        <v>13638883142815.67</v>
       </c>
       <c r="G202" t="n">
-        <v>1.801829169425613e-05</v>
+        <v>16746035489025.41</v>
       </c>
       <c r="H202" t="n">
-        <v>1.492012385586843</v>
+        <v>0.9942619819560526</v>
       </c>
       <c r="I202" t="n">
-        <v>0.828055424913244</v>
+        <v>0.9106648088304784</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3730030963967107</v>
+        <v>0.2485654954890132</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003072041915850527</v>
+        <v>286044489235906</v>
       </c>
       <c r="C203" t="n">
-        <v>1.148200421897881e-05</v>
+        <v>17400935575914.19</v>
       </c>
       <c r="D203" t="n">
-        <v>1.821189318277976e-05</v>
+        <v>6022673322076.688</v>
       </c>
       <c r="E203" t="n">
-        <v>6.776140435589064e-06</v>
+        <v>6305529904905.77</v>
       </c>
       <c r="F203" t="n">
-        <v>1.238754580812755e-05</v>
+        <v>11421227537051.04</v>
       </c>
       <c r="G203" t="n">
-        <v>1.526755453469295e-05</v>
+        <v>14163154661481.04</v>
       </c>
       <c r="H203" t="n">
-        <v>3.013893581405874</v>
+        <v>3.331469954989584</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5555030407373426</v>
+        <v>0.5039616177991522</v>
       </c>
       <c r="J203" t="n">
-        <v>0.7534733953514685</v>
+        <v>0.8328674887473959</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003256632248796593</v>
+        <v>302613952081382.3</v>
       </c>
       <c r="C204" t="n">
-        <v>1.064181408899116e-05</v>
+        <v>11875617589990.91</v>
       </c>
       <c r="D204" t="n">
-        <v>7.924433523706057e-07</v>
+        <v>-2183042894257.875</v>
       </c>
       <c r="E204" t="n">
-        <v>7.669238755149771e-06</v>
+        <v>7073901114172.108</v>
       </c>
       <c r="F204" t="n">
-        <v>1.358070509113597e-05</v>
+        <v>12958400805664.37</v>
       </c>
       <c r="G204" t="n">
-        <v>1.691168628761885e-05</v>
+        <v>15783294361132.33</v>
       </c>
       <c r="H204" t="n">
-        <v>2.128635248704292</v>
+        <v>1.999330073381941</v>
       </c>
       <c r="I204" t="n">
-        <v>0.7121135493903559</v>
+        <v>0.7358821084555187</v>
       </c>
       <c r="J204" t="n">
-        <v>0.532158812176073</v>
+        <v>0.4998325183454854</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002955128106657019</v>
+        <v>275455680096312.4</v>
       </c>
       <c r="C205" t="n">
-        <v>1.083771848663841e-05</v>
+        <v>18892966551895.03</v>
       </c>
       <c r="D205" t="n">
-        <v>9.079837810125691e-06</v>
+        <v>-5402459958443.062</v>
       </c>
       <c r="E205" t="n">
-        <v>6.965179118877571e-06</v>
+        <v>6457246529244.293</v>
       </c>
       <c r="F205" t="n">
-        <v>1.252765326955802e-05</v>
+        <v>11724973871469.24</v>
       </c>
       <c r="G205" t="n">
-        <v>1.541239555328975e-05</v>
+        <v>14334522132069.61</v>
       </c>
       <c r="H205" t="n">
-        <v>1.321959243283128</v>
+        <v>0.5934510864466651</v>
       </c>
       <c r="I205" t="n">
-        <v>0.8576389606677453</v>
+        <v>0.9637886325942693</v>
       </c>
       <c r="J205" t="n">
-        <v>0.3304898108207819</v>
+        <v>0.1483627716116663</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002774616925699016</v>
+        <v>258663279800203.2</v>
       </c>
       <c r="C206" t="n">
-        <v>8.94433363453424e-06</v>
+        <v>17109575296629.88</v>
       </c>
       <c r="D206" t="n">
-        <v>1.458621032127247e-05</v>
+        <v>-391203265595.9375</v>
       </c>
       <c r="E206" t="n">
-        <v>6.583462613560762e-06</v>
+        <v>6103398609020.76</v>
       </c>
       <c r="F206" t="n">
-        <v>1.18662634941358e-05</v>
+        <v>11108822736287.8</v>
       </c>
       <c r="G206" t="n">
-        <v>1.462145177673e-05</v>
+        <v>13600896367643.09</v>
       </c>
       <c r="H206" t="n">
-        <v>1.794771409821559</v>
+        <v>1.724506941185051</v>
       </c>
       <c r="I206" t="n">
-        <v>0.7734388169962629</v>
+        <v>0.7862612419638618</v>
       </c>
       <c r="J206" t="n">
-        <v>0.4486928524553898</v>
+        <v>0.4311267352962627</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002636577314520728</v>
+        <v>245618655513463.5</v>
       </c>
       <c r="C207" t="n">
-        <v>1.163272115496821e-05</v>
+        <v>17246905551799.31</v>
       </c>
       <c r="D207" t="n">
-        <v>1.029840192909141e-05</v>
+        <v>-693311607657.375</v>
       </c>
       <c r="E207" t="n">
-        <v>6.28165006047511e-06</v>
+        <v>5812217269079.579</v>
       </c>
       <c r="F207" t="n">
-        <v>1.125100389480918e-05</v>
+        <v>10603332504533.89</v>
       </c>
       <c r="G207" t="n">
-        <v>1.40208230225489e-05</v>
+        <v>13055103892348.32</v>
       </c>
       <c r="H207" t="n">
-        <v>3.001071756723819</v>
+        <v>2.661294597467425</v>
       </c>
       <c r="I207" t="n">
-        <v>0.5576460604556928</v>
+        <v>0.6160043467119165</v>
       </c>
       <c r="J207" t="n">
-        <v>0.7502679391809548</v>
+        <v>0.6653236493668563</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002482000117187046</v>
+        <v>230711196282329.3</v>
       </c>
       <c r="C208" t="n">
-        <v>8.84199925410827e-06</v>
+        <v>10219563414598.81</v>
       </c>
       <c r="D208" t="n">
-        <v>4.224321143429116e-06</v>
+        <v>907645867074.1875</v>
       </c>
       <c r="E208" t="n">
-        <v>5.996512284915938e-06</v>
+        <v>5525051736136.76</v>
       </c>
       <c r="F208" t="n">
-        <v>1.061648898054665e-05</v>
+        <v>10197048826957.11</v>
       </c>
       <c r="G208" t="n">
-        <v>1.315048618826459e-05</v>
+        <v>12292143542929.65</v>
       </c>
       <c r="H208" t="n">
-        <v>1.046065177593921</v>
+        <v>0.9562019960262413</v>
       </c>
       <c r="I208" t="n">
-        <v>0.902732397880217</v>
+        <v>0.9163628726460559</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2615162943984802</v>
+        <v>0.2390504990065603</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.000229638772543721</v>
+        <v>213864914024699.4</v>
       </c>
       <c r="C209" t="n">
-        <v>1.037861294244031e-05</v>
+        <v>14585403936218.64</v>
       </c>
       <c r="D209" t="n">
-        <v>-2.972788671072092e-07</v>
+        <v>-7998700921416.75</v>
       </c>
       <c r="E209" t="n">
-        <v>5.274759560531406e-06</v>
+        <v>4889844211661.061</v>
       </c>
       <c r="F209" t="n">
-        <v>9.458394742138194e-06</v>
+        <v>8848978423779.973</v>
       </c>
       <c r="G209" t="n">
-        <v>1.171081946999876e-05</v>
+        <v>10890445065237.7</v>
       </c>
       <c r="H209" t="n">
-        <v>1.89642569894324</v>
+        <v>0.7355538843295971</v>
       </c>
       <c r="I209" t="n">
-        <v>0.7548015706724458</v>
+        <v>0.9468731063012433</v>
       </c>
       <c r="J209" t="n">
-        <v>0.47410642473581</v>
+        <v>0.1838884710823993</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.000232783065995398</v>
+        <v>217341743415957.3</v>
       </c>
       <c r="C210" t="n">
-        <v>1.233882676022883e-06</v>
+        <v>11313637237746.17</v>
       </c>
       <c r="D210" t="n">
-        <v>5.024397965818677e-06</v>
+        <v>-11071877105988.12</v>
       </c>
       <c r="E210" t="n">
-        <v>5.543261266697815e-06</v>
+        <v>5153688532597.58</v>
       </c>
       <c r="F210" t="n">
-        <v>9.975422458058987e-06</v>
+        <v>9249393779366.736</v>
       </c>
       <c r="G210" t="n">
-        <v>1.217635820753878e-05</v>
+        <v>11309495581605.27</v>
       </c>
       <c r="H210" t="n">
-        <v>2.401612854157857</v>
+        <v>1.064532633710684</v>
       </c>
       <c r="I210" t="n">
-        <v>0.6623358164130947</v>
+        <v>0.8998578931928025</v>
       </c>
       <c r="J210" t="n">
-        <v>0.6004032135394642</v>
+        <v>0.2661331584276709</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001199122663674994</v>
+        <v>112060923788373.7</v>
       </c>
       <c r="C211" t="n">
-        <v>4.52655657993518e-06</v>
+        <v>9350952618287.258</v>
       </c>
       <c r="D211" t="n">
-        <v>2.857810829506771e-06</v>
+        <v>-5633708892104.812</v>
       </c>
       <c r="E211" t="n">
-        <v>2.78709009077414e-06</v>
+        <v>2595467275669.063</v>
       </c>
       <c r="F211" t="n">
-        <v>5.042878855746626e-06</v>
+        <v>4646913953072.994</v>
       </c>
       <c r="G211" t="n">
-        <v>6.25145141129856e-06</v>
+        <v>5801001804309.631</v>
       </c>
       <c r="H211" t="n">
-        <v>5.997396638739467</v>
+        <v>3.854242037993111</v>
       </c>
       <c r="I211" t="n">
-        <v>0.1993427784351912</v>
+        <v>0.4260912872303989</v>
       </c>
       <c r="J211" t="n">
-        <v>1.499349159684867</v>
+        <v>0.9635605094982777</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>4.969835278029997e-05</v>
+        <v>46250263364968.02</v>
       </c>
       <c r="C212" t="n">
-        <v>1.694782931279397e-06</v>
+        <v>2250730567116.035</v>
       </c>
       <c r="D212" t="n">
-        <v>2.240324524438103e-06</v>
+        <v>997692620423.9531</v>
       </c>
       <c r="E212" t="n">
-        <v>1.251913723394324e-06</v>
+        <v>1151530671574.797</v>
       </c>
       <c r="F212" t="n">
-        <v>2.212707965778981e-06</v>
+        <v>2134357412179.911</v>
       </c>
       <c r="G212" t="n">
-        <v>2.761041776842343e-06</v>
+        <v>2582183143240.625</v>
       </c>
       <c r="H212" t="n">
-        <v>4.443863720851814</v>
+        <v>4.56245352169278</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3492557824849288</v>
+        <v>0.3352062061016999</v>
       </c>
       <c r="J212" t="n">
-        <v>1.110965930212954</v>
+        <v>1.140613380423195</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.083400906506781e-05</v>
+        <v>28693823398311.72</v>
       </c>
       <c r="C213" t="n">
-        <v>3.645160588676989e-07</v>
+        <v>161802094829.3086</v>
       </c>
       <c r="D213" t="n">
-        <v>1.749160371468411e-06</v>
+        <v>1786375595486.359</v>
       </c>
       <c r="E213" t="n">
-        <v>8.003870754657303e-07</v>
+        <v>735863826573.0381</v>
       </c>
       <c r="F213" t="n">
-        <v>1.40437266888956e-06</v>
+        <v>1385813028211.601</v>
       </c>
       <c r="G213" t="n">
-        <v>1.731270994482933e-06</v>
+        <v>1630865832926.49</v>
       </c>
       <c r="H213" t="n">
-        <v>3.166171838405549</v>
+        <v>3.020111392060402</v>
       </c>
       <c r="I213" t="n">
-        <v>0.5304120390531866</v>
+        <v>0.5544654661014929</v>
       </c>
       <c r="J213" t="n">
-        <v>0.7915429596013872</v>
+        <v>0.7550278480151006</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>4.352151316491228e-05</v>
+        <v>40550168839427.31</v>
       </c>
       <c r="C214" t="n">
-        <v>1.073199477180177e-06</v>
+        <v>1951412129507.035</v>
       </c>
       <c r="D214" t="n">
-        <v>5.622551277353582e-06</v>
+        <v>3614119306171.055</v>
       </c>
       <c r="E214" t="n">
-        <v>1.0522204227474e-06</v>
+        <v>973263881974.3331</v>
       </c>
       <c r="F214" t="n">
-        <v>1.906169048782136e-06</v>
+        <v>1806513668413.277</v>
       </c>
       <c r="G214" t="n">
-        <v>2.328447625275708e-06</v>
+        <v>2171167515615.183</v>
       </c>
       <c r="H214" t="n">
-        <v>0.8958032460406985</v>
+        <v>2.935285434294598</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9251621391453245</v>
+        <v>0.5687129875148373</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2239508115101746</v>
+        <v>0.7338213585736494</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>2.707097121328581e-05</v>
+        <v>25212628168779.03</v>
       </c>
       <c r="C215" t="n">
-        <v>7.495176675690105e-07</v>
+        <v>1324832918209.951</v>
       </c>
       <c r="D215" t="n">
-        <v>1.391710594945977e-06</v>
+        <v>317378757967.582</v>
       </c>
       <c r="E215" t="n">
-        <v>6.849733249669361e-07</v>
+        <v>631226643234.2577</v>
       </c>
       <c r="F215" t="n">
-        <v>1.220018117646306e-06</v>
+        <v>1168939839028.865</v>
       </c>
       <c r="G215" t="n">
-        <v>1.495746285137155e-06</v>
+        <v>1396089111656.576</v>
       </c>
       <c r="H215" t="n">
-        <v>0.8692634399246908</v>
+        <v>1.067791693712811</v>
       </c>
       <c r="I215" t="n">
-        <v>0.9289284654236025</v>
+        <v>0.8993481618642363</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2173158599811727</v>
+        <v>0.2669479234282028</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.202146782133933e-05</v>
+        <v>20472401959918.18</v>
       </c>
       <c r="C216" t="n">
-        <v>1.262218923436258e-06</v>
+        <v>1180071729835.131</v>
       </c>
       <c r="D216" t="n">
-        <v>1.198190185759066e-06</v>
+        <v>1077633845178.41</v>
       </c>
       <c r="E216" t="n">
-        <v>5.636590487583302e-07</v>
+        <v>517129114992.6357</v>
       </c>
       <c r="F216" t="n">
-        <v>9.885187140227279e-07</v>
+        <v>968322467946.9447</v>
       </c>
       <c r="G216" t="n">
-        <v>1.247698020402507e-06</v>
+        <v>1171086350111.03</v>
       </c>
       <c r="H216" t="n">
-        <v>3.716996242113864</v>
+        <v>3.717641237923538</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4456587445197053</v>
+        <v>0.4455653070230038</v>
       </c>
       <c r="J216" t="n">
-        <v>0.9292490605284661</v>
+        <v>0.9294103094808845</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>1.886652949228223e-05</v>
+        <v>17419221054161.87</v>
       </c>
       <c r="C217" t="n">
-        <v>2.033439228270295e-06</v>
+        <v>1154228102592.82</v>
       </c>
       <c r="D217" t="n">
-        <v>-6.922662978805832e-08</v>
+        <v>1155457371914</v>
       </c>
       <c r="E217" t="n">
-        <v>4.686690544387301e-07</v>
+        <v>425090065903.4384</v>
       </c>
       <c r="F217" t="n">
-        <v>8.069217166373548e-07</v>
+        <v>811814728468.7037</v>
       </c>
       <c r="G217" t="n">
-        <v>1.037093705317266e-06</v>
+        <v>974305320939.0154</v>
       </c>
       <c r="H217" t="n">
-        <v>1.987627902752094</v>
+        <v>2.701812478500641</v>
       </c>
       <c r="I217" t="n">
-        <v>0.7380345878945089</v>
+        <v>0.608897489303038</v>
       </c>
       <c r="J217" t="n">
-        <v>0.4969069756880236</v>
+        <v>0.6754531196251603</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>1.949256770175509e-05</v>
+        <v>17782057933988.89</v>
       </c>
       <c r="C218" t="n">
-        <v>3.012686970500118e-06</v>
+        <v>1232460200641.904</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.381909976238241e-06</v>
+        <v>1479108505871.332</v>
       </c>
       <c r="E218" t="n">
-        <v>4.985130869698332e-07</v>
+        <v>442643550716.2861</v>
       </c>
       <c r="F218" t="n">
-        <v>8.283027939955065e-07</v>
+        <v>867995057141.2949</v>
       </c>
       <c r="G218" t="n">
-        <v>1.110604359012261e-06</v>
+        <v>1046761197962.167</v>
       </c>
       <c r="H218" t="n">
-        <v>12.504046836527</v>
+        <v>17.23649038416222</v>
       </c>
       <c r="I218" t="n">
-        <v>0.01397139999758196</v>
+        <v>0.001738759490503086</v>
       </c>
       <c r="J218" t="n">
-        <v>3.126011709131749</v>
+        <v>4.309122596040556</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.737386301300021e-05</v>
+        <v>25559969896593.3</v>
       </c>
       <c r="C219" t="n">
-        <v>2.440640253971372e-06</v>
+        <v>3404863924645.641</v>
       </c>
       <c r="D219" t="n">
-        <v>3.238639044310563e-06</v>
+        <v>1107284603546.305</v>
       </c>
       <c r="E219" t="n">
-        <v>6.552313259866959e-07</v>
+        <v>608523838665.2429</v>
       </c>
       <c r="F219" t="n">
-        <v>1.196374057926013e-06</v>
+        <v>1118404610871.8</v>
       </c>
       <c r="G219" t="n">
-        <v>1.49117734456813e-06</v>
+        <v>1387560466365.345</v>
       </c>
       <c r="H219" t="n">
-        <v>5.586336776344588</v>
+        <v>6.355118938684703</v>
       </c>
       <c r="I219" t="n">
-        <v>0.2322440008958808</v>
+        <v>0.1741510501003921</v>
       </c>
       <c r="J219" t="n">
-        <v>1.396584194086147</v>
+        <v>1.588779734671176</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>5.134748437428754e-05</v>
+        <v>47750629409707.36</v>
       </c>
       <c r="C220" t="n">
-        <v>2.761592433053565e-06</v>
+        <v>2837473630872.328</v>
       </c>
       <c r="D220" t="n">
-        <v>3.397449509937419e-06</v>
+        <v>2677582411340.82</v>
       </c>
       <c r="E220" t="n">
-        <v>1.183062397843683e-06</v>
+        <v>1093556841416.982</v>
       </c>
       <c r="F220" t="n">
-        <v>2.126745042811632e-06</v>
+        <v>2019773916703.933</v>
       </c>
       <c r="G220" t="n">
-        <v>2.637346306752989e-06</v>
+        <v>2460126702610.672</v>
       </c>
       <c r="H220" t="n">
-        <v>1.200897341804721</v>
+        <v>1.382052385643946</v>
       </c>
       <c r="I220" t="n">
-        <v>0.877950854179042</v>
+        <v>0.8473083224740038</v>
       </c>
       <c r="J220" t="n">
-        <v>0.3002243354511803</v>
+        <v>0.3455130964109865</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>5.749407947633022e-05</v>
+        <v>53488611396873.98</v>
       </c>
       <c r="C221" t="n">
-        <v>2.689702878467449e-06</v>
+        <v>2990346208219.578</v>
       </c>
       <c r="D221" t="n">
-        <v>4.762313712895633e-06</v>
+        <v>3560250741985.531</v>
       </c>
       <c r="E221" t="n">
-        <v>1.324554877071822e-06</v>
+        <v>1225894315693.098</v>
       </c>
       <c r="F221" t="n">
-        <v>2.388602820463754e-06</v>
+        <v>2260724883873.521</v>
       </c>
       <c r="G221" t="n">
-        <v>2.977517335803511e-06</v>
+        <v>2776529121487.772</v>
       </c>
       <c r="H221" t="n">
-        <v>3.192339765930579</v>
+        <v>3.651619742242355</v>
       </c>
       <c r="I221" t="n">
-        <v>0.5261690942300639</v>
+        <v>0.4552016062239509</v>
       </c>
       <c r="J221" t="n">
-        <v>0.7980849414826447</v>
+        <v>0.9129049355605887</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>5.053571319550639e-05</v>
+        <v>47034576098261.28</v>
       </c>
       <c r="C222" t="n">
-        <v>3.188706182661281e-06</v>
+        <v>3731496238458.594</v>
       </c>
       <c r="D222" t="n">
-        <v>3.150711556813764e-06</v>
+        <v>1649589195993.781</v>
       </c>
       <c r="E222" t="n">
-        <v>1.146393750304085e-06</v>
+        <v>1062284749322.175</v>
       </c>
       <c r="F222" t="n">
-        <v>2.074467309962653e-06</v>
+        <v>1943393533772.804</v>
       </c>
       <c r="G222" t="n">
-        <v>2.595659546339099e-06</v>
+        <v>2414250293569.625</v>
       </c>
       <c r="H222" t="n">
-        <v>4.221124059019799</v>
+        <v>4.370414043527332</v>
       </c>
       <c r="I222" t="n">
-        <v>0.3769063229075257</v>
+        <v>0.3581907060798048</v>
       </c>
       <c r="J222" t="n">
-        <v>1.05528101475495</v>
+        <v>1.092603510881833</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>4.51255200109887e-05</v>
+        <v>41951663318838.21</v>
       </c>
       <c r="C223" t="n">
-        <v>3.59119511877322e-06</v>
+        <v>3672197812641.234</v>
       </c>
       <c r="D223" t="n">
-        <v>1.810452051479296e-06</v>
+        <v>1152647943273.438</v>
       </c>
       <c r="E223" t="n">
-        <v>1.051442730470158e-06</v>
+        <v>969518042978.1547</v>
       </c>
       <c r="F223" t="n">
-        <v>1.882285128463366e-06</v>
+        <v>1790352650399.453</v>
       </c>
       <c r="G223" t="n">
-        <v>2.359773546774908e-06</v>
+        <v>2198884283401.948</v>
       </c>
       <c r="H223" t="n">
-        <v>1.531687746713829</v>
+        <v>1.432640484329757</v>
       </c>
       <c r="I223" t="n">
-        <v>0.8210139468672701</v>
+        <v>0.8385025662469114</v>
       </c>
       <c r="J223" t="n">
-        <v>0.3829219366784572</v>
+        <v>0.3581601210824392</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
+++ b/legendre_out/DATA/p1/a4/p1_a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J223"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7106 +415,7042 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>1571336867726.672</v>
+        <v>3.372494587124335e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1570732720429.345</v>
+        <v>-1.319898565391371e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>-1518794873187.345</v>
+        <v>-8.607893884333458e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>67768835253.17342</v>
+        <v>1.92754001769666e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>74722377918.54118</v>
+        <v>3.311502018658992e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>137484962212.0024</v>
+        <v>4.5037232971739e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>199.4048462435601</v>
+        <v>34.27457799589525</v>
       </c>
       <c r="I2" t="n">
-        <v>5.044611511503802e-42</v>
+        <v>6.545492453342979e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>49.85121156089002</v>
+        <v>8.568644498973812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2729634175168.234</v>
+        <v>4.731923760986697e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>1100253023070.454</v>
+        <v>2.761424204911321e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>-996649708794.4053</v>
+        <v>-3.223689994202048e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>110709949507.4147</v>
+        <v>2.133956484545425e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>172606274870.463</v>
+        <v>3.650958634779707e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>227423817815.7884</v>
+        <v>4.581497137074775e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>95.39906208945951</v>
+        <v>13.14600070387184</v>
       </c>
       <c r="I3" t="n">
-        <v>9.373065610829656e-20</v>
+        <v>0.01058400885709399</v>
       </c>
       <c r="J3" t="n">
-        <v>23.84976552236488</v>
+        <v>3.286500175967959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>3837384292264.12</v>
+        <v>5.849064709830042e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>272452842402.3467</v>
+        <v>-1.323786958014925e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>-3093137042168.369</v>
+        <v>-3.744223973871695e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>138046824879.4162</v>
+        <v>2.958666506456609e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>250225622712.656</v>
+        <v>4.593550653891843e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>283984140646.1985</v>
+        <v>5.458712511748576e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>57.32179782513687</v>
+        <v>34.05165753588867</v>
       </c>
       <c r="I4" t="n">
-        <v>1.059044147698456e-11</v>
+        <v>7.272299518446261e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>14.33044945628422</v>
+        <v>8.512914383972166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>3857425364289.776</v>
+        <v>5.768119803905645e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>-1001662311213.996</v>
+        <v>6.028113235638555e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>1567625463175.167</v>
+        <v>-6.546095383751985e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>150626778255.5824</v>
+        <v>2.860565497162185e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>284877766120.3699</v>
+        <v>5.165030089922861e-07</v>
       </c>
       <c r="G5" t="n">
-        <v>284112224821.9244</v>
+        <v>6.060476389741222e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>103.0479691488181</v>
+        <v>35.92425264894386</v>
       </c>
       <c r="I5" t="n">
-        <v>2.206863535480923e-21</v>
+        <v>2.999402088407662e-07</v>
       </c>
       <c r="J5" t="n">
-        <v>25.76199228720454</v>
+        <v>8.981063162235966</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>4759639974213.167</v>
+        <v>7.121872733167491e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>1698242037191.783</v>
+        <v>2.29866102094104e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>-2409637111785.418</v>
+        <v>-1.599710978869529e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>182211884005.2705</v>
+        <v>3.477774980709511e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>292233442117.0666</v>
+        <v>6.751520716261026e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>365675034172.2353</v>
+        <v>7.788739901308043e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>46.55465688746717</v>
+        <v>35.75287170893748</v>
       </c>
       <c r="I6" t="n">
-        <v>1.887928737801719e-09</v>
+        <v>3.252988656809027e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>11.63866422186679</v>
+        <v>8.938217927234371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>4549485341081.854</v>
+        <v>5.719029067566988e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>263271041058.21</v>
+        <v>1.031657349713627e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>148683266686.082</v>
+        <v>3.351554484949721e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>177679268121.5551</v>
+        <v>3.048991801674087e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>346623181203.3572</v>
+        <v>6.161101428666428e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>381454528811.0958</v>
+        <v>6.886795108452512e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>41.66554529365978</v>
+        <v>33.11221991977984</v>
       </c>
       <c r="I7" t="n">
-        <v>1.956819146436908e-08</v>
+        <v>1.132924829319599e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>10.41638632341494</v>
+        <v>8.27805497994496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>4428942647099.455</v>
+        <v>5.709746773728273e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>1560995788056.674</v>
+        <v>2.273745806400407e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>-1304330809275.908</v>
+        <v>-2.238479848310747e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>158749148197.2766</v>
+        <v>2.739383086695766e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>272106009362.9417</v>
+        <v>5.208947471925751e-07</v>
       </c>
       <c r="G8" t="n">
-        <v>362254693952.1957</v>
+        <v>6.090496541861619e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>45.18009900387352</v>
+        <v>20.70961176457892</v>
       </c>
       <c r="I8" t="n">
-        <v>3.647497539547206e-09</v>
+        <v>0.0003615302639270491</v>
       </c>
       <c r="J8" t="n">
-        <v>11.29502475096838</v>
+        <v>5.177402941144729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>4857422306949.252</v>
+        <v>7.281901616961e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>1044499149206.477</v>
+        <v>1.74615269875094e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-1706601379427.374</v>
+        <v>-5.162107328931377e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>159685469640.0798</v>
+        <v>2.766919538089675e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>271055796858.4978</v>
+        <v>4.718575970647233e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>335037897530.7414</v>
+        <v>5.831964112717302e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>17.11008354468541</v>
+        <v>17.49641599857492</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001840031067704799</v>
+        <v>0.001547484567309131</v>
       </c>
       <c r="J9" t="n">
-        <v>4.277520886171351</v>
+        <v>4.374103999643729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>3449379107866.597</v>
+        <v>5.578393692486292e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>974434834638.4282</v>
+        <v>-3.001430151805397e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>-413413338866.9756</v>
+        <v>-8.20375121579216e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>151056958000.0096</v>
+        <v>3.001962570713191e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>238731354471.8416</v>
+        <v>5.485249042313772e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>338846453406.2156</v>
+        <v>6.556117355030858e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>127.5236487933375</v>
+        <v>48.66837108028437</v>
       </c>
       <c r="I10" t="n">
-        <v>1.317985350733136e-26</v>
+        <v>6.847064912977757e-10</v>
       </c>
       <c r="J10" t="n">
-        <v>31.88091219833438</v>
+        <v>12.16709277007109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>4398517165253.42</v>
+        <v>5.702698367797394e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>279273451331.0938</v>
+        <v>7.314769371713236e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>11799260761.19141</v>
+        <v>-1.79564393615414e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>170919153546.3674</v>
+        <v>2.966065258239993e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>316350110409.9539</v>
+        <v>5.423128863401688e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>357166716928.0517</v>
+        <v>6.166383411239191e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>51.39621295427424</v>
+        <v>38.09003615688251</v>
       </c>
       <c r="I11" t="n">
-        <v>1.844737696073371e-10</v>
+        <v>1.073643732127895e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>12.84905323856856</v>
+        <v>9.522509039220628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>4934599189224.398</v>
+        <v>6.247255733421057e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>2973465865870.16</v>
+        <v>2.413408466208407e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>-4433299741303.904</v>
+        <v>-2.810001037829262e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>177577466040.9821</v>
+        <v>2.579677612131593e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>231518985635.3708</v>
+        <v>4.631441088785159e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>368197643643.5368</v>
+        <v>5.637879821386828e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>98.74570383928892</v>
+        <v>28.81373084210805</v>
       </c>
       <c r="I12" t="n">
-        <v>1.819028046039279e-20</v>
+        <v>8.528882575349487e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>24.68642595982223</v>
+        <v>7.203432710527014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>3193131069100.701</v>
+        <v>4.530414526288905e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>981852827825.759</v>
+        <v>2.263407934457835e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>-404873050472.9248</v>
+        <v>-4.359430626151849e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>123663121570.6031</v>
+        <v>2.244602777148425e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>218579624337.1419</v>
+        <v>4.21594087742971e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>264967968163.2529</v>
+        <v>5.037314335415906e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>36.3724676710699</v>
+        <v>29.21630283634195</v>
       </c>
       <c r="I13" t="n">
-        <v>2.425541624029841e-07</v>
+        <v>7.064995960577087e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>9.093116917767475</v>
+        <v>7.304075709085486</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>6114194108858.29</v>
+        <v>7.517504925974704e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>499007074972.5859</v>
+        <v>7.888582020698014e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>-85545563555.39062</v>
+        <v>6.943989800276664e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>176818528105.8825</v>
+        <v>2.901214940516563e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>339682142027.6879</v>
+        <v>5.618870312593856e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>403634402412.548</v>
+        <v>6.476504076040776e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>7.709000718380913</v>
+        <v>1.992727951226494</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1028386344186412</v>
+        <v>0.7370964980096351</v>
       </c>
       <c r="J14" t="n">
-        <v>1.927250179595228</v>
+        <v>0.4981819878066235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>4828155910018.219</v>
+        <v>7.828124222148932e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>441574569013.8359</v>
+        <v>2.301257910249891e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>469017298879.8965</v>
+        <v>-3.539476551171667e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>151255294715.0665</v>
+        <v>3.079653463719955e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>303483298676.6724</v>
+        <v>6.086727453808036e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>349437364367.2071</v>
+        <v>7.025884093796105e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>5.510580662269354</v>
+        <v>9.544434277977384</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2388009951057222</v>
+        <v>0.0488421856546493</v>
       </c>
       <c r="J15" t="n">
-        <v>1.377645165567339</v>
+        <v>2.386108569494346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>5213577320230.807</v>
+        <v>6.475559125296826e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>-1686760502702.23</v>
+        <v>3.239117770427822e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>1477410084098.607</v>
+        <v>-2.387144786864738e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>180897750884.0327</v>
+        <v>3.476660713117816e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>356839471482.7081</v>
+        <v>7.214836167627586e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>387775585077.926</v>
+        <v>7.669950772268497e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>10.14970576770762</v>
+        <v>13.74504984607744</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0379800175478273</v>
+        <v>0.008154820263283775</v>
       </c>
       <c r="J16" t="n">
-        <v>2.537426441926904</v>
+        <v>3.43626246151936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4426949633895.619</v>
+        <v>5.374351802266416e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1182613706091.824</v>
+        <v>1.081657166684732e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>-814403377461.6436</v>
+        <v>-5.536533632002325e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>158014560808.1466</v>
+        <v>3.054553924678554e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>296060905294.6063</v>
+        <v>6.432247682233437e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>351608612096.7836</v>
+        <v>7.618943463393516e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>9.250249312627204</v>
+        <v>14.85192030402915</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05513990769793566</v>
+        <v>0.005018407043544755</v>
       </c>
       <c r="J17" t="n">
-        <v>2.312562328156801</v>
+        <v>3.712980076007288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>4588130871754.898</v>
+        <v>5.881596851562583e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1490757531184.394</v>
+        <v>2.894270132318075e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>-397329140216.6416</v>
+        <v>-1.676367443511899e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>171237157036.1058</v>
+        <v>3.456018310780421e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>316968801363.7084</v>
+        <v>6.820661667153071e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>398804979192.4072</v>
+        <v>8.064397159669703e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>15.67525821075434</v>
+        <v>14.65022064640016</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003487359339356452</v>
+        <v>0.005484474287230016</v>
       </c>
       <c r="J18" t="n">
-        <v>3.918814552688585</v>
+        <v>3.662555161600041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>5818736883958.282</v>
+        <v>6.455347913377264e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>600182167389.0742</v>
+        <v>1.325562679342271e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>-1193523428841.68</v>
+        <v>-1.080313797755861e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>209342296860.8065</v>
+        <v>3.732274833180166e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>384490351200.4908</v>
+        <v>7.020878156717291e-07</v>
       </c>
       <c r="G19" t="n">
-        <v>464935509918.8495</v>
+        <v>8.740507161835222e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>9.672690993007267</v>
+        <v>1.11382777896298</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04631725696592899</v>
+        <v>0.8920721147248484</v>
       </c>
       <c r="J19" t="n">
-        <v>2.418172748251817</v>
+        <v>0.2784569447407449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>4813669972889.714</v>
+        <v>6.349917220158663e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1135776721897.877</v>
+        <v>6.066461525692823e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>91932778520.6084</v>
+        <v>1.258321932226154e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>197771876215.1041</v>
+        <v>3.987925265128301e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>354525227202.4298</v>
+        <v>7.816278456539371e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>416358337662.4088</v>
+        <v>8.809785692751021e-07</v>
       </c>
       <c r="H20" t="n">
-        <v>34.44517044614136</v>
+        <v>6.221083465975103</v>
       </c>
       <c r="I20" t="n">
-        <v>6.03860001180683e-07</v>
+        <v>0.1832347970310553</v>
       </c>
       <c r="J20" t="n">
-        <v>8.61129261153534</v>
+        <v>1.555270866493776</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5747562762555.971</v>
+        <v>7.534501738315605e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>2702457431922.517</v>
+        <v>1.526848651966337e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>-238078928697.291</v>
+        <v>-1.577310405006866e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>234929389892.7808</v>
+        <v>4.738014956194683e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>440833665301.6028</v>
+        <v>9.374776969820547e-07</v>
       </c>
       <c r="G21" t="n">
-        <v>524541819473.8068</v>
+        <v>1.050452067332882e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>17.30068942577818</v>
+        <v>17.16818243204361</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001689451976943469</v>
+        <v>0.00179278203321324</v>
       </c>
       <c r="J21" t="n">
-        <v>4.325172356444545</v>
+        <v>4.292045608010903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>10357075473010.08</v>
+        <v>1.256176782887475e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>1538557468965.375</v>
+        <v>2.732922114312147e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>-4432930681407.59</v>
+        <v>-5.829867288597948e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>503994667114.5529</v>
+        <v>1.022570449828533e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>950987904512.965</v>
+        <v>1.922433177222216e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>1096176274607.523</v>
+        <v>2.234651515124855e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>8.486232728957114</v>
+        <v>1.679504056078686</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0753056347062584</v>
+        <v>0.7944372847527024</v>
       </c>
       <c r="J22" t="n">
-        <v>2.121558182239279</v>
+        <v>0.4198760140196714</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>12096802356928.37</v>
+        <v>1.44820912081275e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-1103021822890.537</v>
+        <v>6.296668309737739e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>1943017640019.504</v>
+        <v>1.302655358874718e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>659873176801.6852</v>
+        <v>1.373807074272411e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>1239657976775.761</v>
+        <v>2.685340678054432e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>1485774516256.406</v>
+        <v>3.19216628079878e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>21.18911541111634</v>
+        <v>5.527138987176741</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002904666237059808</v>
+        <v>0.2373542203264071</v>
       </c>
       <c r="J23" t="n">
-        <v>5.297278852779085</v>
+        <v>1.381784746794185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>16933634184566.98</v>
+        <v>2.339439080704756e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>5882301657229.98</v>
+        <v>5.385251813527133e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>-5806068878926.262</v>
+        <v>-5.873470909123026e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>904857824771.6077</v>
+        <v>2.172858923982146e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>1538943730367.107</v>
+        <v>3.94452464342907e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>1932738500725.757</v>
+        <v>4.723859066348143e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>15.49042619743454</v>
+        <v>3.145119189271515</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003785010482999143</v>
+        <v>0.5338404645733595</v>
       </c>
       <c r="J24" t="n">
-        <v>3.872606549358636</v>
+        <v>0.7862797973178787</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>18004754960338.28</v>
+        <v>2.163929063898535e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>2778155368975.043</v>
+        <v>-3.348258354116084e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>-3999877364158.688</v>
+        <v>-1.919196853510848e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>887779379602.184</v>
+        <v>1.828682253869954e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>1552229149214.56</v>
+        <v>3.534640583122289e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>1943210126994.519</v>
+        <v>4.122251520645951e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>22.44661740842467</v>
+        <v>3.732915061068031</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000163293065165621</v>
+        <v>0.4433567301427749</v>
       </c>
       <c r="J25" t="n">
-        <v>5.611654352106168</v>
+        <v>0.9332287652670078</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>17019375669857.17</v>
+        <v>2.093593116605353e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>4631483910300.158</v>
+        <v>1.062500249697658e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>-10818950036967.48</v>
+        <v>-8.657753965183921e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>881349751477.4755</v>
+        <v>1.795458818665482e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>1412176078846.935</v>
+        <v>3.390074371450214e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>1774239190244.432</v>
+        <v>3.94744328242779e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>23.73198748045441</v>
+        <v>7.100716252657827</v>
       </c>
       <c r="I26" t="n">
-        <v>9.038736628884358e-05</v>
+        <v>0.1306605960970213</v>
       </c>
       <c r="J26" t="n">
-        <v>5.932996870113602</v>
+        <v>1.775179063164457</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>18782528067469.89</v>
+        <v>2.275103783567754e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>517793077463.9473</v>
+        <v>7.740342721095149e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>591068017730.7969</v>
+        <v>-1.552852478059743e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>953379337840.7822</v>
+        <v>1.86134762022302e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>1828037394124.094</v>
+        <v>3.600070995031106e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>2063114962492.598</v>
+        <v>4.222075826035608e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>1.912323316384966</v>
+        <v>2.045980845652025</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7518808267499973</v>
+        <v>0.7273019150021112</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4780808290962416</v>
+        <v>0.5114952114130062</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>18417995882467.91</v>
+        <v>2.168019976031599e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>6865442987131.418</v>
+        <v>8.188894474407022e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>-8270308041443.086</v>
+        <v>-7.553643435808425e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>941972211515.0514</v>
+        <v>1.895960953816057e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>1608952182091.441</v>
+        <v>3.760075575202458e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>2017243962380.75</v>
+        <v>4.660858429487287e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>12.2089443917657</v>
+        <v>0.8388684638123456</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01586328874363329</v>
+        <v>0.9331625522875285</v>
       </c>
       <c r="J28" t="n">
-        <v>3.052236097941426</v>
+        <v>0.2097171159530864</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>18261527557644.16</v>
+        <v>2.285857319623462e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1674158670096.682</v>
+        <v>2.797623981401465e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>-1631379127746.477</v>
+        <v>1.524451339224943e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>911810162346.8384</v>
+        <v>1.945761561669309e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>1626327360569.994</v>
+        <v>4.015072972088353e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>2063575751814.223</v>
+        <v>4.289959256731773e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>54.19468960602051</v>
+        <v>12.02670696333427</v>
       </c>
       <c r="I29" t="n">
-        <v>4.791130043409929e-11</v>
+        <v>0.01715376648084811</v>
       </c>
       <c r="J29" t="n">
-        <v>13.54867240150513</v>
+        <v>3.006676740833567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>17964057350041.97</v>
+        <v>2.066014269766546e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>2484552267078.225</v>
+        <v>-2.081005101218882e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>-3280090195736.809</v>
+        <v>1.274753146150088e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>892576301680.0714</v>
+        <v>1.849309127484569e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>1594683894918.819</v>
+        <v>3.372796855890074e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>1948351850257.822</v>
+        <v>3.95487993838269e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>19.21498552267936</v>
+        <v>8.494498114310192</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0007130691585748216</v>
+        <v>0.07505417393982264</v>
       </c>
       <c r="J30" t="n">
-        <v>4.80374638066984</v>
+        <v>2.123624528577548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>18275078425588.53</v>
+        <v>2.208789966646039e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1720288322879.402</v>
+        <v>2.890551461475535e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>-9415923485353.754</v>
+        <v>-7.936679107006496e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>928877105243.4113</v>
+        <v>1.802882592560107e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>1570640815177.121</v>
+        <v>3.237438973690652e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>1842432012600.139</v>
+        <v>3.925085440455509e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>30.48080789616187</v>
+        <v>3.108252656052752</v>
       </c>
       <c r="I31" t="n">
-        <v>3.906371030997071e-06</v>
+        <v>0.5398758308011966</v>
       </c>
       <c r="J31" t="n">
-        <v>7.620201974040467</v>
+        <v>0.777063164013188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>17168687649416.77</v>
+        <v>1.962252655758504e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>6495756195298.572</v>
+        <v>4.35991899199022e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>-4445123191590.766</v>
+        <v>-1.096681369388582e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>883719537673.9889</v>
+        <v>1.797183380038603e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>1599552933714.882</v>
+        <v>3.51470035556401e-06</v>
       </c>
       <c r="G32" t="n">
-        <v>1977390039537.9</v>
+        <v>4.050236954394696e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>1.592475650791724</v>
+        <v>3.142752344374776</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8101438578532623</v>
+        <v>0.5342267305780886</v>
       </c>
       <c r="J32" t="n">
-        <v>0.398118912697931</v>
+        <v>0.7856880860936941</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>16235742101937.3</v>
+        <v>2.153989994239612e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>7540261835225.852</v>
+        <v>4.132898766011719e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>-4536602498397.137</v>
+        <v>-4.989860608091135e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>806118027281.0399</v>
+        <v>1.769374467468302e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>1439777497378.976</v>
+        <v>3.33658234739185e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>1818043642988.138</v>
+        <v>3.802330041516696e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>3.515512292562555</v>
+        <v>0.823581265959404</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4755235898123661</v>
+        <v>0.935259000818759</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8788780731406388</v>
+        <v>0.205895316489851</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>18402113836883.46</v>
+        <v>2.167517876945007e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2931624722248.199</v>
+        <v>2.350144675691521e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>-5640302797540.863</v>
+        <v>-5.051865445688383e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>926808515480.5032</v>
+        <v>1.86664146613645e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>1730075742522.004</v>
+        <v>3.377024671197245e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>1997485202489.501</v>
+        <v>4.0683079732115e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>1.923584884160024</v>
+        <v>1.305448415390473</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7498111715014292</v>
+        <v>0.8604504513021752</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4808962210400061</v>
+        <v>0.3263621038476182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>16409301222039.61</v>
+        <v>2.021136534209546e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>3300070925021.41</v>
+        <v>6.632802321062269e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>174284013244.3047</v>
+        <v>-4.114509220282594e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>804847993368.595</v>
+        <v>1.53957949460217e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>1511796182495.14</v>
+        <v>3.077093128588725e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>1765136073753.81</v>
+        <v>3.527961998142011e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>8.602558514975918</v>
+        <v>4.604725765683035</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07183876136485015</v>
+        <v>0.3303096782938422</v>
       </c>
       <c r="J35" t="n">
-        <v>2.15063962874398</v>
+        <v>1.151181441420759</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>15732295295685.01</v>
+        <v>1.948020739489318e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>3840717480221.842</v>
+        <v>3.732872571175724e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>-1130426693502.59</v>
+        <v>-4.222120674907703e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>745931671538.6443</v>
+        <v>1.505258729810725e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>1422659604498.85</v>
+        <v>2.898626833266914e-06</v>
       </c>
       <c r="G36" t="n">
-        <v>1681048952107.804</v>
+        <v>3.362073029775808e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4053823816990336</v>
+        <v>4.382429445137234</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9820338644680753</v>
+        <v>0.3567168006577708</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1013455954247584</v>
+        <v>1.095607361284308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>10631499726712.72</v>
+        <v>1.511739640264471e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>-2957513541173.641</v>
+        <v>2.172999232317686e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>5349357450213.363</v>
+        <v>-6.16961630160086e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>551046636598.2047</v>
+        <v>1.125974544329025e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>1025306787428.289</v>
+        <v>2.228403253311869e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>1191971591940.407</v>
+        <v>2.7477173131047e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>46.92585935203124</v>
+        <v>5.886174150727109</v>
       </c>
       <c r="I37" t="n">
-        <v>1.580110937497456e-09</v>
+        <v>0.2078116502462981</v>
       </c>
       <c r="J37" t="n">
-        <v>11.73146483800781</v>
+        <v>1.471543537681777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>10583808813992.17</v>
+        <v>1.46860235144542e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1184804167665.134</v>
+        <v>1.249915267618631e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>1314486366162.975</v>
+        <v>2.73046171864215e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>483027075035.163</v>
+        <v>1.07705758091687e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>921481619420.5797</v>
+        <v>1.933930758491908e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>1105777723088.013</v>
+        <v>2.34779435789034e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>27.75516690658135</v>
+        <v>2.891369595254543</v>
       </c>
       <c r="I38" t="n">
-        <v>1.398216681279096e-05</v>
+        <v>0.5761659033627062</v>
       </c>
       <c r="J38" t="n">
-        <v>6.938791726645337</v>
+        <v>0.7228423988136357</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>10016931513864.48</v>
+        <v>1.356436783395522e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>5908469053987.655</v>
+        <v>3.830087476415215e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>-4876157813862.211</v>
+        <v>-2.956533578436538e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>415799121230.6144</v>
+        <v>8.030054883382562e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>652051528636.3278</v>
+        <v>1.434176236804927e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>881420541669.0117</v>
+        <v>1.803227834561034e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>33.33509610512079</v>
+        <v>10.37383703863667</v>
       </c>
       <c r="I39" t="n">
-        <v>1.019887185584356e-06</v>
+        <v>0.03457994557843842</v>
       </c>
       <c r="J39" t="n">
-        <v>8.333774026280198</v>
+        <v>2.593459259659168</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>10726229730159.97</v>
+        <v>1.262469091308399e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1762578727000.176</v>
+        <v>4.298963011140863e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>30578173693.76562</v>
+        <v>-3.955829437085534e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>505756174867.4442</v>
+        <v>9.490303920537941e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>932642524054.434</v>
+        <v>1.807149077412531e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>1084946110240.733</v>
+        <v>2.085666906249345e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>12.52082734579356</v>
+        <v>5.19218755683718</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01387069599616806</v>
+        <v>0.2681401242014947</v>
       </c>
       <c r="J40" t="n">
-        <v>3.130206836448391</v>
+        <v>1.298046889209295</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>16024049659868.04</v>
+        <v>1.952673362931542e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1112003564558.396</v>
+        <v>2.251322530137285e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>-25035102849.45703</v>
+        <v>9.539256967851313e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>535123545584.6137</v>
+        <v>8.135075032040761e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>988510536582.3954</v>
+        <v>1.579081084078891e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>1185336662345.635</v>
+        <v>1.776697088064678e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>7.601138181359088</v>
+        <v>5.563088745868679</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1073313372600083</v>
+        <v>0.2342393361027157</v>
       </c>
       <c r="J41" t="n">
-        <v>1.900284545339772</v>
+        <v>1.39077218646717</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>16532608691018.99</v>
+        <v>1.920012161036046e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>2975728284452.082</v>
+        <v>4.566224518083768e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>-1709540150514.832</v>
+        <v>-2.254808607524196e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>489604161534.3657</v>
+        <v>7.145952143613307e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>883331250736.9042</v>
+        <v>1.336295139173775e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>1082311762165.696</v>
+        <v>1.59331054990533e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>7.979627770256879</v>
+        <v>9.451586985800837</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09232731227289394</v>
+        <v>0.05075158897569802</v>
       </c>
       <c r="J42" t="n">
-        <v>1.99490694256422</v>
+        <v>2.362896746450209</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>15221228701817.49</v>
+        <v>1.878359102845844e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1601840061032</v>
+        <v>3.529430610471044e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>299016782985.6914</v>
+        <v>-1.051377866787696e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>431669244208.5692</v>
+        <v>6.299907455647611e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>813765833593.6311</v>
+        <v>1.177292358264247e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>980363451943.6581</v>
+        <v>1.438890574397131e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>3.646632907431683</v>
+        <v>2.911538983126799</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4559353698258244</v>
+        <v>0.5727366073936854</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9116582268579208</v>
+        <v>0.7278847457816997</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>13820526245956.34</v>
+        <v>1.733423286308215e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1789978535319.852</v>
+        <v>1.868368105169399e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>-747793404181.6211</v>
+        <v>-6.166078402106145e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>384889464070.3817</v>
+        <v>5.677179321887165e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>707657174838.3966</v>
+        <v>1.089682458044208e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>854563226079.9303</v>
+        <v>1.263564613055091e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>4.623063392496947</v>
+        <v>0.9019937430826835</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3282036871977499</v>
+        <v>0.9242746107511228</v>
       </c>
       <c r="J44" t="n">
-        <v>1.155765848124237</v>
+        <v>0.2254984357706709</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>14511872137216.89</v>
+        <v>1.775453536190577e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>909142660841.291</v>
+        <v>6.544483308929038e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>700138656784.1328</v>
+        <v>1.197933825659322e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>398721373204.5166</v>
+        <v>5.839660055790831e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>751124014168.7546</v>
+        <v>1.154902653691118e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>905164789906.6799</v>
+        <v>1.283352306901546e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>4.201165457251153</v>
+        <v>3.0551583691536</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3794650968355385</v>
+        <v>0.5486375894577338</v>
       </c>
       <c r="J45" t="n">
-        <v>1.050291364312788</v>
+        <v>0.7637895922883999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>14178811055699.53</v>
+        <v>1.67413562255172e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>1004997918910.756</v>
+        <v>1.473571807691002e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>-751512739977.7344</v>
+        <v>-1.260784115487107e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>379504233110.2262</v>
+        <v>5.258189573674214e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>690074036241.8108</v>
+        <v>1.017886029282248e-06</v>
       </c>
       <c r="G46" t="n">
-        <v>831360566413.4136</v>
+        <v>1.161194307633545e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>2.048660750219914</v>
+        <v>0.2540652907720825</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7268091099603702</v>
+        <v>0.9925831971171751</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5121651875549785</v>
+        <v>0.06351632269302063</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>9453973391144.586</v>
+        <v>1.171256748512552e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>1589183548604.16</v>
+        <v>1.841252036369154e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>-305745730751.9141</v>
+        <v>-1.822446869504762e-09</v>
       </c>
       <c r="E47" t="n">
-        <v>272100599815.9023</v>
+        <v>4.268756931125164e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>514207025457.1389</v>
+        <v>8.644631163475823e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>618668868833.1968</v>
+        <v>9.747938641005669e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>3.640780426077537</v>
+        <v>0.4709936065103044</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4567975590486146</v>
+        <v>0.9762626265149373</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9101951065193842</v>
+        <v>0.1177484016275761</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>12681178214627.64</v>
+        <v>1.507927856809864e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>1434396930299.162</v>
+        <v>1.648338214534028e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>579676964744.7246</v>
+        <v>8.164748247855831e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>353209041564.6313</v>
+        <v>5.056540450973533e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>660398890253.9114</v>
+        <v>9.852262442690022e-07</v>
       </c>
       <c r="G48" t="n">
-        <v>796665362654.1182</v>
+        <v>1.165333814146971e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>13.08080843533428</v>
+        <v>4.523796865931796</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01088762531028771</v>
+        <v>0.3397351057779529</v>
       </c>
       <c r="J48" t="n">
-        <v>3.270202108833569</v>
+        <v>1.130949216482949</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>19017298691532.8</v>
+        <v>2.256682989128956e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>455689312919.2266</v>
+        <v>8.363538888997622e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>1456590382898.617</v>
+        <v>8.42654699068921e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>508759452573.0347</v>
+        <v>7.099574864173557e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>957584361130.9534</v>
+        <v>1.370834028440655e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>1156892672130.382</v>
+        <v>1.57967529584967e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>7.359837501425145</v>
+        <v>6.403064139595664</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1180510640553224</v>
+        <v>0.1710015201931236</v>
       </c>
       <c r="J49" t="n">
-        <v>1.839959375356286</v>
+        <v>1.600766034898916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>27749459552604.12</v>
+        <v>3.318397724450397e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>3034329847368.826</v>
+        <v>3.045048247701673e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>737405078870.8359</v>
+        <v>2.218323435516784e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>734513183682.704</v>
+        <v>9.817773391778243e-07</v>
       </c>
       <c r="F50" t="n">
-        <v>1338908597812.063</v>
+        <v>1.829358135884978e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>1635769826152.112</v>
+        <v>2.175945211951994e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>6.310874532074202</v>
+        <v>5.832805974242536</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1771037420639292</v>
+        <v>0.2119872050005261</v>
       </c>
       <c r="J50" t="n">
-        <v>1.57771863301855</v>
+        <v>1.458201493560634</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>38096719717795.28</v>
+        <v>4.556634633541144e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1640194220756.336</v>
+        <v>1.481136673201214e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-2106932976955.594</v>
+        <v>-9.719326261489443e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>961436645603.525</v>
+        <v>1.243981373856157e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>1731584649305.671</v>
+        <v>2.343514807974824e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>2097969137739.995</v>
+        <v>2.745029215485057e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>2.902743138088255</v>
+        <v>0.950126552150905</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5742307976204422</v>
+        <v>0.917261766170601</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7256857845220638</v>
+        <v>0.2375316380377263</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>80041540508718.19</v>
+        <v>9.348939441872714e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>6214171626754.055</v>
+        <v>7.922730576139959e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>1804271511858.5</v>
+        <v>1.267782146487225e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>2057805056174.407</v>
+        <v>2.616245922045395e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>3820992155559.119</v>
+        <v>4.929842740654307e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>4637351474408.418</v>
+        <v>5.914224244870182e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>1.825662356891359</v>
+        <v>2.648311512572306</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7677840720753659</v>
+        <v>0.6182892439319041</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4564155892228398</v>
+        <v>0.6620778781430766</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>135743178846602.2</v>
+        <v>0.0001587823067375679</v>
       </c>
       <c r="C53" t="n">
-        <v>7709106797629.984</v>
+        <v>6.942093363634304e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>-5460508528901.688</v>
+        <v>-6.63234527700321e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>3366271903729.368</v>
+        <v>4.181995980071148e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>6204506633261.433</v>
+        <v>7.840687788858215e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>7366200329541.165</v>
+        <v>9.132835764622727e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>1.359934536220147</v>
+        <v>0.4719601702466193</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8511278232088499</v>
+        <v>0.9761726247600861</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3399836340550367</v>
+        <v>0.1179900425616548</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>373904927928730.6</v>
+        <v>0.0004286741497562416</v>
       </c>
       <c r="C54" t="n">
-        <v>36272854547828.09</v>
+        <v>4.428106908583744e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-4530255325324.625</v>
+        <v>-1.304072599150647e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>9250457262397.84</v>
+        <v>1.107972219342135e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>16867817179490.72</v>
+        <v>2.035669754864618e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>20774400560522.68</v>
+        <v>2.475527205990856e-05</v>
       </c>
       <c r="H54" t="n">
-        <v>2.193086225007241</v>
+        <v>2.666284052110684</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7002952402670748</v>
+        <v>0.615127227945672</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5482715562518103</v>
+        <v>0.666571013027671</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>604903481549223.8</v>
+        <v>0.0006916419759080243</v>
       </c>
       <c r="C55" t="n">
-        <v>41595954954777.12</v>
+        <v>4.86979287852147e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>-2187765915794.875</v>
+        <v>-2.502056746887609e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>14561091371256.86</v>
+        <v>1.728893973025029e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>26495251534890.2</v>
+        <v>3.186510210570164e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>32404177866541.52</v>
+        <v>3.847553697522732e-05</v>
       </c>
       <c r="H55" t="n">
-        <v>2.032094955534352</v>
+        <v>1.520438552668875</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7298555965477045</v>
+        <v>0.8230149722234033</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5080237388835881</v>
+        <v>0.3801096381672187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>665827577551948.6</v>
+        <v>0.0007666966255308392</v>
       </c>
       <c r="C56" t="n">
-        <v>25266180396574.81</v>
+        <v>2.927254167298923e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>6915820807216.5</v>
+        <v>6.436947547176861e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>15689605734265.37</v>
+        <v>1.864454772158979e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>28599710542661.5</v>
+        <v>3.435577541869765e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>34771507726491.62</v>
+        <v>4.115556218553231e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>2.703914418952767</v>
+        <v>2.170788828059506</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6085298133963013</v>
+        <v>0.704380624400179</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6759786047381918</v>
+        <v>0.5426972070148766</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>537431053517202.5</v>
+        <v>0.0006163228447607172</v>
       </c>
       <c r="C57" t="n">
-        <v>47496464657752.62</v>
+        <v>5.27849831976754e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>7292420152417.375</v>
+        <v>1.224248512624341e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>12750330199767.02</v>
+        <v>1.512878971122309e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>23417263055778.51</v>
+        <v>2.813705094814592e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>28581378558865.02</v>
+        <v>3.400810611840337e-05</v>
       </c>
       <c r="H57" t="n">
-        <v>2.159193245519034</v>
+        <v>2.041570725043071</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7065066394628183</v>
+        <v>0.7281129196957694</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5397983113797584</v>
+        <v>0.5103926812607679</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>279542116625987.7</v>
+        <v>0.000319316190606334</v>
       </c>
       <c r="C58" t="n">
-        <v>20439575705172.66</v>
+        <v>2.585734262039712e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-8106222397778.125</v>
+        <v>-9.752630059274309e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>6661346545375.44</v>
+        <v>7.857102355755425e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>12018881452735.01</v>
+        <v>1.430269333908705e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>14788814934797.37</v>
+        <v>1.741550861764255e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>2.937617642150357</v>
+        <v>2.79395404766907</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5683186321605238</v>
+        <v>0.5928768029191087</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7344044105375893</v>
+        <v>0.6984885119172676</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>214310107367121.5</v>
+        <v>0.0002467386442911436</v>
       </c>
       <c r="C59" t="n">
-        <v>17812317697080.75</v>
+        <v>1.915105611749842e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-6063689457208.75</v>
+        <v>-4.754768300387058e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>5119804266275.473</v>
+        <v>6.105099408978051e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>9227879682209.416</v>
+        <v>1.111853860164113e-05</v>
       </c>
       <c r="G59" t="n">
-        <v>11289370097388.55</v>
+        <v>1.346328167917316e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>2.063537124431325</v>
+        <v>1.830536874169398</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7240738163322874</v>
+        <v>0.7668909628720773</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5158842811078314</v>
+        <v>0.4576342185423494</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>271164490263564.8</v>
+        <v>0.0003122709672196198</v>
       </c>
       <c r="C60" t="n">
-        <v>18002391732641.72</v>
+        <v>1.821285958327395e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>6057619563998</v>
+        <v>7.712276413140041e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>6394357799577.401</v>
+        <v>7.613292142339062e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>11596361381163.78</v>
+        <v>1.39431212821765e-05</v>
       </c>
       <c r="G60" t="n">
-        <v>14257346096599.7</v>
+        <v>1.691973008676952e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>5.865559024052509</v>
+        <v>6.389095092560456</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2094158939337941</v>
+        <v>0.1719138039419897</v>
       </c>
       <c r="J60" t="n">
-        <v>1.466389756013127</v>
+        <v>1.597273773140114</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>119645517593044.4</v>
+        <v>0.0001397924971713014</v>
       </c>
       <c r="C61" t="n">
-        <v>10698048912565.41</v>
+        <v>1.040434268539505e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>1620264466118.281</v>
+        <v>1.953517768824925e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>2849345840490.869</v>
+        <v>3.459396714747738e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>5222041642338.486</v>
+        <v>6.407049133260352e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>6436636762232.446</v>
+        <v>7.781041654146668e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>2.424630747978084</v>
+        <v>2.691332608891403</v>
       </c>
       <c r="I61" t="n">
-        <v>0.6581807256306308</v>
+        <v>0.6107321445532929</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6061576869945209</v>
+        <v>0.6728331522228508</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>86354542675547.92</v>
+        <v>9.93027100314175e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>3492818003027.125</v>
+        <v>7.068892035773069e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>1349374656397.656</v>
+        <v>-1.566820184637863e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>2018140545343.716</v>
+        <v>2.432258202463491e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>3724069016531.064</v>
+        <v>4.517105719032031e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>4477885662098.693</v>
+        <v>5.40215363782254e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5566911604169631</v>
+        <v>1.019436626140311</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9677525507666189</v>
+        <v>0.9068345797250179</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1391727901042408</v>
+        <v>0.2548591565350777</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>49860838168691.91</v>
+        <v>5.82010418302845e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1477434966098.723</v>
+        <v>2.429786234942196e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>1515833904912.508</v>
+        <v>1.882348516144892e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1197062103768.11</v>
+        <v>1.476235376364794e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>2225018818005.107</v>
+        <v>2.771969518981799e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>2699224543125.544</v>
+        <v>3.340538746419746e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>3.655198710403585</v>
+        <v>3.659738635383932</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4546755060738448</v>
+        <v>0.4540087606245868</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9137996776008962</v>
+        <v>0.9149346588459829</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26346140704629.23</v>
+        <v>3.180464618010786e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1171728287373.547</v>
+        <v>-1.499678384816858e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>886568405461.3086</v>
+        <v>2.754846047132479e-06</v>
       </c>
       <c r="E64" t="n">
-        <v>656632512482.6052</v>
+        <v>8.699691077783454e-07</v>
       </c>
       <c r="F64" t="n">
-        <v>1204379690739.395</v>
+        <v>1.659709886208345e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>1456130495093.403</v>
+        <v>1.903446709381801e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>6.920683418275487</v>
+        <v>3.401572037565222</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1401395832799917</v>
+        <v>0.493001446892102</v>
       </c>
       <c r="J64" t="n">
-        <v>1.730170854568872</v>
+        <v>0.8503930093913055</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>20253740357907.72</v>
+        <v>2.435174044814659e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1635336732142.424</v>
+        <v>2.212764890230582e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>-64617498690.03125</v>
+        <v>-2.737045245231957e-07</v>
       </c>
       <c r="E65" t="n">
-        <v>625963093234.3971</v>
+        <v>9.497137886867073e-07</v>
       </c>
       <c r="F65" t="n">
-        <v>1171088501710.195</v>
+        <v>1.872908554216668e-06</v>
       </c>
       <c r="G65" t="n">
-        <v>1395068753470.828</v>
+        <v>2.085569817085851e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>5.439162090297991</v>
+        <v>4.417600609785978</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2451291644609472</v>
+        <v>0.3524300294661443</v>
       </c>
       <c r="J65" t="n">
-        <v>1.359790522574498</v>
+        <v>1.104400152446495</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>20608120445286.85</v>
+        <v>2.431460521088759e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>-67728312029.9375</v>
+        <v>5.361104473038597e-07</v>
       </c>
       <c r="D66" t="n">
-        <v>2841081010538.711</v>
+        <v>2.071382754414434e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>861075455806.6694</v>
+        <v>1.430332616124123e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>1651459838499.893</v>
+        <v>2.838095723727895e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>1876111400002.84</v>
+        <v>3.291843634078841e-06</v>
       </c>
       <c r="H66" t="n">
-        <v>4.492904748884303</v>
+        <v>0.655691585893571</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3433896223063966</v>
+        <v>0.956678520311383</v>
       </c>
       <c r="J66" t="n">
-        <v>1.123226187221076</v>
+        <v>0.1639228964733928</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>24398764053897.62</v>
+        <v>2.997896967625027e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>3946190815101.691</v>
+        <v>1.668194322519601e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>-1761333463949.203</v>
+        <v>-4.034386035260645e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>1075977615155.338</v>
+        <v>2.095838388650363e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>2046183204549.554</v>
+        <v>4.057054976232421e-06</v>
       </c>
       <c r="G67" t="n">
-        <v>2394691857382.319</v>
+        <v>4.354550796104861e-06</v>
       </c>
       <c r="H67" t="n">
-        <v>1.612420403092093</v>
+        <v>0.377337240244308</v>
       </c>
       <c r="I67" t="n">
-        <v>0.806558085221973</v>
+        <v>0.9842899645190122</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4031051007730234</v>
+        <v>0.09433431006107701</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>31906765072450.94</v>
+        <v>3.773528884468832e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>7472162297743.273</v>
+        <v>4.451405083835076e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>-1370238014581.594</v>
+        <v>4.530533037208589e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>1611600358508.471</v>
+        <v>3.147924060762386e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>2946193300094.816</v>
+        <v>6.203304178566619e-06</v>
       </c>
       <c r="G68" t="n">
-        <v>3570743157929.607</v>
+        <v>7.335307697976273e-06</v>
       </c>
       <c r="H68" t="n">
-        <v>7.37272306810817</v>
+        <v>3.750171169506652</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1174544071456648</v>
+        <v>0.4408709210824682</v>
       </c>
       <c r="J68" t="n">
-        <v>1.843180767027043</v>
+        <v>0.937542792376663</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>30954841514780.76</v>
+        <v>3.644496200351228e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>6379995145218.199</v>
+        <v>9.948881203747037e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>-4589539940410.109</v>
+        <v>-2.696292931513128e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>1406171028978.717</v>
+        <v>2.840737710598322e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>2517121422009.805</v>
+        <v>5.515485422512392e-06</v>
       </c>
       <c r="G69" t="n">
-        <v>3050306840554.393</v>
+        <v>6.272171690338044e-06</v>
       </c>
       <c r="H69" t="n">
-        <v>8.953702212404909</v>
+        <v>1.564245322683968</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06226718073003754</v>
+        <v>0.8152035020550229</v>
       </c>
       <c r="J69" t="n">
-        <v>2.238425553101227</v>
+        <v>0.3910613306709919</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>63090216325283.71</v>
+        <v>7.539647528538617e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>10393920038113.12</v>
+        <v>1.254990233287279e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>1555126226083.375</v>
+        <v>7.991359958065252e-07</v>
       </c>
       <c r="E70" t="n">
-        <v>2761372853639.667</v>
+        <v>5.592275771538716e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>5468297435299.63</v>
+        <v>1.138769590453934e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>6478720752941.993</v>
+        <v>1.293420959583194e-05</v>
       </c>
       <c r="H70" t="n">
-        <v>8.025033227874438</v>
+        <v>1.291093773872714</v>
       </c>
       <c r="I70" t="n">
-        <v>0.09066548751311879</v>
+        <v>0.8628847833783957</v>
       </c>
       <c r="J70" t="n">
-        <v>2.00625830696861</v>
+        <v>0.3227734434681785</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>99549593412823.94</v>
+        <v>0.0001177593343461616</v>
       </c>
       <c r="C71" t="n">
-        <v>19404905925057.64</v>
+        <v>1.091695758352371e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>-10412587326947.75</v>
+        <v>-2.288879755510712e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>4182508350760.228</v>
+        <v>7.575790112530283e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>7744175443629.413</v>
+        <v>1.510947341602367e-05</v>
       </c>
       <c r="G71" t="n">
-        <v>9207561645320.678</v>
+        <v>1.640595598187127e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>3.973669950059046</v>
+        <v>3.106471422780384</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4095809623183041</v>
+        <v>0.540168446462014</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9934174875147614</v>
+        <v>0.7766178556950961</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>238883960981391.7</v>
+        <v>0.0002747160445918518</v>
       </c>
       <c r="C72" t="n">
-        <v>17262864685990.16</v>
+        <v>1.887907352413629e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>-7874140748471</v>
+        <v>-3.799875029044037e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>6164696041249.831</v>
+        <v>8.281066750638463e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>11278373793238.79</v>
+        <v>1.581819124825159e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>13700561116782.02</v>
+        <v>1.843508251692685e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>3.367629895450515</v>
+        <v>2.691745710626022</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4982886868502713</v>
+        <v>0.6106597780768295</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8419074738626288</v>
+        <v>0.6729364276565054</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>603764530011919.4</v>
+        <v>0.0007001741481618946</v>
       </c>
       <c r="C73" t="n">
-        <v>44696181096393.62</v>
+        <v>4.040531161385763e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>-3316686376051.25</v>
+        <v>9.306924845093895e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>15245075238276.61</v>
+        <v>1.948925176332316e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>27908518074310.21</v>
+        <v>3.665622034916206e-05</v>
       </c>
       <c r="G73" t="n">
-        <v>34133225900678.18</v>
+        <v>4.334857342364246e-05</v>
       </c>
       <c r="H73" t="n">
-        <v>4.284568015701228</v>
+        <v>2.977754924558617</v>
       </c>
       <c r="I73" t="n">
-        <v>0.368861486291761</v>
+        <v>0.5615549359111554</v>
       </c>
       <c r="J73" t="n">
-        <v>1.071142003925307</v>
+        <v>0.7444387311396543</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>596327790003703</v>
+        <v>0.0006944263148402825</v>
       </c>
       <c r="C74" t="n">
-        <v>34359252871338.38</v>
+        <v>2.98804406149913e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>5184758849866.25</v>
+        <v>8.145706114959781e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>15147017340801.59</v>
+        <v>1.945402581760293e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>27783869763133.42</v>
+        <v>3.660302662278224e-05</v>
       </c>
       <c r="G74" t="n">
-        <v>33324894492934.71</v>
+        <v>4.263546022374152e-05</v>
       </c>
       <c r="H74" t="n">
-        <v>3.568960183483729</v>
+        <v>2.563247265399038</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4674705544407297</v>
+        <v>0.6333473168105066</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8922400458709323</v>
+        <v>0.6408118163497596</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>324819276042810.3</v>
+        <v>0.0003715870403199232</v>
       </c>
       <c r="C75" t="n">
-        <v>26438902581321.12</v>
+        <v>2.977047759421145e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>-22479318076481.56</v>
+        <v>-2.823391031764799e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>9083500372910.07</v>
+        <v>1.185000593402001e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>16805572076457.01</v>
+        <v>2.265012502865317e-05</v>
       </c>
       <c r="G75" t="n">
-        <v>19856908293676.21</v>
+        <v>2.598244771189715e-05</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5455215535490029</v>
+        <v>0.3967351665206115</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9689208082186987</v>
+        <v>0.9827433318853925</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1363803883872507</v>
+        <v>0.09918379163015288</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>170811279028423.4</v>
+        <v>0.0001978308078467037</v>
       </c>
       <c r="C76" t="n">
-        <v>19349766558126.69</v>
+        <v>1.903005410814606e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-9467009201855.625</v>
+        <v>-7.974664953046458e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>4743262756272.54</v>
+        <v>6.350036202736959e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>8665822208702.173</v>
+        <v>1.20823168180057e-05</v>
       </c>
       <c r="G76" t="n">
-        <v>10350125868922.63</v>
+        <v>1.370506226198321e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>2.934711312139646</v>
+        <v>2.571234999337555</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5688100888899694</v>
+        <v>0.6319270799766963</v>
       </c>
       <c r="J76" t="n">
-        <v>0.7336778280349114</v>
+        <v>0.6428087498343887</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>85453945996042.42</v>
+        <v>0.0001001128981236066</v>
       </c>
       <c r="C77" t="n">
-        <v>11827851416092.5</v>
+        <v>1.409379496395311e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-4989115076241.312</v>
+        <v>-1.196100668517198e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>2776607898616.358</v>
+        <v>4.096105712170064e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>5178216890640.976</v>
+        <v>7.703562250306587e-06</v>
       </c>
       <c r="G77" t="n">
-        <v>6290342112036.598</v>
+        <v>9.040487843291288e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>2.867259761778789</v>
+        <v>0.6965163269238758</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5802791721392115</v>
+        <v>0.9517578332509005</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7168149404446972</v>
+        <v>0.1741290817309689</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>88832742972246.97</v>
+        <v>0.0001024742453363567</v>
       </c>
       <c r="C78" t="n">
-        <v>-4114898899239.625</v>
+        <v>-9.492654087657663e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>-5534342027142.844</v>
+        <v>-4.198201579955733e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>3320207517380.717</v>
+        <v>5.771516645750734e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>6168126176142.538</v>
+        <v>1.09234616938055e-05</v>
       </c>
       <c r="G78" t="n">
-        <v>6995759079125.047</v>
+        <v>1.171127875166968e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>3.227417496055894</v>
+        <v>1.498689582945121</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5205139661696175</v>
+        <v>0.826873565865897</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8068543740139735</v>
+        <v>0.3746723957362803</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>63608754421101.34</v>
+        <v>7.069920172003784e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>7872256949518.383</v>
+        <v>1.448329417040285e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>-24136694803904</v>
+        <v>-2.092303319791487e-05</v>
       </c>
       <c r="E79" t="n">
-        <v>3061309931421.499</v>
+        <v>5.788489040276882e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>5502138112765.257</v>
+        <v>1.132462185289739e-05</v>
       </c>
       <c r="G79" t="n">
-        <v>6320173398623.681</v>
+        <v>1.302465641825075e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>6.527540452934679</v>
+        <v>1.312693522731051</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1630633623058779</v>
+        <v>0.8592182365970731</v>
       </c>
       <c r="J79" t="n">
-        <v>1.63188511323367</v>
+        <v>0.3281733806827628</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>55416819821450.09</v>
+        <v>6.613620547065268e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>2823667993112.258</v>
+        <v>1.834028773543454e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>-4342184991556.656</v>
+        <v>-4.341043769462736e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>2307107404116.771</v>
+        <v>4.49327159950087e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>4372221164112.091</v>
+        <v>9.303645922336084e-06</v>
       </c>
       <c r="G80" t="n">
-        <v>4928468326418.07</v>
+        <v>1.034908844933608e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>6.722794860290888</v>
+        <v>1.240135675134706</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1512827142894811</v>
+        <v>0.8714473628709991</v>
       </c>
       <c r="J80" t="n">
-        <v>1.680698715072722</v>
+        <v>0.3100339187836766</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>35575368667847.18</v>
+        <v>3.990004485368847e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>5839067952386.367</v>
+        <v>9.513270675227879e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>-154415709581.0312</v>
+        <v>-1.978321662729452e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>1526032453393.009</v>
+        <v>2.634641385971952e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>2941381495209.755</v>
+        <v>5.105682004950852e-06</v>
       </c>
       <c r="G81" t="n">
-        <v>3450054264831.569</v>
+        <v>6.007333955972122e-06</v>
       </c>
       <c r="H81" t="n">
-        <v>3.226507196319262</v>
+        <v>2.227831533090359</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5206602486624354</v>
+        <v>0.6939372604143605</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8066267990798154</v>
+        <v>0.5569578832725898</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>40506414648522.48</v>
+        <v>4.817248212202192e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>3340871088825.188</v>
+        <v>3.83416804600113e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>-2686080797460.516</v>
+        <v>-4.711437742560803e-07</v>
       </c>
       <c r="E82" t="n">
-        <v>1450709444417.265</v>
+        <v>2.492146369591656e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>2732311712809.207</v>
+        <v>5.156646350678584e-06</v>
       </c>
       <c r="G82" t="n">
-        <v>3194114572865.038</v>
+        <v>5.600593826900865e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>1.820350858845322</v>
+        <v>1.961088980723834</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7687570080682564</v>
+        <v>0.7429157084128597</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4550877147113305</v>
+        <v>0.4902722451809585</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>86894653470136.86</v>
+        <v>0.0001029058944213939</v>
       </c>
       <c r="C83" t="n">
-        <v>1264126520166.211</v>
+        <v>-1.590925418616036e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>1267975111647.172</v>
+        <v>4.788694629040088e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>2422396001702.536</v>
+        <v>3.387500286305067e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>4518635011552.218</v>
+        <v>6.537706211703545e-06</v>
       </c>
       <c r="G83" t="n">
-        <v>5375418659734.154</v>
+        <v>7.498581226880837e-06</v>
       </c>
       <c r="H83" t="n">
-        <v>4.793886113751948</v>
+        <v>4.47354569752366</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3091072018782749</v>
+        <v>0.3456958109684234</v>
       </c>
       <c r="J83" t="n">
-        <v>1.198471528437987</v>
+        <v>1.118386424380915</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>58681395603990.17</v>
+        <v>6.92211208987635e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>4298029335289.57</v>
+        <v>4.936322877755024e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>-3891157624101.078</v>
+        <v>-3.651864906570364e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>1555572030039.387</v>
+        <v>2.131669403887471e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>2868058183850.357</v>
+        <v>4.02070264946713e-06</v>
       </c>
       <c r="G84" t="n">
-        <v>3441981951202.106</v>
+        <v>4.71423694262846e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>1.150539534568217</v>
+        <v>1.679023910726031</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8861728750371746</v>
+        <v>0.7945243378383346</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2876348836420543</v>
+        <v>0.4197559776815077</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>26225334115848.29</v>
+        <v>3.118583579000698e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>793575076053.8164</v>
+        <v>1.309424047222511e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>2084925210782.805</v>
+        <v>2.588005649642398e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>749645438224.1024</v>
+        <v>1.145764758034824e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>1450291379299.493</v>
+        <v>2.366533923126468e-06</v>
       </c>
       <c r="G85" t="n">
-        <v>1667839925706.937</v>
+        <v>2.580534408128959e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>2.87968046935645</v>
+        <v>1.826678808902318</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5781582406037813</v>
+        <v>0.767597854648398</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7199201173391125</v>
+        <v>0.4566697022255795</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>22697658679499.67</v>
+        <v>2.803546676990907e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>72051496013.87695</v>
+        <v>-2.672767705602151e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>-1485863260483.629</v>
+        <v>-1.510372076408269e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>644614053975.2152</v>
+        <v>9.769160427590261e-07</v>
       </c>
       <c r="F86" t="n">
-        <v>1195903258286.584</v>
+        <v>1.875225485587746e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>1368110778111.703</v>
+        <v>2.077815851483593e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>3.848282889162013</v>
+        <v>2.576459210132012</v>
       </c>
       <c r="I86" t="n">
-        <v>0.426927730196285</v>
+        <v>0.6309988842176133</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9620707222905032</v>
+        <v>0.644114802533003</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>20831688581787.15</v>
+        <v>2.527403779439803e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1415308093517.4</v>
+        <v>1.560622645891557e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>1477782928342.805</v>
+        <v>1.907089812972022e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>538381057429.6209</v>
+        <v>7.728936560890483e-07</v>
       </c>
       <c r="F87" t="n">
-        <v>1005199678684.499</v>
+        <v>1.511798251895839e-06</v>
       </c>
       <c r="G87" t="n">
-        <v>1186655216264.889</v>
+        <v>1.709913134082311e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>2.898873465461667</v>
+        <v>1.458308153709972</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5748888049310601</v>
+        <v>0.8340000965569043</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7247183663654169</v>
+        <v>0.3645770384274929</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>26503935822899.32</v>
+        <v>3.104851824639464e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>2196126841403.459</v>
+        <v>3.008761684203295e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>264976307949.3047</v>
+        <v>-4.766815589257861e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>691127275505.0059</v>
+        <v>9.373116289650624e-07</v>
       </c>
       <c r="F88" t="n">
-        <v>1317446560353.918</v>
+        <v>1.816397015134679e-06</v>
       </c>
       <c r="G88" t="n">
-        <v>1551495474363.952</v>
+        <v>2.121095512191809e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>2.95887459570373</v>
+        <v>1.81522187112538</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5647310609670531</v>
+        <v>0.7696962707613273</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7397186489259325</v>
+        <v>0.453805467781345</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>48292452250040.33</v>
+        <v>5.786134809246361e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>2005725563609.199</v>
+        <v>2.050981899291308e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>-95148140795.14062</v>
+        <v>8.170491093680639e-07</v>
       </c>
       <c r="E89" t="n">
-        <v>1206170918601.913</v>
+        <v>1.633974549939168e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>2201983134157.909</v>
+        <v>3.108361825043183e-06</v>
       </c>
       <c r="G89" t="n">
-        <v>2692109406286.694</v>
+        <v>3.646518506090559e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>6.839568939871572</v>
+        <v>6.703900057670294</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1446130770244124</v>
+        <v>0.152387905107252</v>
       </c>
       <c r="J89" t="n">
-        <v>1.709892234967893</v>
+        <v>1.675975014417574</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>111779436747340.4</v>
+        <v>0.0001309688229649158</v>
       </c>
       <c r="C90" t="n">
-        <v>5779838418130.273</v>
+        <v>6.338026776784721e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>1538404448877</v>
+        <v>2.956297233769665e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>2684699732987.143</v>
+        <v>3.403521533583564e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>4946726373527.393</v>
+        <v>6.392270404633267e-06</v>
       </c>
       <c r="G90" t="n">
-        <v>5975008484834.117</v>
+        <v>7.541600719099407e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>2.219875701581222</v>
+        <v>1.742044086011892</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6953921427687029</v>
+        <v>0.7830668464760115</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5549689253953055</v>
+        <v>0.4355110215029731</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>125546432447833.3</v>
+        <v>0.0001474533110721191</v>
       </c>
       <c r="C91" t="n">
-        <v>737536359103.4688</v>
+        <v>-8.842063358897401e-07</v>
       </c>
       <c r="D91" t="n">
-        <v>2176320694154.5</v>
+        <v>2.639704915932835e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>3000243728560.546</v>
+        <v>3.748419490249509e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>5520018072528.679</v>
+        <v>6.930153402380638e-06</v>
       </c>
       <c r="G91" t="n">
-        <v>6611136805575.38</v>
+        <v>8.225390893314811e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>1.65346075870416</v>
+        <v>1.657362638912859</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7991531388326432</v>
+        <v>0.7984473873809368</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4133651896760401</v>
+        <v>0.4143406597282147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>147254768413636</v>
+        <v>0.000172771130635399</v>
       </c>
       <c r="C92" t="n">
-        <v>11782236690001.62</v>
+        <v>1.166752186875316e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>-1640025545230.969</v>
+        <v>-1.283296700227031e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>3513553003405.362</v>
+        <v>4.39063949654031e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>6341892986802.371</v>
+        <v>8.046584368695967e-06</v>
       </c>
       <c r="G92" t="n">
-        <v>7894940327719.543</v>
+        <v>9.815122747424978e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>5.429087067779294</v>
+        <v>4.408558564425679</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2460334604125554</v>
+        <v>0.3535281763359461</v>
       </c>
       <c r="J92" t="n">
-        <v>1.357271766944824</v>
+        <v>1.10213964110642</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>152124472582384</v>
+        <v>0.0001773091751178324</v>
       </c>
       <c r="C93" t="n">
-        <v>10354105800207.14</v>
+        <v>9.857632537189779e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>-1148651221941.5</v>
+        <v>-1.645432341367014e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>3744279604521.789</v>
+        <v>4.721332956267066e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>6926745018546.108</v>
+        <v>8.873643584787588e-06</v>
       </c>
       <c r="G93" t="n">
-        <v>8348728308501.632</v>
+        <v>1.043889078642995e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>1.029989552253583</v>
+        <v>1.113973244954046</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9052150082953602</v>
+        <v>0.89204890513535</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2574973880633957</v>
+        <v>0.2784933112385116</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>135395966455643.9</v>
+        <v>0.0001567387060671592</v>
       </c>
       <c r="C94" t="n">
-        <v>6356533636848.297</v>
+        <v>1.024277919265738e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>-4518246134565.25</v>
+        <v>-4.680399322949669e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>3880359632125.208</v>
+        <v>5.215739491591895e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>7258016036717.474</v>
+        <v>1.000676667135097e-05</v>
       </c>
       <c r="G94" t="n">
-        <v>8592633540521.743</v>
+        <v>1.173980429302889e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>1.408870626448827</v>
+        <v>1.06166524177028</v>
       </c>
       <c r="I94" t="n">
-        <v>0.8426518025350591</v>
+        <v>0.9003057628590575</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3522176566122067</v>
+        <v>0.2654163104425699</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>119366513526327.7</v>
+        <v>0.0001402701498385185</v>
       </c>
       <c r="C95" t="n">
-        <v>7550522692144.953</v>
+        <v>8.082954620822232e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>1440601334826.938</v>
+        <v>4.194416002928835e-08</v>
       </c>
       <c r="E95" t="n">
-        <v>3427635020137.147</v>
+        <v>4.950978843353789e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>6398577879596.071</v>
+        <v>9.776905149999172e-06</v>
       </c>
       <c r="G95" t="n">
-        <v>7567986607716.591</v>
+        <v>1.086211491863762e-05</v>
       </c>
       <c r="H95" t="n">
-        <v>2.316297295414771</v>
+        <v>0.7760042766656521</v>
       </c>
       <c r="I95" t="n">
-        <v>0.677803469482925</v>
+        <v>0.9416357695891305</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5790743238536928</v>
+        <v>0.194001069166413</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>89606011643277.88</v>
+        <v>0.0001061610794092345</v>
       </c>
       <c r="C96" t="n">
-        <v>2275834947046.156</v>
+        <v>1.066665570874882e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>1073600636766.125</v>
+        <v>2.150669026577951e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>2537003458631.179</v>
+        <v>3.804928212080815e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>4743344131674.797</v>
+        <v>7.335682373120425e-06</v>
       </c>
       <c r="G96" t="n">
-        <v>5595775739603.359</v>
+        <v>8.254543239448001e-06</v>
       </c>
       <c r="H96" t="n">
-        <v>1.180624461082011</v>
+        <v>0.7121589085646735</v>
       </c>
       <c r="I96" t="n">
-        <v>0.881278255687864</v>
+        <v>0.9498210582396274</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2951561152705027</v>
+        <v>0.1780397271411684</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>82094082407673.45</v>
+        <v>9.843323682109448e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>6073186031367.133</v>
+        <v>2.254539062507166e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>-3390350294438.156</v>
+        <v>2.615061976471835e-07</v>
       </c>
       <c r="E97" t="n">
-        <v>2249019536780.39</v>
+        <v>3.234431068325017e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>4136098516222.46</v>
+        <v>6.334402769021959e-06</v>
       </c>
       <c r="G97" t="n">
-        <v>4947700455613.996</v>
+        <v>7.222645021254423e-06</v>
       </c>
       <c r="H97" t="n">
-        <v>0.7486937365430139</v>
+        <v>0.4364668585261549</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9451910005785156</v>
+        <v>0.9793838508235643</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1871734341357535</v>
+        <v>0.1091167146315387</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>77276746550636.08</v>
+        <v>9.168260145636775e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>8811183871991.914</v>
+        <v>9.809966724870152e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>-1981718592177.562</v>
+        <v>-2.254784379681008e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>1950254746365.667</v>
+        <v>2.632893238803237e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>3565463312665.64</v>
+        <v>4.919212898563934e-06</v>
       </c>
       <c r="G98" t="n">
-        <v>4388702157678.821</v>
+        <v>5.8431484064094e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>2.578833734912381</v>
+        <v>1.794116693180276</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6305771768057138</v>
+        <v>0.7735585640214716</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6447084337280952</v>
+        <v>0.4485291732950689</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>77230792841968.95</v>
+        <v>9.157786152488016e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>3095740596790.68</v>
+        <v>1.671734804963713e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>-850344832320.7344</v>
+        <v>9.353261774505857e-07</v>
       </c>
       <c r="E99" t="n">
-        <v>1854555401565.692</v>
+        <v>2.370905979583782e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>3451749400737.743</v>
+        <v>4.49372092411912e-06</v>
       </c>
       <c r="G99" t="n">
-        <v>4144075488392.944</v>
+        <v>5.289389827869399e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>1.900614457116217</v>
+        <v>1.170328256290119</v>
       </c>
       <c r="I99" t="n">
-        <v>0.7540321178329861</v>
+        <v>0.8829592973591074</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4751536142790542</v>
+        <v>0.2925820640725298</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>75824780554104.08</v>
+        <v>8.963935350478956e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>8587165800139.578</v>
+        <v>9.048728547305613e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>-639577112247.6562</v>
+        <v>1.082548124497519e-07</v>
       </c>
       <c r="E100" t="n">
-        <v>1755616783739.111</v>
+        <v>2.173155580356842e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>3181357134132.069</v>
+        <v>4.008719090051384e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>3947769685795.921</v>
+        <v>4.87583707757644e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>2.719262599308732</v>
+        <v>2.350644821460626</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6058481379366567</v>
+        <v>0.6715642929322204</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6798156498271831</v>
+        <v>0.5876612053651564</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>76212698051107.31</v>
+        <v>8.986267012281008e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>4283900173879.375</v>
+        <v>4.9881240722624e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>-111768411163.2812</v>
+        <v>6.029783223788295e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>1710198300179.266</v>
+        <v>2.065819672862975e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>3091289834320.1</v>
+        <v>3.778685047567003e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>3836946039215.233</v>
+        <v>4.634451159194767e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>2.57436343945315</v>
+        <v>2.4373675507045</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6313711789533119</v>
+        <v>0.6558851055969142</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6435908598632876</v>
+        <v>0.609341887676125</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>89199506607078.59</v>
+        <v>0.0001050626448216784</v>
       </c>
       <c r="C102" t="n">
-        <v>5746067519521.219</v>
+        <v>6.587914155715288e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>1297363837571.516</v>
+        <v>1.554969083358582e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>1973031078316.651</v>
+        <v>2.365048058495191e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>3553387514299.216</v>
+        <v>4.288224243600388e-06</v>
       </c>
       <c r="G102" t="n">
-        <v>4430315252593.977</v>
+        <v>5.297632395344315e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>3.160455966624724</v>
+        <v>2.91662687977944</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5313415614349229</v>
+        <v>0.5718732411093068</v>
       </c>
       <c r="J102" t="n">
-        <v>0.7901139916561811</v>
+        <v>0.7291567199448601</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>119765079236790.4</v>
+        <v>0.0001412486826377977</v>
       </c>
       <c r="C103" t="n">
-        <v>11491577074770.27</v>
+        <v>1.087983728828686e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>-100903400206.125</v>
+        <v>1.743516998690021e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>2631392449590.524</v>
+        <v>3.146458766927933e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>4729105749314.835</v>
+        <v>5.731802617759232e-06</v>
       </c>
       <c r="G103" t="n">
-        <v>5915656956345.6</v>
+        <v>7.066972101884065e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>1.693361465074454</v>
+        <v>1.371829049706546</v>
       </c>
       <c r="I103" t="n">
-        <v>0.7919231667303636</v>
+        <v>0.8490761834316296</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4233403662686135</v>
+        <v>0.3429572624266366</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>196109448025960.3</v>
+        <v>0.0002297844507603867</v>
       </c>
       <c r="C104" t="n">
-        <v>13290503111915.09</v>
+        <v>1.208273042413113e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>2256874837487.219</v>
+        <v>5.606500371771212e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>4241060058622.932</v>
+        <v>4.993063394365268e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>7612012961698.388</v>
+        <v>9.042895965716999e-06</v>
       </c>
       <c r="G104" t="n">
-        <v>9497004215088.102</v>
+        <v>1.118225072837255e-05</v>
       </c>
       <c r="H104" t="n">
-        <v>2.674101114118025</v>
+        <v>2.614681986553495</v>
       </c>
       <c r="I104" t="n">
-        <v>0.613754131443131</v>
+        <v>0.6242244892405144</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6685252785295063</v>
+        <v>0.6536704966383738</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>299938205189175.5</v>
+        <v>0.0003458760447076312</v>
       </c>
       <c r="C105" t="n">
-        <v>16331352421430.09</v>
+        <v>2.371778394689945e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>-39453626409.375</v>
+        <v>-4.601281693320165e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>6552495884880.217</v>
+        <v>7.611644230014609e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>11797153673574.24</v>
+        <v>1.364804977175511e-05</v>
       </c>
       <c r="G105" t="n">
-        <v>14610985083605.29</v>
+        <v>1.694721307725956e-05</v>
       </c>
       <c r="H105" t="n">
-        <v>1.833385664057729</v>
+        <v>1.736877128087777</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7663689137894412</v>
+        <v>0.7840084548301888</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4583464160144323</v>
+        <v>0.4342192820219443</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>396564583731291.6</v>
+        <v>0.0004587728259735025</v>
       </c>
       <c r="C106" t="n">
-        <v>29858108587381.66</v>
+        <v>3.537550121318804e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>-81290101851.6875</v>
+        <v>-8.609420082440755e-07</v>
       </c>
       <c r="E106" t="n">
-        <v>8587910902079.266</v>
+        <v>9.982188592792013e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>15428347278731.17</v>
+        <v>1.795644169778598e-05</v>
       </c>
       <c r="G106" t="n">
-        <v>19248380613904.68</v>
+        <v>2.235729167743499e-05</v>
       </c>
       <c r="H106" t="n">
-        <v>2.151981849177893</v>
+        <v>2.082376629074153</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7078292895049252</v>
+        <v>0.7206107453227164</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5379954622944734</v>
+        <v>0.5205941572685383</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>527555515725105.9</v>
+        <v>0.0006086104698159668</v>
       </c>
       <c r="C107" t="n">
-        <v>20268337164455.72</v>
+        <v>2.402662942368691e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>857388331155.625</v>
+        <v>5.715759240020567e-08</v>
       </c>
       <c r="E107" t="n">
-        <v>11459670155823.24</v>
+        <v>1.326919723433321e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>20631481253800.78</v>
+        <v>2.392034255437296e-05</v>
       </c>
       <c r="G107" t="n">
-        <v>25297767792583.45</v>
+        <v>2.927435274763064e-05</v>
       </c>
       <c r="H107" t="n">
-        <v>1.134296229616973</v>
+        <v>1.151563021873923</v>
       </c>
       <c r="I107" t="n">
-        <v>0.8887932504886269</v>
+        <v>0.8860072333979853</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2835740574042432</v>
+        <v>0.2878907554684809</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>657844885890479.1</v>
+        <v>0.000757324471975939</v>
       </c>
       <c r="C108" t="n">
-        <v>46794394165744.75</v>
+        <v>5.456494646333468e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>3889845890048.875</v>
+        <v>4.473062147758574e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>14123894308029.25</v>
+        <v>1.628743940652413e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>25315567575398.89</v>
+        <v>2.920917151987412e-05</v>
       </c>
       <c r="G108" t="n">
-        <v>31666062610563.38</v>
+        <v>3.652232478892175e-05</v>
       </c>
       <c r="H108" t="n">
-        <v>2.406111457428</v>
+        <v>2.301510369675944</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6615231072279673</v>
+        <v>0.6804940805472339</v>
       </c>
       <c r="J108" t="n">
-        <v>0.6015278643569999</v>
+        <v>0.575377592418986</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>711146876943172</v>
+        <v>0.0008175327044620945</v>
       </c>
       <c r="C109" t="n">
-        <v>61832746586734.06</v>
+        <v>7.481558791845366e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>4146090391914</v>
+        <v>3.095358710493434e-07</v>
       </c>
       <c r="E109" t="n">
-        <v>15310865174436.01</v>
+        <v>1.764964756281059e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>27591965404219.14</v>
+        <v>3.176715341997166e-05</v>
       </c>
       <c r="G109" t="n">
-        <v>34545497264495.4</v>
+        <v>3.980975526884081e-05</v>
       </c>
       <c r="H109" t="n">
-        <v>1.366752726758627</v>
+        <v>1.340529798622007</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8499524717211271</v>
+        <v>0.8544624996436154</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3416881816896569</v>
+        <v>0.3351324496555017</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>885643343029824.2</v>
+        <v>0.001018929349845402</v>
       </c>
       <c r="C110" t="n">
-        <v>73976624173093.06</v>
+        <v>8.340501093016361e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>-3014472319938.5</v>
+        <v>-3.223504817061965e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>18971551811384.94</v>
+        <v>2.185114755441302e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>33901192609923.75</v>
+        <v>3.909101174675341e-05</v>
       </c>
       <c r="G110" t="n">
-        <v>42542120410828.9</v>
+        <v>4.902109532688512e-05</v>
       </c>
       <c r="H110" t="n">
-        <v>1.647031648233051</v>
+        <v>1.692968506165039</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8003153711918687</v>
+        <v>0.7919945046304441</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4117579120582627</v>
+        <v>0.4232421265412598</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>1087209148105689</v>
+        <v>0.001247460824947995</v>
       </c>
       <c r="C111" t="n">
-        <v>61181006296554.56</v>
+        <v>7.082016488962005e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>-3823472579674.25</v>
+        <v>-6.592727247807474e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>23299586088942.92</v>
+        <v>2.67669666680588e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>41659365099864.12</v>
+        <v>4.78117305767229e-05</v>
       </c>
       <c r="G111" t="n">
-        <v>51808447928749.58</v>
+        <v>5.952112417127881e-05</v>
       </c>
       <c r="H111" t="n">
-        <v>1.757933126371526</v>
+        <v>1.94844542146101</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7801690609959411</v>
+        <v>0.7452407532880542</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4394832815928814</v>
+        <v>0.4871113553652525</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>1098979303630393</v>
+        <v>0.001263384076862166</v>
       </c>
       <c r="C112" t="n">
-        <v>66324446701326.5</v>
+        <v>7.274092637460101e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>5498578612139</v>
+        <v>7.790413733666608e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>23616425110298.35</v>
+        <v>2.718914806098713e-05</v>
       </c>
       <c r="F112" t="n">
-        <v>42306976431736.07</v>
+        <v>4.875048050790875e-05</v>
       </c>
       <c r="G112" t="n">
-        <v>52717452552141.11</v>
+        <v>6.070372215486925e-05</v>
       </c>
       <c r="H112" t="n">
-        <v>2.579595708326962</v>
+        <v>2.833520811751096</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6304418767533827</v>
+        <v>0.5860603913574337</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6448989270817406</v>
+        <v>0.708380202937774</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>1232723142263198</v>
+        <v>0.001413804343829883</v>
       </c>
       <c r="C113" t="n">
-        <v>45763681035801</v>
+        <v>5.245743792539235e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>7283619269152</v>
+        <v>9.543771503319008e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>26459978944660.82</v>
+        <v>3.038050410630124e-05</v>
       </c>
       <c r="F113" t="n">
-        <v>47256290856907.14</v>
+        <v>5.422473250135988e-05</v>
       </c>
       <c r="G113" t="n">
-        <v>58629540250341.6</v>
+        <v>6.733538930186415e-05</v>
       </c>
       <c r="H113" t="n">
-        <v>2.035947677975442</v>
+        <v>2.344664804435386</v>
       </c>
       <c r="I113" t="n">
-        <v>0.7291470293399971</v>
+        <v>0.6726494429722223</v>
       </c>
       <c r="J113" t="n">
-        <v>0.5089869194938604</v>
+        <v>0.5861662011088464</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>1260358494386712</v>
+        <v>0.001446600898177284</v>
       </c>
       <c r="C114" t="n">
-        <v>56837811062016.38</v>
+        <v>6.389627112961217e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>-4431806921885.5</v>
+        <v>-4.728148690352416e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>27019526730401.15</v>
+        <v>3.103994996018391e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>48334576330257.18</v>
+        <v>5.553910633173917e-05</v>
       </c>
       <c r="G114" t="n">
-        <v>59874193859224.42</v>
+        <v>6.878380016275577e-05</v>
       </c>
       <c r="H114" t="n">
-        <v>1.57300981149782</v>
+        <v>1.712134267319456</v>
       </c>
       <c r="I114" t="n">
-        <v>0.8136347194834808</v>
+        <v>0.7885122563673898</v>
       </c>
       <c r="J114" t="n">
-        <v>0.393252452874455</v>
+        <v>0.4280335668298639</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>1251903881089818</v>
+        <v>0.001437927318933397</v>
       </c>
       <c r="C115" t="n">
-        <v>56924682041926.25</v>
+        <v>5.837832700254916e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>3917107817758</v>
+        <v>8.807659935882199e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>26881433031080.48</v>
+        <v>3.090691797559044e-05</v>
       </c>
       <c r="F115" t="n">
-        <v>47908252124595.72</v>
+        <v>5.518243979315116e-05</v>
       </c>
       <c r="G115" t="n">
-        <v>59676481486447.79</v>
+        <v>6.863958130853046e-05</v>
       </c>
       <c r="H115" t="n">
-        <v>2.330479691458939</v>
+        <v>2.396922746394651</v>
       </c>
       <c r="I115" t="n">
-        <v>0.6752254072656791</v>
+        <v>0.6631834479490357</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5826199228647346</v>
+        <v>0.5992306865986626</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>1231477950962289</v>
+        <v>0.001413878171703023</v>
       </c>
       <c r="C116" t="n">
-        <v>65493408372784.25</v>
+        <v>7.477639910974485e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>-6423937011767</v>
+        <v>-6.989476737747583e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>26423088847491.1</v>
+        <v>3.037049835831249e-05</v>
       </c>
       <c r="F116" t="n">
-        <v>47190867857247.62</v>
+        <v>5.428299965210549e-05</v>
       </c>
       <c r="G116" t="n">
-        <v>58609325513438.27</v>
+        <v>6.738684564079893e-05</v>
       </c>
       <c r="H116" t="n">
-        <v>2.027816097989139</v>
+        <v>2.115951603485671</v>
       </c>
       <c r="I116" t="n">
-        <v>0.7306425608589024</v>
+        <v>0.7144423843783911</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5069540244972848</v>
+        <v>0.5289879008714177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>1232424934386821</v>
+        <v>0.001412943844334474</v>
       </c>
       <c r="C117" t="n">
-        <v>49358727492894.62</v>
+        <v>6.041466254853964e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>38982099735650.25</v>
+        <v>4.044424944377569e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>26489603543546.3</v>
+        <v>3.042414390113234e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>47803338740206.91</v>
+        <v>5.480258978232296e-05</v>
       </c>
       <c r="G117" t="n">
-        <v>59037775681740.21</v>
+        <v>6.783080738496199e-05</v>
       </c>
       <c r="H117" t="n">
-        <v>3.519872892263196</v>
+        <v>3.912948399367953</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4748630684609588</v>
+        <v>0.4179151781709917</v>
       </c>
       <c r="J117" t="n">
-        <v>0.879968223065799</v>
+        <v>0.9782370998419884</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>1171625750321631</v>
+        <v>0.00134248747869666</v>
       </c>
       <c r="C118" t="n">
-        <v>58417830174637.25</v>
+        <v>7.069797739726674e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>5740302928414.5</v>
+        <v>4.073900149784843e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>25111107692926.71</v>
+        <v>2.879955755623567e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>44885346241407.93</v>
+        <v>5.139984897336084e-05</v>
       </c>
       <c r="G118" t="n">
-        <v>55960144901647.52</v>
+        <v>6.416857881761465e-05</v>
       </c>
       <c r="H118" t="n">
-        <v>2.061018365489657</v>
+        <v>2.241126001015968</v>
       </c>
       <c r="I118" t="n">
-        <v>0.7245368961137602</v>
+        <v>0.6915074316416949</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5152545913724143</v>
+        <v>0.560281500253992</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>1141684733450313</v>
+        <v>0.001310767535726473</v>
       </c>
       <c r="C119" t="n">
-        <v>55151700942936.75</v>
+        <v>6.043308115061838e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>-10290995196635</v>
+        <v>-9.100313606751195e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>24513626293486.18</v>
+        <v>2.817646984259285e-05</v>
       </c>
       <c r="F119" t="n">
-        <v>43820850820374.37</v>
+        <v>5.043724645340643e-05</v>
       </c>
       <c r="G119" t="n">
-        <v>54303295556208.04</v>
+        <v>6.244172008287701e-05</v>
       </c>
       <c r="H119" t="n">
-        <v>1.485912309950519</v>
+        <v>1.609106514387507</v>
       </c>
       <c r="I119" t="n">
-        <v>0.829133960786282</v>
+        <v>0.8071544840503637</v>
       </c>
       <c r="J119" t="n">
-        <v>0.3714780774876297</v>
+        <v>0.4022766285968767</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>939322193780635</v>
+        <v>0.001079480795987339</v>
       </c>
       <c r="C120" t="n">
-        <v>34146799092316.62</v>
+        <v>3.718380453093112e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>-5594714979147</v>
+        <v>-4.357305650314275e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>20194306605930.86</v>
+        <v>2.323764320034518e-05</v>
       </c>
       <c r="F120" t="n">
-        <v>36002605787586.47</v>
+        <v>4.145890512661363e-05</v>
       </c>
       <c r="G120" t="n">
-        <v>44634836810619.89</v>
+        <v>5.137270294251754e-05</v>
       </c>
       <c r="H120" t="n">
-        <v>1.732777229561994</v>
+        <v>1.828527776872258</v>
       </c>
       <c r="I120" t="n">
-        <v>0.7847553442360474</v>
+        <v>0.7672590945132867</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4331943073904985</v>
+        <v>0.4571319442180645</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>871142874589816.9</v>
+        <v>0.001002487270452292</v>
       </c>
       <c r="C121" t="n">
-        <v>47159776712352.19</v>
+        <v>5.25565626767633e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>20434830699005.75</v>
+        <v>2.507855391933205e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>18762417995122.17</v>
+        <v>2.163835173932433e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>33738133569800.29</v>
+        <v>3.893118776737842e-05</v>
       </c>
       <c r="G121" t="n">
-        <v>41951330077961.56</v>
+        <v>4.838260709804151e-05</v>
       </c>
       <c r="H121" t="n">
-        <v>3.895449896262053</v>
+        <v>4.221934421480767</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4203400386920417</v>
+        <v>0.3768027143331157</v>
       </c>
       <c r="J121" t="n">
-        <v>0.9738624740655133</v>
+        <v>1.055483605370192</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>733741273274903.6</v>
+        <v>0.0008436402989069379</v>
       </c>
       <c r="C122" t="n">
-        <v>51247926918151.06</v>
+        <v>5.967406882661597e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>-5409263939879.75</v>
+        <v>-6.307480006777048e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>15749858845203.01</v>
+        <v>1.813500350335202e-05</v>
       </c>
       <c r="F122" t="n">
-        <v>28090257316857</v>
+        <v>3.235551800784821e-05</v>
       </c>
       <c r="G122" t="n">
-        <v>35169938469882.52</v>
+        <v>4.049273494344525e-05</v>
       </c>
       <c r="H122" t="n">
-        <v>2.009735221326345</v>
+        <v>2.085005746425141</v>
       </c>
       <c r="I122" t="n">
-        <v>0.7339681955064323</v>
+        <v>0.7201275580193697</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5024338053315862</v>
+        <v>0.5212514366062853</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>570169330945967.9</v>
+        <v>0.0006555024557525501</v>
       </c>
       <c r="C123" t="n">
-        <v>27746935155927.38</v>
+        <v>3.609829191101254e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>-6769462083089.375</v>
+        <v>-1.076988212644187e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>12236610480218.19</v>
+        <v>1.40915367228798e-05</v>
       </c>
       <c r="F123" t="n">
-        <v>21898605663160.95</v>
+        <v>2.515286566675337e-05</v>
       </c>
       <c r="G123" t="n">
-        <v>27122775887153.32</v>
+        <v>3.122262169399049e-05</v>
       </c>
       <c r="H123" t="n">
-        <v>1.085248030416231</v>
+        <v>1.146454232839146</v>
       </c>
       <c r="I123" t="n">
-        <v>0.8966056525936053</v>
+        <v>0.8868334176662028</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2713120076040578</v>
+        <v>0.2866135582097865</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>520960766850428.5</v>
+        <v>0.0006003142374866948</v>
       </c>
       <c r="C124" t="n">
-        <v>22262162620631.5</v>
+        <v>2.662143575025375e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>3879855847412.875</v>
+        <v>3.807548561675562e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>11289955921520.43</v>
+        <v>1.30621478430669e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>20256912837081.32</v>
+        <v>2.344527557892373e-05</v>
       </c>
       <c r="G124" t="n">
-        <v>25052160210805.02</v>
+        <v>2.898058471838479e-05</v>
       </c>
       <c r="H124" t="n">
-        <v>3.125930391331025</v>
+        <v>3.371273568037771</v>
       </c>
       <c r="I124" t="n">
-        <v>0.5369768324766988</v>
+        <v>0.4977193471937605</v>
       </c>
       <c r="J124" t="n">
-        <v>0.7814825978327562</v>
+        <v>0.8428183920094428</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>448692220540397.1</v>
+        <v>0.0005178244503995187</v>
       </c>
       <c r="C125" t="n">
-        <v>34479375878103.5</v>
+        <v>4.017767321469619e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>-3094872636178.75</v>
+        <v>-3.063330983231471e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>9669270536604.275</v>
+        <v>1.12047009314953e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>17261717267966.9</v>
+        <v>2.003597660007684e-05</v>
       </c>
       <c r="G125" t="n">
-        <v>21641672416492.27</v>
+        <v>2.508721013839019e-05</v>
       </c>
       <c r="H125" t="n">
-        <v>1.864448669641099</v>
+        <v>2.080651736029366</v>
       </c>
       <c r="I125" t="n">
-        <v>0.7606724072789226</v>
+        <v>0.7209277651900248</v>
       </c>
       <c r="J125" t="n">
-        <v>0.4661121674102747</v>
+        <v>0.5201629340073416</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>426836320020814</v>
+        <v>0.0004924906667120909</v>
       </c>
       <c r="C126" t="n">
-        <v>22045869316955.56</v>
+        <v>2.70614937335188e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>-9011085637271.75</v>
+        <v>-1.193212837764226e-05</v>
       </c>
       <c r="E126" t="n">
-        <v>9249707380345.838</v>
+        <v>1.072739100652768e-05</v>
       </c>
       <c r="F126" t="n">
-        <v>16570612429065.32</v>
+        <v>1.923264558429783e-05</v>
       </c>
       <c r="G126" t="n">
-        <v>20475999947145.59</v>
+        <v>2.375334815827928e-05</v>
       </c>
       <c r="H126" t="n">
-        <v>1.127067769283253</v>
+        <v>1.20393898559083</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8899541676002523</v>
+        <v>0.8774496646326047</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2817669423208132</v>
+        <v>0.3009847463977074</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>428220507490185.8</v>
+        <v>0.0004949468721124604</v>
       </c>
       <c r="C127" t="n">
-        <v>21778524139869.84</v>
+        <v>2.51889002543737e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>-10759529344954.62</v>
+        <v>-1.223440132294793e-05</v>
       </c>
       <c r="E127" t="n">
-        <v>9274055679623.66</v>
+        <v>1.077005647761174e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>16541606483744.85</v>
+        <v>1.92474311757832e-05</v>
       </c>
       <c r="G127" t="n">
-        <v>20435643272069.94</v>
+        <v>2.373124344150636e-05</v>
       </c>
       <c r="H127" t="n">
-        <v>0.8425793320654937</v>
+        <v>0.8305638677372693</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9326502717834274</v>
+        <v>0.9343042203483083</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2106448330163734</v>
+        <v>0.2076409669343173</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>424475654734085.6</v>
+        <v>0.0004905477146969549</v>
       </c>
       <c r="C128" t="n">
-        <v>31506276578122.97</v>
+        <v>3.90182152419042e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-26537872534269.25</v>
+        <v>-3.382955916922425e-05</v>
       </c>
       <c r="E128" t="n">
-        <v>9279342421068.648</v>
+        <v>1.081870813572907e-05</v>
       </c>
       <c r="F128" t="n">
-        <v>16512622741797.02</v>
+        <v>1.924856202342214e-05</v>
       </c>
       <c r="G128" t="n">
-        <v>20471054310057.36</v>
+        <v>2.385186870040723e-05</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3492930994412664</v>
+        <v>0.2781407338299512</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9864138797390224</v>
+        <v>0.9911812108576709</v>
       </c>
       <c r="J128" t="n">
-        <v>0.08732327486031659</v>
+        <v>0.06953518345748781</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>411413651206251.9</v>
+        <v>0.0004747381804099421</v>
       </c>
       <c r="C129" t="n">
-        <v>26298216178166.41</v>
+        <v>2.850211521796426e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>-23814061577071.38</v>
+        <v>-2.513314490270224e-05</v>
       </c>
       <c r="E129" t="n">
-        <v>9221139707796.865</v>
+        <v>1.086988650434233e-05</v>
       </c>
       <c r="F129" t="n">
-        <v>16530601690782.41</v>
+        <v>1.967075287172613e-05</v>
       </c>
       <c r="G129" t="n">
-        <v>20399787526943.11</v>
+        <v>2.399940540601644e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.5053991269948169</v>
+        <v>0.4117121562128261</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9729732494036163</v>
+        <v>0.9815068117539776</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1263497817487042</v>
+        <v>0.1029280390532065</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>415053918225168.2</v>
+        <v>0.0004795190622356338</v>
       </c>
       <c r="C130" t="n">
-        <v>22628104980093.97</v>
+        <v>2.602875028297159e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>-19288502326175.25</v>
+        <v>-2.408047876788168e-05</v>
       </c>
       <c r="E130" t="n">
-        <v>9378084894854.867</v>
+        <v>1.111875264582302e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>16765424654768.39</v>
+        <v>2.005247442396532e-05</v>
       </c>
       <c r="G130" t="n">
-        <v>20619726803071.42</v>
+        <v>2.440879869546924e-05</v>
       </c>
       <c r="H130" t="n">
-        <v>1.095968344185355</v>
+        <v>0.6949636725372031</v>
       </c>
       <c r="I130" t="n">
-        <v>0.8949113447814736</v>
+        <v>0.9519485477461531</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2739920860463387</v>
+        <v>0.1737409181343008</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>418688985208763.2</v>
+        <v>0.0004854459674058228</v>
       </c>
       <c r="C131" t="n">
-        <v>9908536022425.875</v>
+        <v>1.173719056550641e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>10269994818800</v>
+        <v>1.15762163513018e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>9593448840658.232</v>
+        <v>1.145630015189541e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>17449021095596.58</v>
+        <v>2.09974546788972e-05</v>
       </c>
       <c r="G131" t="n">
-        <v>21231504831160.21</v>
+        <v>2.529013666683136e-05</v>
       </c>
       <c r="H131" t="n">
-        <v>4.172419021583126</v>
+        <v>4.489025057510961</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3831740829375284</v>
+        <v>0.3438508084160384</v>
       </c>
       <c r="J131" t="n">
-        <v>1.043104755395782</v>
+        <v>1.12225626437774</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>468459937498036.2</v>
+        <v>0.0005385768594074822</v>
       </c>
       <c r="C132" t="n">
-        <v>27764522892607.78</v>
+        <v>3.425905127947603e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>-16548957272605.88</v>
+        <v>-1.981195196867013e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>10518371005606.3</v>
+        <v>1.239319985064076e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>18947250433996.26</v>
+        <v>2.244087837912324e-05</v>
       </c>
       <c r="G132" t="n">
-        <v>23206707698236.26</v>
+        <v>2.73585686122804e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3192782330509968</v>
+        <v>0.4000706192253951</v>
       </c>
       <c r="I132" t="n">
-        <v>0.988535952514504</v>
+        <v>0.9824711214721229</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0798195582627492</v>
+        <v>0.1000176548063488</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>510380767108499.5</v>
+        <v>0.0005889863724444662</v>
       </c>
       <c r="C133" t="n">
-        <v>16186180349773.38</v>
+        <v>1.997252169223302e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>-22891510602161.12</v>
+        <v>-2.686986989630755e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>11433301136298.31</v>
+        <v>1.347648697252575e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>20566327769783.86</v>
+        <v>2.442253942638141e-05</v>
       </c>
       <c r="G133" t="n">
-        <v>24980369084846.12</v>
+        <v>2.946760282078093e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3176338270808454</v>
+        <v>0.3625873830844734</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9886475993815231</v>
+        <v>0.9854237720968483</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07940845677021136</v>
+        <v>0.09064684577111834</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>536749435557534.4</v>
+        <v>0.0006188644388032265</v>
       </c>
       <c r="C134" t="n">
-        <v>17025071419298.06</v>
+        <v>2.129458382633552e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>-25159989261925.38</v>
+        <v>-3.069528793390563e-05</v>
       </c>
       <c r="E134" t="n">
-        <v>12015822746480.91</v>
+        <v>1.412347761002738e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>21664441374758.09</v>
+        <v>2.559445327067647e-05</v>
       </c>
       <c r="G134" t="n">
-        <v>26142878677008.64</v>
+        <v>3.074543541381298e-05</v>
       </c>
       <c r="H134" t="n">
-        <v>0.7772058769892111</v>
+        <v>0.7831171012140454</v>
       </c>
       <c r="I134" t="n">
-        <v>0.94147754914702</v>
+        <v>0.9406970159420281</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1943014692473028</v>
+        <v>0.1957792753035114</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>542498284214874.9</v>
+        <v>0.0006267568343401412</v>
       </c>
       <c r="C135" t="n">
-        <v>32612690022850.19</v>
+        <v>3.746136952668901e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>-22299619335711.38</v>
+        <v>-2.899514543056481e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>12248506756572.19</v>
+        <v>1.446892072255575e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>21989596796722.83</v>
+        <v>2.612450525809125e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>27024366837740.09</v>
+        <v>3.19277253064194e-05</v>
       </c>
       <c r="H135" t="n">
-        <v>1.096521127640043</v>
+        <v>1.177325767593463</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8948237746419099</v>
+        <v>0.8818174872434708</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2741302819100108</v>
+        <v>0.2943314418983656</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>530949458876311.8</v>
+        <v>0.0006112363730944034</v>
       </c>
       <c r="C136" t="n">
-        <v>26825353256760.88</v>
+        <v>3.207267043231124e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>-32366759564878.38</v>
+        <v>-3.796048657414813e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>11908148928441.6</v>
+        <v>1.396159959585536e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>21456031385808.84</v>
+        <v>2.522407633929173e-05</v>
       </c>
       <c r="G136" t="n">
-        <v>26165634211736.3</v>
+        <v>3.066237207210944e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.5001556763469481</v>
+        <v>0.4261729947370875</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9734858219622807</v>
+        <v>0.9802785026446963</v>
       </c>
       <c r="J136" t="n">
-        <v>0.125038919086737</v>
+        <v>0.1065432486842719</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>504873618491211.5</v>
+        <v>0.0005811057740307053</v>
       </c>
       <c r="C137" t="n">
-        <v>29407511537242.69</v>
+        <v>3.523645386645696e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-787034187559.625</v>
+        <v>-1.587971661540124e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>11365180831175.19</v>
+        <v>1.331496063826212e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>20617659929241.91</v>
+        <v>2.425621932082884e-05</v>
       </c>
       <c r="G137" t="n">
-        <v>25347419336578.06</v>
+        <v>2.968773931666998e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>1.941114668520562</v>
+        <v>2.346480832777048</v>
       </c>
       <c r="I137" t="n">
-        <v>0.7465886456230009</v>
+        <v>0.6723198508108781</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4852786671301405</v>
+        <v>0.586620208194262</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>433800564146799.8</v>
+        <v>0.0005007748748343772</v>
       </c>
       <c r="C138" t="n">
-        <v>24643385834974.75</v>
+        <v>2.955228980313452e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-22531191947195.25</v>
+        <v>-2.836771530847755e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>9670678634296.561</v>
+        <v>1.133395448435698e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>17333763041984.11</v>
+        <v>2.039219974721569e-05</v>
       </c>
       <c r="G138" t="n">
-        <v>21322210973591.18</v>
+        <v>2.496884855678852e-05</v>
       </c>
       <c r="H138" t="n">
-        <v>0.7108349791638143</v>
+        <v>0.3866270713049565</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9499860560722538</v>
+        <v>0.9835570710844944</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1777087447909536</v>
+        <v>0.09665676782623914</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>271389631796271.2</v>
+        <v>0.0003144646372976646</v>
       </c>
       <c r="C139" t="n">
-        <v>11583410339243.22</v>
+        <v>1.241701450266613e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>-10369300497738.69</v>
+        <v>-1.03452453587467e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>6056641029577.873</v>
+        <v>7.189242804113427e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>10899556004840.91</v>
+        <v>1.304436586827213e-05</v>
       </c>
       <c r="G139" t="n">
-        <v>13351564784247.38</v>
+        <v>1.584726750828571e-05</v>
       </c>
       <c r="H139" t="n">
-        <v>0.4787704138434226</v>
+        <v>0.4850026519481698</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9755345018938794</v>
+        <v>0.97494445405842</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1196926034608557</v>
+        <v>0.1212506629870425</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>228430312559777.3</v>
+        <v>0.0002649791751364269</v>
       </c>
       <c r="C140" t="n">
-        <v>4132722018751.453</v>
+        <v>7.198386126328917e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>8563747065585.438</v>
+        <v>8.537683730310789e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>5168434433672.025</v>
+        <v>6.200490582280244e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>9509784127374.518</v>
+        <v>1.148810671225012e-05</v>
       </c>
       <c r="G140" t="n">
-        <v>11568763768997.12</v>
+        <v>1.384993193698501e-05</v>
       </c>
       <c r="H140" t="n">
-        <v>4.027267827490149</v>
+        <v>3.305880366919743</v>
       </c>
       <c r="I140" t="n">
-        <v>0.4023281286645274</v>
+        <v>0.5080011054551965</v>
       </c>
       <c r="J140" t="n">
-        <v>1.006816956872537</v>
+        <v>0.8264700917299357</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>183374840152104.8</v>
+        <v>0.0002144504797710429</v>
       </c>
       <c r="C141" t="n">
-        <v>11701123900007.55</v>
+        <v>1.236381896625911e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>-9728395932758.594</v>
+        <v>-1.062160469538387e-05</v>
       </c>
       <c r="E141" t="n">
-        <v>4072815656587.061</v>
+        <v>4.893541637998593e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>7283465960785.883</v>
+        <v>8.834754709399644e-06</v>
       </c>
       <c r="G141" t="n">
-        <v>8959498876521.766</v>
+        <v>1.075629117016968e-05</v>
       </c>
       <c r="H141" t="n">
-        <v>0.1469896256170846</v>
+        <v>0.1856775091993219</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9974280067367348</v>
+        <v>0.9959481491743011</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03674740640427114</v>
+        <v>0.04641937729983048</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>141757173784112</v>
+        <v>0.0001661759423754702</v>
       </c>
       <c r="C142" t="n">
-        <v>12996199687846.2</v>
+        <v>1.559586530988211e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>-3844514778933.25</v>
+        <v>-4.097143195786119e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>3202630344705.854</v>
+        <v>3.919883920734945e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>5781954523674.661</v>
+        <v>7.193753298150009e-06</v>
       </c>
       <c r="G142" t="n">
-        <v>7149069518407.103</v>
+        <v>8.779992441915088e-06</v>
       </c>
       <c r="H142" t="n">
-        <v>1.346559224359452</v>
+        <v>1.061692551518262</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8534280229530596</v>
+        <v>0.9003014999090193</v>
       </c>
       <c r="J142" t="n">
-        <v>0.336639806089863</v>
+        <v>0.2654231378795656</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>132918808792600.5</v>
+        <v>0.0001568822831304025</v>
       </c>
       <c r="C143" t="n">
-        <v>3390461082977.5</v>
+        <v>1.180758914921668e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>3065944851168.75</v>
+        <v>6.134388596523238e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>3061293632118.089</v>
+        <v>3.801868894528873e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>5620344786990.445</v>
+        <v>7.122170242649972e-06</v>
       </c>
       <c r="G143" t="n">
-        <v>6795306847577.643</v>
+        <v>8.41957704587183e-06</v>
       </c>
       <c r="H143" t="n">
-        <v>2.942535809057902</v>
+        <v>3.31724096175412</v>
       </c>
       <c r="I143" t="n">
-        <v>0.5674874956751537</v>
+        <v>0.5062052250477288</v>
       </c>
       <c r="J143" t="n">
-        <v>0.7356339522644755</v>
+        <v>0.8293102404385301</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>130328253916878.8</v>
+        <v>0.000154089005918005</v>
       </c>
       <c r="C144" t="n">
-        <v>124764223628.1719</v>
+        <v>-4.989268997623278e-08</v>
       </c>
       <c r="D144" t="n">
-        <v>-4116513899587.406</v>
+        <v>-3.407759326780574e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>3376011570125.793</v>
+        <v>4.607453927990762e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>6286543664462.248</v>
+        <v>8.89001613696063e-06</v>
       </c>
       <c r="G144" t="n">
-        <v>7405788033019.114</v>
+        <v>1.026857875600695e-05</v>
       </c>
       <c r="H144" t="n">
-        <v>2.758600074102822</v>
+        <v>3.790567534017889</v>
       </c>
       <c r="I144" t="n">
-        <v>0.5989999917115909</v>
+        <v>0.4350907534227172</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6896500185257055</v>
+        <v>0.9476418835044723</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>133644742707566.7</v>
+        <v>0.000157784197857756</v>
       </c>
       <c r="C145" t="n">
-        <v>9102218232145.391</v>
+        <v>6.818113823086334e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>-2180278091240.375</v>
+        <v>-2.19094111223513e-07</v>
       </c>
       <c r="E145" t="n">
-        <v>3330897763136.532</v>
+        <v>4.752274524372786e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>6147630730235.451</v>
+        <v>9.306042965637088e-06</v>
       </c>
       <c r="G145" t="n">
-        <v>7392970689158.643</v>
+        <v>1.060345129939867e-05</v>
       </c>
       <c r="H145" t="n">
-        <v>0.5764401191911985</v>
+        <v>0.3455220118250097</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9656454001174308</v>
+        <v>0.9866891799995434</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1441100297977996</v>
+        <v>0.08638050295625244</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>127373636838655.4</v>
+        <v>0.0001499738488805022</v>
       </c>
       <c r="C146" t="n">
-        <v>3551614141399.969</v>
+        <v>4.898490532514679e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>6824872914074.594</v>
+        <v>1.170001813747003e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>3398159866583.526</v>
+        <v>5.002151341238136e-06</v>
       </c>
       <c r="F146" t="n">
-        <v>6360515906301.394</v>
+        <v>9.688346330108624e-06</v>
       </c>
       <c r="G146" t="n">
-        <v>7580117717406.309</v>
+        <v>1.115325145024903e-05</v>
       </c>
       <c r="H146" t="n">
-        <v>3.942330008972755</v>
+        <v>2.207732998603718</v>
       </c>
       <c r="I146" t="n">
-        <v>0.4138668930681516</v>
+        <v>0.6976137770703357</v>
       </c>
       <c r="J146" t="n">
-        <v>0.9855825022431888</v>
+        <v>0.5519332496509295</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>127316713753435.2</v>
+        <v>0.0001498256101716457</v>
       </c>
       <c r="C147" t="n">
-        <v>22766779202520.95</v>
+        <v>2.434346962019075e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>-5894613063315.156</v>
+        <v>-2.220110063326714e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>3499979655514.659</v>
+        <v>5.321681946310979e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>6442780815514.351</v>
+        <v>1.017612931668537e-05</v>
       </c>
       <c r="G147" t="n">
-        <v>7977175319530.566</v>
+        <v>1.220762689615131e-05</v>
       </c>
       <c r="H147" t="n">
-        <v>1.76133095469926</v>
+        <v>1.99400192060647</v>
       </c>
       <c r="I147" t="n">
-        <v>0.779548957765927</v>
+        <v>0.736862165734231</v>
       </c>
       <c r="J147" t="n">
-        <v>0.440332738674815</v>
+        <v>0.4985004801516175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>127507549881145.1</v>
+        <v>0.0001509952152315341</v>
       </c>
       <c r="C148" t="n">
-        <v>7101080140919.484</v>
+        <v>8.559142757422932e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>-2179170902853.062</v>
+        <v>-5.875558899981871e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>3501370330349.827</v>
+        <v>5.306863430275674e-06</v>
       </c>
       <c r="F148" t="n">
-        <v>6453748954092.024</v>
+        <v>1.008852488039108e-05</v>
       </c>
       <c r="G148" t="n">
-        <v>7705803455927.411</v>
+        <v>1.154358260337296e-05</v>
       </c>
       <c r="H148" t="n">
-        <v>1.734534680061789</v>
+        <v>1.103751226493688</v>
       </c>
       <c r="I148" t="n">
-        <v>0.7844352134800086</v>
+        <v>0.8936765762452135</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4336336700154473</v>
+        <v>0.275937806623422</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>126954312743451.1</v>
+        <v>0.0001491250498508947</v>
       </c>
       <c r="C149" t="n">
-        <v>708823052507.8594</v>
+        <v>4.188613371471908e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>9492260205878.625</v>
+        <v>7.421821234248e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>3470801342751.087</v>
+        <v>5.432350824344991e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>6558588659109.566</v>
+        <v>1.080093954125226e-05</v>
       </c>
       <c r="G149" t="n">
-        <v>7633717463025.762</v>
+        <v>1.198644550550814e-05</v>
       </c>
       <c r="H149" t="n">
-        <v>2.422518687353811</v>
+        <v>1.023480070353142</v>
       </c>
       <c r="I149" t="n">
-        <v>0.6585616425169627</v>
+        <v>0.9062149887992114</v>
       </c>
       <c r="J149" t="n">
-        <v>0.6056296718384528</v>
+        <v>0.2558700175882855</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>124862597343529.7</v>
+        <v>0.0001462175512200681</v>
       </c>
       <c r="C150" t="n">
-        <v>4811285555263</v>
+        <v>5.8306347567265e-06</v>
       </c>
       <c r="D150" t="n">
-        <v>-7760376761231.469</v>
+        <v>-9.078444439194333e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>3451765465031.524</v>
+        <v>5.738430102385013e-06</v>
       </c>
       <c r="F150" t="n">
-        <v>6349800636481.131</v>
+        <v>1.152152059244982e-05</v>
       </c>
       <c r="G150" t="n">
-        <v>7570069805879.052</v>
+        <v>1.272816261362962e-05</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8388629670189323</v>
+        <v>0.3040992940489344</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9331633101396893</v>
+        <v>0.9895480162918364</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2097157417547331</v>
+        <v>0.07602482351223359</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>122139984537016.3</v>
+        <v>0.0001425040093390057</v>
       </c>
       <c r="C151" t="n">
-        <v>8247619026047.906</v>
+        <v>1.370628638748826e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>1085515297809.25</v>
+        <v>4.690000558491524e-06</v>
       </c>
       <c r="E151" t="n">
-        <v>3333068911382.635</v>
+        <v>5.401615737112318e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>6251104966803.155</v>
+        <v>1.033152754967392e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>7619148338447.968</v>
+        <v>1.238491493194092e-05</v>
       </c>
       <c r="H151" t="n">
-        <v>8.023255918152238</v>
+        <v>3.962238631871232</v>
       </c>
       <c r="I151" t="n">
-        <v>0.09073000553184633</v>
+        <v>0.4111404166154174</v>
       </c>
       <c r="J151" t="n">
-        <v>2.005813979538059</v>
+        <v>0.990559657967808</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>122361628656508.2</v>
+        <v>0.0001406823238087234</v>
       </c>
       <c r="C152" t="n">
-        <v>-5424040952965.891</v>
+        <v>3.224615369114465e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>4958131166428.938</v>
+        <v>-4.464368150450422e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>3404913109813.265</v>
+        <v>5.544527232792926e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>6473382133867.362</v>
+        <v>1.105764878280006e-05</v>
       </c>
       <c r="G152" t="n">
-        <v>7465366472576.204</v>
+        <v>1.239765669516306e-05</v>
       </c>
       <c r="H152" t="n">
-        <v>2.001658795108875</v>
+        <v>0.6610727842683786</v>
       </c>
       <c r="I152" t="n">
-        <v>0.7354537640690166</v>
+        <v>0.9560412399400682</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5004146987772187</v>
+        <v>0.1652681960670946</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>110806132361239.3</v>
+        <v>0.0001320482221476352</v>
       </c>
       <c r="C153" t="n">
-        <v>16409096037743.16</v>
+        <v>1.833740666553074e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>169191880411.9688</v>
+        <v>-1.01332559899732e-06</v>
       </c>
       <c r="E153" t="n">
-        <v>3080482570743.457</v>
+        <v>5.14846653167752e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>5688997163734.873</v>
+        <v>1.019575125189058e-05</v>
       </c>
       <c r="G153" t="n">
-        <v>7029751887248.743</v>
+        <v>1.173886875018045e-05</v>
       </c>
       <c r="H153" t="n">
-        <v>4.180333998747138</v>
+        <v>2.10525690271236</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3821500811968176</v>
+        <v>0.7164066630547394</v>
       </c>
       <c r="J153" t="n">
-        <v>1.045083499686785</v>
+        <v>0.5263142256780901</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>112107031224999.4</v>
+        <v>0.0001329734458245822</v>
       </c>
       <c r="C154" t="n">
-        <v>950531922896.3281</v>
+        <v>1.394581838342623e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>7764436041582.375</v>
+        <v>1.040903107677894e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>3181365593130.129</v>
+        <v>5.099227317541535e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>6038891566313.738</v>
+        <v>9.855403775065803e-06</v>
       </c>
       <c r="G154" t="n">
-        <v>7165578529121.388</v>
+        <v>1.166791426899285e-05</v>
       </c>
       <c r="H154" t="n">
-        <v>8.513747877630939</v>
+        <v>3.735809428993454</v>
       </c>
       <c r="I154" t="n">
-        <v>0.07447160278386852</v>
+        <v>0.4429390885646241</v>
       </c>
       <c r="J154" t="n">
-        <v>2.128436969407735</v>
+        <v>0.9339523572483635</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>113194851398485.8</v>
+        <v>0.0001353948002888573</v>
       </c>
       <c r="C155" t="n">
-        <v>2157603183710.234</v>
+        <v>1.824124073402988e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>-5848044010550.906</v>
+        <v>-6.207009927003274e-06</v>
       </c>
       <c r="E155" t="n">
-        <v>3213517541825.264</v>
+        <v>5.54887575016571e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>5866061284473.375</v>
+        <v>1.076051988042337e-05</v>
       </c>
       <c r="G155" t="n">
-        <v>6996602576151.071</v>
+        <v>1.209014117814958e-05</v>
       </c>
       <c r="H155" t="n">
-        <v>3.711039483426569</v>
+        <v>1.680683108394168</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4465223298564189</v>
+        <v>0.7942234989491789</v>
       </c>
       <c r="J155" t="n">
-        <v>0.9277598708566421</v>
+        <v>0.420170777098542</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>112556380541212.8</v>
+        <v>0.0001339368002657472</v>
       </c>
       <c r="C156" t="n">
-        <v>-1819722037185.906</v>
+        <v>-1.766502573569535e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>-1589941091014.344</v>
+        <v>-2.149560786356624e-06</v>
       </c>
       <c r="E156" t="n">
-        <v>3118717549425.994</v>
+        <v>4.915681537480908e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>5755738702194.797</v>
+        <v>9.527348936167673e-06</v>
       </c>
       <c r="G156" t="n">
-        <v>6797570917536.183</v>
+        <v>1.109187852208224e-05</v>
       </c>
       <c r="H156" t="n">
-        <v>2.731914913360316</v>
+        <v>1.677173950477522</v>
       </c>
       <c r="I156" t="n">
-        <v>0.6036415772110164</v>
+        <v>0.7948597087500758</v>
       </c>
       <c r="J156" t="n">
-        <v>0.6829787283400791</v>
+        <v>0.4192934876193805</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>99476279872270.5</v>
+        <v>0.0001182658875668872</v>
       </c>
       <c r="C157" t="n">
-        <v>6830526360692.305</v>
+        <v>6.258181464194508e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>3035710862298.422</v>
+        <v>2.000933806622462e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>2655093587081.149</v>
+        <v>4.144726541567295e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>4923096775304.761</v>
+        <v>7.872073396090478e-06</v>
       </c>
       <c r="G157" t="n">
-        <v>5941586949765.473</v>
+        <v>9.215476517260794e-06</v>
       </c>
       <c r="H157" t="n">
-        <v>5.761330464102368</v>
+        <v>2.69555573451115</v>
       </c>
       <c r="I157" t="n">
-        <v>0.217695356331989</v>
+        <v>0.609992525693007</v>
       </c>
       <c r="J157" t="n">
-        <v>1.440332616025592</v>
+        <v>0.6738889336277876</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>86944889756154.75</v>
+        <v>0.0001042160423224206</v>
       </c>
       <c r="C158" t="n">
-        <v>6326594843808.406</v>
+        <v>4.122461733278794e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>-5636354345653.484</v>
+        <v>-5.177104430702402e-07</v>
       </c>
       <c r="E158" t="n">
-        <v>2491020944256.428</v>
+        <v>3.956320511145999e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>4518645868532.887</v>
+        <v>7.748638728105411e-06</v>
       </c>
       <c r="G158" t="n">
-        <v>5451843270400.937</v>
+        <v>8.762223091147327e-06</v>
       </c>
       <c r="H158" t="n">
-        <v>5.72828285276098</v>
+        <v>3.233609187190521</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2203800088708756</v>
+        <v>0.5195196517645624</v>
       </c>
       <c r="J158" t="n">
-        <v>1.432070713190245</v>
+        <v>0.8084022967976303</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>82045381759377.45</v>
+        <v>9.825158301943857e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>3950686165217.875</v>
+        <v>7.432419631372517e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>-4902411954825.25</v>
+        <v>-6.457635118370245e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>2183164638854.515</v>
+        <v>3.223599250655131e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>4024760247963.487</v>
+        <v>6.301103909302888e-06</v>
       </c>
       <c r="G159" t="n">
-        <v>4770080525781.205</v>
+        <v>7.11807325892506e-06</v>
       </c>
       <c r="H159" t="n">
-        <v>0.1258942185843316</v>
+        <v>0.3798813962357481</v>
       </c>
       <c r="I159" t="n">
-        <v>0.9981000399681808</v>
+        <v>0.9840906858590229</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0314735546460829</v>
+        <v>0.09497034905893703</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>80027097296065</v>
+        <v>9.546037112449829e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>6096367563274.148</v>
+        <v>7.809717380600567e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>1147054968325.125</v>
+        <v>1.59879170757391e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>2285227042590.741</v>
+        <v>3.494418008934191e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>4306290143048.369</v>
+        <v>6.895375467460686e-06</v>
       </c>
       <c r="G160" t="n">
-        <v>5114536248794.995</v>
+        <v>8.046529974447564e-06</v>
       </c>
       <c r="H160" t="n">
-        <v>1.458296719617993</v>
+        <v>1.653329273738301</v>
       </c>
       <c r="I160" t="n">
-        <v>0.8340021071442323</v>
+        <v>0.799176916134143</v>
       </c>
       <c r="J160" t="n">
-        <v>0.3645741799044981</v>
+        <v>0.4133323184345752</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>99086246663049.8</v>
+        <v>0.0001194426448815921</v>
       </c>
       <c r="C161" t="n">
-        <v>3663948225663.406</v>
+        <v>3.255560779455961e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>-6277621291541.219</v>
+        <v>-7.881519928152535e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>2533577694226.042</v>
+        <v>3.457983900539127e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>4674650635906.923</v>
+        <v>6.524756332393077e-06</v>
       </c>
       <c r="G161" t="n">
-        <v>5524564368726.132</v>
+        <v>7.510648671399069e-06</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8135411708182813</v>
+        <v>1.313836581847749</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9366235177199145</v>
+        <v>0.8590236158241874</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2033852927045703</v>
+        <v>0.3284591454619372</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>173395793873688.9</v>
+        <v>0.0002047661483932359</v>
       </c>
       <c r="C162" t="n">
-        <v>13290126623254.53</v>
+        <v>1.585947777306136e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>-14222960911935.72</v>
+        <v>-1.696213415928636e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>4205180414859.121</v>
+        <v>5.370324838355433e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>7464680329348.731</v>
+        <v>9.779053718081516e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>9210894113280.115</v>
+        <v>1.171141182530128e-05</v>
       </c>
       <c r="H162" t="n">
-        <v>2.098685192673473</v>
+        <v>1.660141339223639</v>
       </c>
       <c r="I162" t="n">
-        <v>0.7176139423191088</v>
+        <v>0.7979446169732816</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5246712981683682</v>
+        <v>0.4150353348059098</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>211362863671946.8</v>
+        <v>0.0002474963806390065</v>
       </c>
       <c r="C163" t="n">
-        <v>7709425606923.312</v>
+        <v>1.045211231869193e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>-5342181806787.438</v>
+        <v>-6.957589337724598e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>4941720047123.148</v>
+        <v>6.110222311585727e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>9042595580954.092</v>
+        <v>1.1371296516624e-05</v>
       </c>
       <c r="G163" t="n">
-        <v>10866744456613.19</v>
+        <v>1.341865097127785e-05</v>
       </c>
       <c r="H163" t="n">
-        <v>0.5109502588278372</v>
+        <v>0.4181534745990584</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9724262524682473</v>
+        <v>0.9809638247689378</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1277375647069593</v>
+        <v>0.1045383686497646</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>225222960802008.2</v>
+        <v>0.0002641274563646609</v>
       </c>
       <c r="C164" t="n">
-        <v>12085058971043.16</v>
+        <v>1.550285494520583e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>-4702556450994.25</v>
+        <v>-3.966421031192274e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>5231117469255.348</v>
+        <v>6.405386883372231e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>9510350790354.453</v>
+        <v>1.177955744576867e-05</v>
       </c>
       <c r="G164" t="n">
-        <v>11570270237379.97</v>
+        <v>1.416638023000925e-05</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4322982955059339</v>
+        <v>0.4944351714304371</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9797481625531772</v>
+        <v>0.9740404495433135</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1080745738764835</v>
+        <v>0.1236087928576093</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>229818571430723.4</v>
+        <v>0.0002684212710747991</v>
       </c>
       <c r="C165" t="n">
-        <v>5044025431723.734</v>
+        <v>8.729576381727981e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>-2767920670963.562</v>
+        <v>-4.17941733510727e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>5369899447506.471</v>
+        <v>6.581064525512518e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>9829773641312.043</v>
+        <v>1.215632254963537e-05</v>
       </c>
       <c r="G165" t="n">
-        <v>11842384439321.61</v>
+        <v>1.446519997607491e-05</v>
       </c>
       <c r="H165" t="n">
-        <v>0.7073857109568851</v>
+        <v>0.584057408588304</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9504149986827932</v>
+        <v>0.9648186891043636</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1768464277392213</v>
+        <v>0.146014352147076</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>234347637436355.2</v>
+        <v>0.0002761204787305192</v>
       </c>
       <c r="C166" t="n">
-        <v>14816606691856.56</v>
+        <v>1.682739211076448e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>4505646698741.5</v>
+        <v>4.840355244677358e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>5570357330828.191</v>
+        <v>6.922472789742694e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>10283068352388.24</v>
+        <v>1.295370082959478e-05</v>
       </c>
       <c r="G166" t="n">
-        <v>12542945412246.45</v>
+        <v>1.553788822075095e-05</v>
       </c>
       <c r="H166" t="n">
-        <v>3.690462204743345</v>
+        <v>2.907130779089699</v>
       </c>
       <c r="I166" t="n">
-        <v>0.4495146620481562</v>
+        <v>0.5734851927635697</v>
       </c>
       <c r="J166" t="n">
-        <v>0.9226155511858362</v>
+        <v>0.7267826947724247</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>236373513395028.7</v>
+        <v>0.0002772090502629586</v>
       </c>
       <c r="C167" t="n">
-        <v>10682590272861.09</v>
+        <v>1.098314118413066e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>-6347868862726.875</v>
+        <v>-7.711512796374246e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>5405623637490.465</v>
+        <v>6.591368064817439e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>9782008485574.457</v>
+        <v>1.210876371135423e-05</v>
       </c>
       <c r="G167" t="n">
-        <v>11872982982147.83</v>
+        <v>1.443071803860767e-05</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4322233742900305</v>
+        <v>0.453366790581723</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9797546852390794</v>
+        <v>0.9778790431021191</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1080558435725076</v>
+        <v>0.1133416976454308</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>228382072370480.1</v>
+        <v>0.0002669659502916083</v>
       </c>
       <c r="C168" t="n">
-        <v>10467445494701.55</v>
+        <v>1.345590975990109e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>-4080140275003.375</v>
+        <v>-5.989177000787968e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>5190890524905.69</v>
+        <v>6.295637882943316e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>9427656824552.74</v>
+        <v>1.1542350222341e-05</v>
       </c>
       <c r="G168" t="n">
-        <v>11517790581971.74</v>
+        <v>1.393903907527634e-05</v>
       </c>
       <c r="H168" t="n">
-        <v>1.049167053524376</v>
+        <v>0.9240000686744188</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9022512489435586</v>
+        <v>0.9210926510005329</v>
       </c>
       <c r="J168" t="n">
-        <v>0.262291763381094</v>
+        <v>0.2310000171686047</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>210203852669984.1</v>
+        <v>0.0002467022835756218</v>
       </c>
       <c r="C169" t="n">
-        <v>16604303889209.97</v>
+        <v>1.82053582288414e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>-6888915781952.688</v>
+        <v>-6.673591745871604e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>4737240821851.121</v>
+        <v>5.729026924309123e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>8508684705861.043</v>
+        <v>1.04196578822634e-05</v>
       </c>
       <c r="G169" t="n">
-        <v>10570680107392.84</v>
+        <v>1.277026848024705e-05</v>
       </c>
       <c r="H169" t="n">
-        <v>1.282623110210769</v>
+        <v>1.090086768398858</v>
       </c>
       <c r="I169" t="n">
-        <v>0.8643168056682788</v>
+        <v>0.8958418450072837</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3206557775526924</v>
+        <v>0.2725216920997146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>131873890212215.8</v>
+        <v>0.0001554209260743974</v>
       </c>
       <c r="C170" t="n">
-        <v>5778927174462.469</v>
+        <v>8.346170534140023e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>2875966004907.531</v>
+        <v>3.732515858880403e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>3137412117268.295</v>
+        <v>3.929687833778485e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>5747714291485.263</v>
+        <v>7.308860990192122e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>7003443722614.082</v>
+        <v>8.743760631493343e-06</v>
       </c>
       <c r="H170" t="n">
-        <v>7.130100893265356</v>
+        <v>7.203273817775828</v>
       </c>
       <c r="I170" t="n">
-        <v>0.129170649834257</v>
+        <v>0.125528203203791</v>
       </c>
       <c r="J170" t="n">
-        <v>1.782525223316339</v>
+        <v>1.800818454443957</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>85951257638370.34</v>
+        <v>0.0001019634331928368</v>
       </c>
       <c r="C171" t="n">
-        <v>3158676458453.109</v>
+        <v>4.081204543090328e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>4539750547755.891</v>
+        <v>5.986214053518678e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>1995583615946.828</v>
+        <v>2.530357400426648e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>3667715476114.529</v>
+        <v>4.712380318241695e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>4473367220448.363</v>
+        <v>5.683586454966329e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>6.800816096185301</v>
+        <v>6.739536019050438</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1467960936358955</v>
+        <v>0.150309603474468</v>
       </c>
       <c r="J171" t="n">
-        <v>1.700204024046325</v>
+        <v>1.684884004762609</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>78514365317925.02</v>
+        <v>9.426329830439298e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>5523201957608.219</v>
+        <v>4.92560391703087e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>818358040125.5156</v>
+        <v>1.948657523471829e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>1873671540101.977</v>
+        <v>2.456676952700786e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>3419467835067.565</v>
+        <v>4.567722093312792e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>4204511454265.811</v>
+        <v>5.485921031729462e-06</v>
       </c>
       <c r="H172" t="n">
-        <v>5.093459823596249</v>
+        <v>3.724355320075957</v>
       </c>
       <c r="I172" t="n">
-        <v>0.2778416631853626</v>
+        <v>0.4445934964861993</v>
       </c>
       <c r="J172" t="n">
-        <v>1.273364955899062</v>
+        <v>0.9310888300189893</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>90892494005842.98</v>
+        <v>0.0001073873220752187</v>
       </c>
       <c r="C173" t="n">
-        <v>8073544509278.367</v>
+        <v>1.311567703879579e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>1131123725082.344</v>
+        <v>1.500792907414893e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>2304968928722.36</v>
+        <v>3.110806056947593e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>4253112648651.116</v>
+        <v>5.796510870834533e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>5171089455927.692</v>
+        <v>7.020572320539742e-06</v>
       </c>
       <c r="H173" t="n">
-        <v>1.752549302217738</v>
+        <v>1.883406573658255</v>
       </c>
       <c r="I173" t="n">
-        <v>0.781151310297145</v>
+        <v>0.757192536765516</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4381373255544345</v>
+        <v>0.4708516434145639</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>127892246234121.5</v>
+        <v>0.0001516502857053022</v>
       </c>
       <c r="C174" t="n">
-        <v>9791673990712.453</v>
+        <v>1.178239013224986e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>-7759940613466.781</v>
+        <v>-9.079211794356954e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>2980837122889.24</v>
+        <v>3.853432897729309e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>5358470743127.54</v>
+        <v>7.035347847379723e-06</v>
       </c>
       <c r="G174" t="n">
-        <v>6573531777101.12</v>
+        <v>8.517975081032991e-06</v>
       </c>
       <c r="H174" t="n">
-        <v>0.4866563024549075</v>
+        <v>0.8269028594541201</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9747869212633848</v>
+        <v>0.9348054054446886</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1216640756137269</v>
+        <v>0.20672571486353</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>142149045215544.8</v>
+        <v>0.0001683805302720408</v>
       </c>
       <c r="C175" t="n">
-        <v>2357132811182.672</v>
+        <v>4.96890890964416e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>5502850961542.031</v>
+        <v>7.122214567051061e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>3547858392557.375</v>
+        <v>4.790974686417191e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>6602402366219.423</v>
+        <v>9.02428717978776e-06</v>
       </c>
       <c r="G175" t="n">
-        <v>7953455685047.422</v>
+        <v>1.078494153037979e-05</v>
       </c>
       <c r="H175" t="n">
-        <v>3.797250649866154</v>
+        <v>3.85813072866256</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4341397786072984</v>
+        <v>0.4255461056337788</v>
       </c>
       <c r="J175" t="n">
-        <v>0.9493126624665384</v>
+        <v>0.96453268216564</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>215955621701852.5</v>
+        <v>0.0002533092705568335</v>
       </c>
       <c r="C176" t="n">
-        <v>7146663408952.281</v>
+        <v>8.210081312183879e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>1120724899767.062</v>
+        <v>2.276382839569728e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>5416389967760.852</v>
+        <v>7.175042730794451e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>10041533978062.6</v>
+        <v>1.328026827511815e-05</v>
       </c>
       <c r="G176" t="n">
-        <v>12087951495648.24</v>
+        <v>1.583240532730773e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>1.656235463296287</v>
+        <v>2.053608759122786</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7986512943552303</v>
+        <v>0.7258992672572127</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4140588658240718</v>
+        <v>0.5134021897806965</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>290383098375577.6</v>
+        <v>0.0003369341610294364</v>
       </c>
       <c r="C177" t="n">
-        <v>35919201278442.66</v>
+        <v>4.702850903611148e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>-6885191274545.688</v>
+        <v>-7.64520968854791e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>7057974529511.873</v>
+        <v>9.059239430665772e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>12766364550586.43</v>
+        <v>1.654911262724478e-05</v>
       </c>
       <c r="G177" t="n">
-        <v>15814394470029.71</v>
+        <v>2.025408575452363e-05</v>
       </c>
       <c r="H177" t="n">
-        <v>6.641800874305076</v>
+        <v>6.981771394387499</v>
       </c>
       <c r="I177" t="n">
-        <v>0.1560721900423181</v>
+        <v>0.1368546650985027</v>
       </c>
       <c r="J177" t="n">
-        <v>1.660450218576269</v>
+        <v>1.745442848596875</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>300620783380180.8</v>
+        <v>0.0003533614616581649</v>
       </c>
       <c r="C178" t="n">
-        <v>6338048861201.562</v>
+        <v>4.28235885558965e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>-9628302239059.5</v>
+        <v>-8.469833134960966e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>7655118906739.721</v>
+        <v>1.022706953298308e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>14092642288644.07</v>
+        <v>1.906085198870718e-05</v>
       </c>
       <c r="G178" t="n">
-        <v>16747576896963.48</v>
+        <v>2.234628522096202e-05</v>
       </c>
       <c r="H178" t="n">
-        <v>1.776921204964535</v>
+        <v>1.294333183757065</v>
       </c>
       <c r="I178" t="n">
-        <v>0.7767019434786991</v>
+        <v>0.8623362552233357</v>
       </c>
       <c r="J178" t="n">
-        <v>0.4442303012411338</v>
+        <v>0.3235832959392663</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>289717047972777.5</v>
+        <v>0.0003382549622441748</v>
       </c>
       <c r="C179" t="n">
-        <v>17172923845838.62</v>
+        <v>1.8894123403794e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>-3497736685679.625</v>
+        <v>-4.977490153726394e-07</v>
       </c>
       <c r="E179" t="n">
-        <v>7442287589470.524</v>
+        <v>1.012916581262063e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>13706513879126.01</v>
+        <v>1.924767281230048e-05</v>
       </c>
       <c r="G179" t="n">
-        <v>16656695952363.18</v>
+        <v>2.271179164063156e-05</v>
       </c>
       <c r="H179" t="n">
-        <v>2.996456789780221</v>
+        <v>2.97935091547956</v>
       </c>
       <c r="I179" t="n">
-        <v>0.5584185231436063</v>
+        <v>0.5612869011053729</v>
       </c>
       <c r="J179" t="n">
-        <v>0.7491141974450551</v>
+        <v>0.74483772886989</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>261302234323448</v>
+        <v>0.0003030048534695375</v>
       </c>
       <c r="C180" t="n">
-        <v>926232231259.0938</v>
+        <v>2.65357692933268e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>9984521170567</v>
+        <v>-5.089883549336618e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>6908258564359.784</v>
+        <v>6.438856793711838e-06</v>
       </c>
       <c r="F180" t="n">
-        <v>13008768534728.92</v>
+        <v>1.209765510980128e-05</v>
       </c>
       <c r="G180" t="n">
-        <v>15231492975179.23</v>
+        <v>1.435939796591063e-05</v>
       </c>
       <c r="H180" t="n">
-        <v>1.252607507193942</v>
+        <v>3.010471649890166</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8693634953902279</v>
+        <v>0.9905867728916491</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3131518767984856</v>
+        <v>0.2736792408991059</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>259398449082585.2</v>
+        <v>0.0002698683195324782</v>
       </c>
       <c r="C181" t="n">
-        <v>32764741139117.22</v>
+        <v>9.552337082248093e-06</v>
       </c>
       <c r="D181" t="n">
-        <v>-8671803845196.188</v>
+        <v>-1.082363115507566e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>6271672028100.281</v>
+        <v>1.046805117106971e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>11521410689543.24</v>
+        <v>1.946510604225432e-05</v>
       </c>
       <c r="G181" t="n">
-        <v>14182112156275.01</v>
+        <v>2.246708768440449e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>1.442066362048045</v>
+        <v>2.871102398466064</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8368517173231516</v>
+        <v>0.579622584790777</v>
       </c>
       <c r="J181" t="n">
-        <v>0.3605165905120113</v>
+        <v>0.717775599616516</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>232571746985873.6</v>
+        <v>0.0002302895590382131</v>
       </c>
       <c r="C182" t="n">
-        <v>-776294011930.5938</v>
+        <v>1.152184528846923e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>-438477404141.875</v>
+        <v>9.403862181205395e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>6644826742826.817</v>
+        <v>1.07084703545106e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>12456864953134.7</v>
+        <v>2.188110175299614e-05</v>
       </c>
       <c r="G182" t="n">
-        <v>14427981070923.65</v>
+        <v>2.427276434231059e-05</v>
       </c>
       <c r="H182" t="n">
-        <v>4.366962789018406</v>
+        <v>3.213098918936232</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3586149537198308</v>
+        <v>0.5228178477784582</v>
       </c>
       <c r="J182" t="n">
-        <v>1.091740697254602</v>
+        <v>0.803274729734058</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>198013625969831.8</v>
+        <v>0.0002137572461907725</v>
       </c>
       <c r="C183" t="n">
-        <v>1313955177417.125</v>
+        <v>6.859422726634062e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>11466851375336.94</v>
+        <v>-3.980417285829967e-06</v>
       </c>
       <c r="E183" t="n">
-        <v>6149985946124.995</v>
+        <v>9.410822281166624e-06</v>
       </c>
       <c r="F183" t="n">
-        <v>11729805461606.28</v>
+        <v>1.846118572835792e-05</v>
       </c>
       <c r="G183" t="n">
-        <v>13782636390957.32</v>
+        <v>2.037455240160387e-05</v>
       </c>
       <c r="H183" t="n">
-        <v>5.951888928979384</v>
+        <v>1.923525928132157</v>
       </c>
       <c r="I183" t="n">
-        <v>0.2027701629714188</v>
+        <v>0.7498220077304488</v>
       </c>
       <c r="J183" t="n">
-        <v>1.487972232244846</v>
+        <v>0.4808814820330393</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>182147857443775.2</v>
+        <v>0.0002134440920054226</v>
       </c>
       <c r="C184" t="n">
-        <v>4424632166000.594</v>
+        <v>2.896993861866792e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>-3454055462180.219</v>
+        <v>-1.645928861626113e-06</v>
       </c>
       <c r="E184" t="n">
-        <v>5186198464166.118</v>
+        <v>1.013768654759354e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>9591124007697.291</v>
+        <v>2.163330105143802e-05</v>
       </c>
       <c r="G184" t="n">
-        <v>11163476612531.89</v>
+        <v>2.344311484381193e-05</v>
       </c>
       <c r="H184" t="n">
-        <v>6.549421148593455</v>
+        <v>1.013934798473919</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1617029650037078</v>
+        <v>0.9076757091242554</v>
       </c>
       <c r="J184" t="n">
-        <v>1.637355287148364</v>
+        <v>0.2534836996184797</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>180120154285623.5</v>
+        <v>0.0002054999934364453</v>
       </c>
       <c r="C185" t="n">
-        <v>28770831434754.59</v>
+        <v>3.675360324644438e-06</v>
       </c>
       <c r="D185" t="n">
-        <v>-8761429945028.625</v>
+        <v>1.646111589161478e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>5193834967577.652</v>
+        <v>8.077660776433616e-06</v>
       </c>
       <c r="F185" t="n">
-        <v>9502318223597.295</v>
+        <v>1.565531780583265e-05</v>
       </c>
       <c r="G185" t="n">
-        <v>11637818408697.91</v>
+        <v>1.818963032256395e-05</v>
       </c>
       <c r="H185" t="n">
-        <v>3.011999414733564</v>
+        <v>9.946420476308257</v>
       </c>
       <c r="I185" t="n">
-        <v>0.5558193388459656</v>
+        <v>0.04133995856861178</v>
       </c>
       <c r="J185" t="n">
-        <v>0.752999853683391</v>
+        <v>2.486605119077064</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>177764060776985.5</v>
+        <v>0.0002050953231037433</v>
       </c>
       <c r="C186" t="n">
-        <v>14626756414862.17</v>
+        <v>2.607161399635415e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>-419202964604.7188</v>
+        <v>-2.351011905914424e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>4651973705012.312</v>
+        <v>8.538994593758959e-06</v>
       </c>
       <c r="F186" t="n">
-        <v>8513863377450.982</v>
+        <v>1.665094890856245e-05</v>
       </c>
       <c r="G186" t="n">
-        <v>10441373755658.75</v>
+        <v>1.927037881608011e-05</v>
       </c>
       <c r="H186" t="n">
-        <v>6.792522955824177</v>
+        <v>1.047146772214214</v>
       </c>
       <c r="I186" t="n">
-        <v>0.1472671547675738</v>
+        <v>0.9025647028770228</v>
       </c>
       <c r="J186" t="n">
-        <v>1.698130738956044</v>
+        <v>0.2617866930535534</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>175822243967181.5</v>
+        <v>0.0001982799249158136</v>
       </c>
       <c r="C187" t="n">
-        <v>19565091998979.69</v>
+        <v>-5.35066904345041e-08</v>
       </c>
       <c r="D187" t="n">
-        <v>-17088955958762.28</v>
+        <v>2.806802047325418e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>4785382313556.995</v>
+        <v>8.476199767784058e-06</v>
       </c>
       <c r="F187" t="n">
-        <v>8788844358597.713</v>
+        <v>1.680318233521883e-05</v>
       </c>
       <c r="G187" t="n">
-        <v>10589978042125.01</v>
+        <v>1.864222344692497e-05</v>
       </c>
       <c r="H187" t="n">
-        <v>1.677654800014387</v>
+        <v>7.246694783720393</v>
       </c>
       <c r="I187" t="n">
-        <v>0.7947725434426257</v>
+        <v>0.1234118176067392</v>
       </c>
       <c r="J187" t="n">
-        <v>0.4194137000035967</v>
+        <v>1.811673695930098</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>165423923209201.8</v>
+        <v>0.0002190489297069628</v>
       </c>
       <c r="C188" t="n">
-        <v>-2222820048684.562</v>
+        <v>1.245004558071607e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>20776439019110.47</v>
+        <v>-3.886311695203105e-06</v>
       </c>
       <c r="E188" t="n">
-        <v>4631368749360.219</v>
+        <v>7.148547674049021e-06</v>
       </c>
       <c r="F188" t="n">
-        <v>8607291406816.104</v>
+        <v>1.370641755862525e-05</v>
       </c>
       <c r="G188" t="n">
-        <v>10412793629380.35</v>
+        <v>1.610442517010018e-05</v>
       </c>
       <c r="H188" t="n">
-        <v>19.21269229286925</v>
+        <v>4.679424245914097</v>
       </c>
       <c r="I188" t="n">
-        <v>0.0007138100757195011</v>
+        <v>0.3217992064451897</v>
       </c>
       <c r="J188" t="n">
-        <v>4.803173073217312</v>
+        <v>1.169856061478524</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>185749379911228.4</v>
+        <v>0.0002523645824578704</v>
       </c>
       <c r="C189" t="n">
-        <v>8996736823267.859</v>
+        <v>1.62307425597878e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>-3976363347163.469</v>
+        <v>5.670608781605847e-06</v>
       </c>
       <c r="E189" t="n">
-        <v>4599466249979.844</v>
+        <v>7.786849665831584e-06</v>
       </c>
       <c r="F189" t="n">
-        <v>8288360477436.955</v>
+        <v>1.466597602547591e-05</v>
       </c>
       <c r="G189" t="n">
-        <v>10275063267497.64</v>
+        <v>1.759114458872306e-05</v>
       </c>
       <c r="H189" t="n">
-        <v>8.998468060260596</v>
+        <v>3.054703907213711</v>
       </c>
       <c r="I189" t="n">
-        <v>0.06113778357332805</v>
+        <v>0.5487129369987431</v>
       </c>
       <c r="J189" t="n">
-        <v>2.249617015065149</v>
+        <v>0.7636759768034278</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>214597165764737.2</v>
+        <v>0.0002844488730540274</v>
       </c>
       <c r="C190" t="n">
-        <v>15142432238104.27</v>
+        <v>7.760887735705523e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>1087627223983.125</v>
+        <v>6.447631776055327e-07</v>
       </c>
       <c r="E190" t="n">
-        <v>5320608756637.086</v>
+        <v>8.149515539395183e-06</v>
       </c>
       <c r="F190" t="n">
-        <v>9643134098227.473</v>
+        <v>1.525293598144811e-05</v>
       </c>
       <c r="G190" t="n">
-        <v>11823825070733.18</v>
+        <v>1.807903050872834e-05</v>
       </c>
       <c r="H190" t="n">
-        <v>4.134723771834682</v>
+        <v>6.984251510564129</v>
       </c>
       <c r="I190" t="n">
-        <v>0.388079907152371</v>
+        <v>0.1367228050808706</v>
       </c>
       <c r="J190" t="n">
-        <v>1.03368094295867</v>
+        <v>1.746062877641032</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>243336546587380.6</v>
+        <v>0.0003220944484312922</v>
       </c>
       <c r="C191" t="n">
-        <v>2003624420384.328</v>
+        <v>1.478760103631316e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>3248772819293.688</v>
+        <v>1.214677115794381e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>5933197639960.43</v>
+        <v>8.465537798306425e-06</v>
       </c>
       <c r="F191" t="n">
-        <v>10744916066127.4</v>
+        <v>1.601786394105433e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>13144548022851.53</v>
+        <v>1.909290888260874e-05</v>
       </c>
       <c r="H191" t="n">
-        <v>9.957770722387338</v>
+        <v>5.642394567491197</v>
       </c>
       <c r="I191" t="n">
-        <v>0.04114506833657385</v>
+        <v>0.2274935289502964</v>
       </c>
       <c r="J191" t="n">
-        <v>2.489442680596834</v>
+        <v>1.410598641872799</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>275446680792918.5</v>
+        <v>0.0003720906526126374</v>
       </c>
       <c r="C192" t="n">
-        <v>11991014377649.59</v>
+        <v>2.744091531708151e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>6623952590433.062</v>
+        <v>1.035586583626421e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>6519796997958.752</v>
+        <v>9.351221688812399e-06</v>
       </c>
       <c r="F192" t="n">
-        <v>11997275381298</v>
+        <v>1.748048102923479e-05</v>
       </c>
       <c r="G192" t="n">
-        <v>14730978785323.82</v>
+        <v>2.115636096762643e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>6.894128543123018</v>
+        <v>4.790623264198437</v>
       </c>
       <c r="I192" t="n">
-        <v>0.1415899453942486</v>
+        <v>0.309463203579528</v>
       </c>
       <c r="J192" t="n">
-        <v>1.723532135780754</v>
+        <v>1.197655816049609</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>320118330033676.8</v>
+        <v>0.0004112580306074165</v>
       </c>
       <c r="C193" t="n">
-        <v>24300748313959.84</v>
+        <v>3.424988754938208e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>7694105241485.312</v>
+        <v>5.908559690718466e-07</v>
       </c>
       <c r="E193" t="n">
-        <v>7491536124511.082</v>
+        <v>7.120333731945223e-06</v>
       </c>
       <c r="F193" t="n">
-        <v>13767089770564.22</v>
+        <v>1.316704640845054e-05</v>
       </c>
       <c r="G193" t="n">
-        <v>16972121806549.33</v>
+        <v>1.598151479829445e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>4.345834547993387</v>
+        <v>8.25158267916996</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3612208143330384</v>
+        <v>0.6906058824380745</v>
       </c>
       <c r="J193" t="n">
-        <v>1.086458636998347</v>
+        <v>0.7501438799245418</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>362718069907865.3</v>
+        <v>0.0004029966337780115</v>
       </c>
       <c r="C194" t="n">
-        <v>34443827413459.69</v>
+        <v>1.793729970319866e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>-10059287394522.69</v>
+        <v>1.317928712980376e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>8489792121711.501</v>
+        <v>9.44344847444479e-06</v>
       </c>
       <c r="F194" t="n">
-        <v>15469088020305.45</v>
+        <v>1.746860813048375e-05</v>
       </c>
       <c r="G194" t="n">
-        <v>18996375591214.66</v>
+        <v>2.126656157558691e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8029869922790496</v>
+        <v>4.127246927735697</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9380471683337721</v>
+        <v>0.3890586755209253</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2007467480697624</v>
+        <v>1.031811731933924</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>345758952168914.1</v>
+        <v>0.0003652952674746949</v>
       </c>
       <c r="C195" t="n">
-        <v>24870973588634.88</v>
+        <v>3.295383565866464e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>12931937630190</v>
+        <v>-1.152668788527943e-05</v>
       </c>
       <c r="E195" t="n">
-        <v>7929744440421.732</v>
+        <v>8.590142098724413e-06</v>
       </c>
       <c r="F195" t="n">
-        <v>14458380330344.81</v>
+        <v>1.574066405771764e-05</v>
       </c>
       <c r="G195" t="n">
-        <v>17826890104086.93</v>
+        <v>1.916944561817167e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>4.92859195266343</v>
+        <v>0.2022945246966171</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2947031955881254</v>
+        <v>0.9952168157513444</v>
       </c>
       <c r="J195" t="n">
-        <v>1.232147988165857</v>
+        <v>0.05057363117415428</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>348448777094277.5</v>
+        <v>0.0003591896829728681</v>
       </c>
       <c r="C196" t="n">
-        <v>13285548229065.66</v>
+        <v>2.606754367466047e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>13504107121928.12</v>
+        <v>6.271718488606631e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>7876500113396.267</v>
+        <v>8.323580978215767e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>14458357671564.52</v>
+        <v>1.523214693617471e-05</v>
       </c>
       <c r="G196" t="n">
-        <v>17742726252829.18</v>
+        <v>1.873581943893205e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>3.983537925985368</v>
+        <v>3.343779914347286</v>
       </c>
       <c r="I196" t="n">
-        <v>0.408238333614006</v>
+        <v>0.5020257398316748</v>
       </c>
       <c r="J196" t="n">
-        <v>0.9958844814963421</v>
+        <v>0.8359449785868216</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>314555715847780</v>
+        <v>0.0003201188323448926</v>
       </c>
       <c r="C197" t="n">
-        <v>27817849293788.12</v>
+        <v>2.84249905091506e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>-10771719863420.56</v>
+        <v>-1.562273292942117e-05</v>
       </c>
       <c r="E197" t="n">
-        <v>7137773959509.985</v>
+        <v>7.441453452979646e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>12921451709215.13</v>
+        <v>1.350730751447158e-05</v>
       </c>
       <c r="G197" t="n">
-        <v>15941716366878.57</v>
+        <v>1.654063165067289e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>0.2028500958105492</v>
+        <v>1.033251761578453</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9951913901225303</v>
+        <v>0.9047127141162259</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05071252395263731</v>
+        <v>0.2583129403946132</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>308958067016120.7</v>
+        <v>0.0003072949705228593</v>
       </c>
       <c r="C198" t="n">
-        <v>22726425067914.03</v>
+        <v>2.350722393649186e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>5762564551314</v>
+        <v>1.233898628433283e-07</v>
       </c>
       <c r="E198" t="n">
-        <v>6940302784533.623</v>
+        <v>7.054765834765143e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>12573724145700.64</v>
+        <v>1.286061204400275e-05</v>
       </c>
       <c r="G198" t="n">
-        <v>15640827567959.61</v>
+        <v>1.578903988212429e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>3.301960807305948</v>
+        <v>2.677892076318785</v>
       </c>
       <c r="I198" t="n">
-        <v>0.5086216452367327</v>
+        <v>0.6130887208510583</v>
       </c>
       <c r="J198" t="n">
-        <v>0.825490201826487</v>
+        <v>0.6694730190796963</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>274934230046648.1</v>
+        <v>0.0002998980509228071</v>
       </c>
       <c r="C199" t="n">
-        <v>25268455235409</v>
+        <v>2.238985514635072e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>-13656410283045.06</v>
+        <v>-9.16805275669256e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>6194466623599.975</v>
+        <v>6.860367042063352e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>11136941057345.86</v>
+        <v>1.246964667689248e-05</v>
       </c>
       <c r="G199" t="n">
-        <v>13790270750073.57</v>
+        <v>1.523334764845765e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>1.352930256604548</v>
+        <v>0.7578788216292232</v>
       </c>
       <c r="I199" t="n">
-        <v>0.8523332911153204</v>
+        <v>0.9440041185136012</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3382325641511369</v>
+        <v>0.1894697054073058</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>263626321995617.8</v>
+        <v>0.0003793992020796852</v>
       </c>
       <c r="C200" t="n">
-        <v>20296230932985.08</v>
+        <v>2.446806062428067e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>-1789306639514.875</v>
+        <v>-5.976275975759808e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>5885420503320.469</v>
+        <v>9.093537923387279e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>10583446653012.03</v>
+        <v>1.672939643283314e-05</v>
       </c>
       <c r="G200" t="n">
-        <v>13164714422057.02</v>
+        <v>2.021084515492031e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>2.851290242340605</v>
+        <v>1.081839480485586</v>
       </c>
       <c r="I200" t="n">
-        <v>0.5830119456873456</v>
+        <v>0.8971427677951839</v>
       </c>
       <c r="J200" t="n">
-        <v>0.7128225605851513</v>
+        <v>0.2704598701213965</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>256988809341625.8</v>
+        <v>0.0003335496801437979</v>
       </c>
       <c r="C201" t="n">
-        <v>18728539497047.55</v>
+        <v>1.89017959690917e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>-8702639393097.625</v>
+        <v>7.473718103108743e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>5729209322790.296</v>
+        <v>7.499470429863113e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>10275614305988.8</v>
+        <v>1.370976385764388e-05</v>
       </c>
       <c r="G201" t="n">
-        <v>12706993812314.32</v>
+        <v>1.680667585885667e-05</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9149419308673925</v>
+        <v>3.091068672418656</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9224074371912663</v>
+        <v>0.5427026293645045</v>
       </c>
       <c r="J201" t="n">
-        <v>0.2287354827168481</v>
+        <v>0.7727671681046641</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>327293257020775.8</v>
+        <v>0.0003522299971491166</v>
       </c>
       <c r="C202" t="n">
-        <v>21491595247511.69</v>
+        <v>1.492196061996998e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>-3893018984787.125</v>
+        <v>-3.801184891270154e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>7523501317200.297</v>
+        <v>8.671544505580263e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>13638883142815.67</v>
+        <v>1.604439350151233e-05</v>
       </c>
       <c r="G202" t="n">
-        <v>16746035489025.41</v>
+        <v>1.929831498980093e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>0.9942619819560526</v>
+        <v>1.510640846248903</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9106648088304784</v>
+        <v>0.8247549182302656</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2485654954890132</v>
+        <v>0.3776602115622257</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>286044489235906</v>
+        <v>0.0003208765120351591</v>
       </c>
       <c r="C203" t="n">
-        <v>17400935575914.19</v>
+        <v>1.900483780756576e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>6022673322076.688</v>
+        <v>-7.263291033599267e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>6305529904905.77</v>
+        <v>8.022123232493205e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>11421227537051.04</v>
+        <v>1.498095292220988e-05</v>
       </c>
       <c r="G203" t="n">
-        <v>14163154661481.04</v>
+        <v>1.781355191644571e-05</v>
       </c>
       <c r="H203" t="n">
-        <v>3.331469954989584</v>
+        <v>0.4491211848449795</v>
       </c>
       <c r="I203" t="n">
-        <v>0.5039616177991522</v>
+        <v>0.9782612548840993</v>
       </c>
       <c r="J203" t="n">
-        <v>0.8328674887473959</v>
+        <v>0.1122802962112449</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>302613952081382.3</v>
+        <v>0.000301636663995553</v>
       </c>
       <c r="C204" t="n">
-        <v>11875617589990.91</v>
+        <v>2.174096911260602e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>-2183042894257.875</v>
+        <v>-1.905813989015205e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>7073901114172.108</v>
+        <v>7.549296275367747e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>12958400805664.37</v>
+        <v>1.398276705021407e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>15783294361132.33</v>
+        <v>1.684742822854751e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>1.999330073381941</v>
+        <v>1.651353299746594</v>
       </c>
       <c r="I204" t="n">
-        <v>0.7358821084555187</v>
+        <v>0.7995342051053992</v>
       </c>
       <c r="J204" t="n">
-        <v>0.4998325183454854</v>
+        <v>0.4128383249366484</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>275455680096312.4</v>
+        <v>0.0002873874190538986</v>
       </c>
       <c r="C205" t="n">
-        <v>18892966551895.03</v>
+        <v>1.860891279024135e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>-5402459958443.062</v>
+        <v>1.032503005168482e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>6457246529244.293</v>
+        <v>7.23606848283689e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>11724973871469.24</v>
+        <v>1.345831096145756e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>14334522132069.61</v>
+        <v>1.628243604679074e-05</v>
       </c>
       <c r="H205" t="n">
-        <v>0.5934510864466651</v>
+        <v>2.539137930214079</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9637886325942693</v>
+        <v>0.6376415197275488</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1483627716116663</v>
+        <v>0.6347844825535197</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>258663279800203.2</v>
+        <v>0.0002667895600324003</v>
       </c>
       <c r="C206" t="n">
-        <v>17109575296629.88</v>
+        <v>1.672233706616694e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>-391203265595.9375</v>
+        <v>-7.470103532981865e-07</v>
       </c>
       <c r="E206" t="n">
-        <v>6103398609020.76</v>
+        <v>6.909732159280574e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>11108822736287.8</v>
+        <v>1.295010905146708e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>13600896367643.09</v>
+        <v>1.540793285228706e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>1.724506941185051</v>
+        <v>0.8045328135810484</v>
       </c>
       <c r="I206" t="n">
-        <v>0.7862612419638618</v>
+        <v>0.9378393464175478</v>
       </c>
       <c r="J206" t="n">
-        <v>0.4311267352962627</v>
+        <v>0.2011332033952621</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>245618655513463.5</v>
+        <v>0.0002499897881403098</v>
       </c>
       <c r="C207" t="n">
-        <v>17246905551799.31</v>
+        <v>1.738288876707611e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>-693311607657.375</v>
+        <v>-8.433517479899174e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>5812217269079.579</v>
+        <v>6.031251258217864e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>10603332504533.89</v>
+        <v>1.1134426772868e-05</v>
       </c>
       <c r="G207" t="n">
-        <v>13055103892348.32</v>
+        <v>1.345553545461396e-05</v>
       </c>
       <c r="H207" t="n">
-        <v>2.661294597467425</v>
+        <v>0.8352802418907727</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6160043467119165</v>
+        <v>0.9336566521503016</v>
       </c>
       <c r="J207" t="n">
-        <v>0.6653236493668563</v>
+        <v>0.2088200604726932</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>230711196282329.3</v>
+        <v>0.0002557170886360718</v>
       </c>
       <c r="C208" t="n">
-        <v>10219563414598.81</v>
+        <v>1.09864991231864e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>907645867074.1875</v>
+        <v>-1.173772914521832e-05</v>
       </c>
       <c r="E208" t="n">
-        <v>5525051736136.76</v>
+        <v>6.530519656847521e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>10197048826957.11</v>
+        <v>1.198555499331467e-05</v>
       </c>
       <c r="G208" t="n">
-        <v>12292143542929.65</v>
+        <v>1.431178521531429e-05</v>
       </c>
       <c r="H208" t="n">
-        <v>0.9562019960262413</v>
+        <v>0.928869320468852</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9163628726460559</v>
+        <v>0.9203830014063049</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2390504990065603</v>
+        <v>0.232217330117213</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>213864914024699.4</v>
+        <v>0.0001333272236168415</v>
       </c>
       <c r="C209" t="n">
-        <v>14585403936218.64</v>
+        <v>1.026189330989314e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>-7998700921416.75</v>
+        <v>-5.047610483102324e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>4889844211661.061</v>
+        <v>3.344760437487491e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>8848978423779.973</v>
+        <v>6.171935873176615e-06</v>
       </c>
       <c r="G209" t="n">
-        <v>10890445065237.7</v>
+        <v>7.463063452365029e-06</v>
       </c>
       <c r="H209" t="n">
-        <v>0.7355538843295971</v>
+        <v>2.750591890473445</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9468731063012433</v>
+        <v>0.6003911575122717</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1838884710823993</v>
+        <v>0.6876479726183613</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>217341743415957.3</v>
+        <v>5.558360881978164e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>11313637237746.17</v>
+        <v>3.487740491047137e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>-11071877105988.12</v>
+        <v>1.014289634676554e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>5153688532597.58</v>
+        <v>1.669826350165828e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>9249393779366.736</v>
+        <v>3.253789427570765e-06</v>
       </c>
       <c r="G210" t="n">
-        <v>11309495581605.27</v>
+        <v>3.749271774483234e-06</v>
       </c>
       <c r="H210" t="n">
-        <v>1.064532633710684</v>
+        <v>3.338465583905732</v>
       </c>
       <c r="I210" t="n">
-        <v>0.8998578931928025</v>
+        <v>0.50286089155826</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2661331584276709</v>
+        <v>0.8346163959764331</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>112060923788373.7</v>
+        <v>3.367342250719275e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>9350952618287.258</v>
+        <v>1.862832037944067e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>-5633708892104.812</v>
+        <v>-4.228272662767934e-07</v>
       </c>
       <c r="E211" t="n">
-        <v>2595467275669.063</v>
+        <v>1.094737882152522e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>4646913953072.994</v>
+        <v>2.099889638507641e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>5801001804309.631</v>
+        <v>2.431039869114376e-06</v>
       </c>
       <c r="H211" t="n">
-        <v>3.854242037993111</v>
+        <v>1.153474594187808</v>
       </c>
       <c r="I211" t="n">
-        <v>0.4260912872303989</v>
+        <v>0.8856976964887857</v>
       </c>
       <c r="J211" t="n">
-        <v>0.9635605094982777</v>
+        <v>0.2883686485469521</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>46250263364968.02</v>
+        <v>4.851270818637564e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>2250730567116.035</v>
+        <v>3.408898652772651e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>997692620423.9531</v>
+        <v>3.337252122345847e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>1151530671574.797</v>
+        <v>1.371682989147362e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>2134357412179.911</v>
+        <v>2.65327686010604e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>2582183143240.625</v>
+        <v>3.076313693961784e-06</v>
       </c>
       <c r="H212" t="n">
-        <v>4.56245352169278</v>
+        <v>2.232210854658837</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3352062061016999</v>
+        <v>0.6931366655185216</v>
       </c>
       <c r="J212" t="n">
-        <v>1.140613380423195</v>
+        <v>0.5580527136647093</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>28693823398311.72</v>
+        <v>3.024400979006526e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>161802094829.3086</v>
+        <v>2.136034967096396e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>1786375595486.359</v>
+        <v>-4.62138181146738e-07</v>
       </c>
       <c r="E213" t="n">
-        <v>735863826573.0381</v>
+        <v>9.569242030940974e-07</v>
       </c>
       <c r="F213" t="n">
-        <v>1385813028211.601</v>
+        <v>1.84236741474061e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>1630865832926.49</v>
+        <v>2.141439782716296e-06</v>
       </c>
       <c r="H213" t="n">
-        <v>3.020111392060402</v>
+        <v>0.7688935090232207</v>
       </c>
       <c r="I213" t="n">
-        <v>0.5544654661014929</v>
+        <v>0.9425690027226235</v>
       </c>
       <c r="J213" t="n">
-        <v>0.7550278480151006</v>
+        <v>0.1922233772558052</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>40550168839427.31</v>
+        <v>2.429826654919361e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>1951412129507.035</v>
+        <v>2.165725363645783e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>3614119306171.055</v>
+        <v>9.478897542079429e-07</v>
       </c>
       <c r="E214" t="n">
-        <v>973263881974.3331</v>
+        <v>8.107414824484559e-07</v>
       </c>
       <c r="F214" t="n">
-        <v>1806513668413.277</v>
+        <v>1.583918435134478e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>2171167515615.183</v>
+        <v>1.8253532393466e-06</v>
       </c>
       <c r="H214" t="n">
-        <v>2.935285434294598</v>
+        <v>3.075790547555482</v>
       </c>
       <c r="I214" t="n">
-        <v>0.5687129875148373</v>
+        <v>0.5452231227145032</v>
       </c>
       <c r="J214" t="n">
-        <v>0.7338213585736494</v>
+        <v>0.7689476368888706</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>25212628168779.03</v>
+        <v>2.053020319480466e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>1324832918209.951</v>
+        <v>1.668581562592674e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>317378757967.582</v>
+        <v>9.939110223747929e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>631226643234.2577</v>
+        <v>6.589923072121578e-07</v>
       </c>
       <c r="F215" t="n">
-        <v>1168939839028.865</v>
+        <v>1.325331808792238e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>1396089111656.576</v>
+        <v>1.528674056553986e-06</v>
       </c>
       <c r="H215" t="n">
-        <v>1.067791693712811</v>
+        <v>1.729257724713027</v>
       </c>
       <c r="I215" t="n">
-        <v>0.8993481618642363</v>
+        <v>0.7853963136211759</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2669479234282028</v>
+        <v>0.4323144311782567</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>20472401959918.18</v>
+        <v>2.081108191268817e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>1180071729835.131</v>
+        <v>1.924552374614962e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>1077633845178.41</v>
+        <v>1.383156756310918e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>517129114992.6357</v>
+        <v>7.056616651014882e-07</v>
       </c>
       <c r="F216" t="n">
-        <v>968322467946.9447</v>
+        <v>1.418869066259736e-06</v>
       </c>
       <c r="G216" t="n">
-        <v>1171086350111.03</v>
+        <v>1.641329653460292e-06</v>
       </c>
       <c r="H216" t="n">
-        <v>3.717641237923538</v>
+        <v>8.394710530438608</v>
       </c>
       <c r="I216" t="n">
-        <v>0.4455653070230038</v>
+        <v>0.07814373654867232</v>
       </c>
       <c r="J216" t="n">
-        <v>0.9294103094808845</v>
+        <v>2.098677632609652</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>17419221054161.87</v>
+        <v>3.08516422066349e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1154228102592.82</v>
+        <v>4.099776775247341e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>1155457371914</v>
+        <v>1.434744979004687e-06</v>
       </c>
       <c r="E217" t="n">
-        <v>425090065903.4384</v>
+        <v>8.933761364847655e-07</v>
       </c>
       <c r="F217" t="n">
-        <v>811814728468.7037</v>
+        <v>1.746857406335447e-06</v>
       </c>
       <c r="G217" t="n">
-        <v>974305320939.0154</v>
+        <v>2.043161204010912e-06</v>
       </c>
       <c r="H217" t="n">
-        <v>2.701812478500641</v>
+        <v>5.529884301254097</v>
       </c>
       <c r="I217" t="n">
-        <v>0.608897489303038</v>
+        <v>0.2371150874797955</v>
       </c>
       <c r="J217" t="n">
-        <v>0.6754531196251603</v>
+        <v>1.382471075313524</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>17782057933988.89</v>
+        <v>5.716787061434692e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1232460200641.904</v>
+        <v>3.812162567868127e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>1479108505871.332</v>
+        <v>2.757505908246936e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>442643550716.2861</v>
+        <v>1.459101358542439e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>867995057141.2949</v>
+        <v>2.790088195220975e-06</v>
       </c>
       <c r="G218" t="n">
-        <v>1046761197962.167</v>
+        <v>3.284891662342251e-06</v>
       </c>
       <c r="H218" t="n">
-        <v>17.23649038416222</v>
+        <v>2.230385981463069</v>
       </c>
       <c r="I218" t="n">
-        <v>0.001738759490503086</v>
+        <v>0.6934702532355896</v>
       </c>
       <c r="J218" t="n">
-        <v>4.309122596040556</v>
+        <v>0.5575964953657672</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>25559969896593.3</v>
+        <v>6.413886584933437e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>3404863924645.641</v>
+        <v>4.925017333076304e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>1107284603546.305</v>
+        <v>3.088409442775604e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>608523838665.2429</v>
+        <v>1.621758532080767e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>1118404610871.8</v>
+        <v>3.069318194284067e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>1387560466365.345</v>
+        <v>3.672104331991021e-06</v>
       </c>
       <c r="H219" t="n">
-        <v>6.355118938684703</v>
+        <v>3.166135364451782</v>
       </c>
       <c r="I219" t="n">
-        <v>0.1741510501003921</v>
+        <v>0.530417967396053</v>
       </c>
       <c r="J219" t="n">
-        <v>1.588779734671176</v>
+        <v>0.7915338411129454</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>47750629409707.36</v>
+        <v>5.613772964982172e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>2837473630872.328</v>
+        <v>5.232487457339416e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>2677582411340.82</v>
+        <v>1.841451698641854e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>1093556841416.982</v>
+        <v>1.38089654299789e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>2019773916703.933</v>
+        <v>2.593795627360869e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>2460126702610.672</v>
+        <v>3.155193388377014e-06</v>
       </c>
       <c r="H220" t="n">
-        <v>1.382052385643946</v>
+        <v>4.564333968785413</v>
       </c>
       <c r="I220" t="n">
-        <v>0.8473083224740038</v>
+        <v>0.3349871472982492</v>
       </c>
       <c r="J220" t="n">
-        <v>0.3455130964109865</v>
+        <v>1.141083492196353</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>53488611396873.98</v>
+        <v>5.012694072240722e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>2990346208219.578</v>
+        <v>4.797943224869292e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>3560250741985.531</v>
+        <v>1.172805256688609e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>1225894315693.098</v>
+        <v>1.325505922158906e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>2260724883873.521</v>
+        <v>2.515917842643314e-06</v>
       </c>
       <c r="G221" t="n">
-        <v>2776529121487.772</v>
+        <v>2.975608653374994e-06</v>
       </c>
       <c r="H221" t="n">
-        <v>3.651619742242355</v>
+        <v>1.533897914116332</v>
       </c>
       <c r="I221" t="n">
-        <v>0.4552016062239509</v>
+        <v>0.8206203905675298</v>
       </c>
       <c r="J221" t="n">
-        <v>0.9129049355605887</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>47034576098261.28</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3731496238458.594</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1649589195993.781</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1062284749322.175</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1943393533772.804</v>
-      </c>
-      <c r="G222" t="n">
-        <v>2414250293569.625</v>
-      </c>
-      <c r="H222" t="n">
-        <v>4.370414043527332</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0.3581907060798048</v>
-      </c>
-      <c r="J222" t="n">
-        <v>1.092603510881833</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>41951663318838.21</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3672197812641.234</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1152647943273.438</v>
-      </c>
-      <c r="E223" t="n">
-        <v>969518042978.1547</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1790352650399.453</v>
-      </c>
-      <c r="G223" t="n">
-        <v>2198884283401.948</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1.432640484329757</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0.8385025662469114</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0.3581601210824392</v>
+        <v>0.3834744785290831</v>
       </c>
     </row>
   </sheetData>
